--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9555" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="1195">
   <si>
     <t>English</t>
   </si>
@@ -81,6 +81,3148 @@
     <t>Irish</t>
   </si>
   <si>
+    <t>optionOff</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>optionOn</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>开启</t>
+  </si>
+  <si>
+    <t>pastingVanillaFailed</t>
+  </si>
+  <si>
+    <t>Host Info: Pasting vanilla settings failed, TORR Options applied!</t>
+  </si>
+  <si>
+    <t>房主信息: 粘贴原版设置失败，模组设置已更改!</t>
+  </si>
+  <si>
+    <t>pastingInvalidSettings</t>
+  </si>
+  <si>
+    <t>Host Info: You tried to paste invalid settings: "{0}..."</t>
+  </si>
+  <si>
+    <t>房主信息: 你尝试粘贴无效设置: "{0}..."</t>
+  </si>
+  <si>
+    <t>emptyClipboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(empty clipboard) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(剪切板空) </t>
+  </si>
+  <si>
+    <t>categoryHeaderMaskedImp</t>
+  </si>
+  <si>
+    <t>Impostor Roles</t>
+  </si>
+  <si>
+    <t>伪装者职业</t>
+  </si>
+  <si>
+    <t>categoryHeaderMaskedNeut</t>
+  </si>
+  <si>
+    <t>Neutral Roles</t>
+  </si>
+  <si>
+    <t>中立职业</t>
+  </si>
+  <si>
+    <t>categoryHeaderMaskedCrew</t>
+  </si>
+  <si>
+    <t>Crewmate Roles</t>
+  </si>
+  <si>
+    <t>船员职业</t>
+  </si>
+  <si>
+    <t>categoryHeaderMaskedMod</t>
+  </si>
+  <si>
+    <t>Modifiers</t>
+  </si>
+  <si>
+    <t>附加职业</t>
+  </si>
+  <si>
+    <t>spawnChance</t>
+  </si>
+  <si>
+    <t>Spawn Chance</t>
+  </si>
+  <si>
+    <t>出现概率</t>
+  </si>
+  <si>
+    <t>specialOptionsViewCrew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">填充: </t>
+  </si>
+  <si>
+    <t>TORSettings</t>
+  </si>
+  <si>
+    <t>TORR Settings</t>
+  </si>
+  <si>
+    <t>模组设置</t>
+  </si>
+  <si>
+    <t>RoleOverview</t>
+  </si>
+  <si>
+    <t>Role Overview</t>
+  </si>
+  <si>
+    <t>职业总览</t>
+  </si>
+  <si>
+    <t>HideNSeekMain</t>
+  </si>
+  <si>
+    <t>Hide 'N' Seek</t>
+  </si>
+  <si>
+    <t>捉迷藏设置</t>
+  </si>
+  <si>
+    <t>HideNSeekRoles</t>
+  </si>
+  <si>
+    <t>Hide 'N' Seek Roles</t>
+  </si>
+  <si>
+    <t>捉迷藏职业</t>
+  </si>
+  <si>
+    <t>PropHuntSetting</t>
+  </si>
+  <si>
+    <t>Prop Hunt</t>
+  </si>
+  <si>
+    <t>变形狩猎设置</t>
+  </si>
+  <si>
+    <t>GuesserSettingsText</t>
+  </si>
+  <si>
+    <t>Guesser Settings</t>
+  </si>
+  <si>
+    <t>赌怪模式设置</t>
+  </si>
+  <si>
+    <t>ImpostorSettingsText</t>
+  </si>
+  <si>
+    <t>伪装者职业设置</t>
+  </si>
+  <si>
+    <t>NeutralSettingsText</t>
+  </si>
+  <si>
+    <t>Neural Roles</t>
+  </si>
+  <si>
+    <t>中立职业设置</t>
+  </si>
+  <si>
+    <t>CrewmateSettingsText</t>
+  </si>
+  <si>
+    <t>船员职业设置</t>
+  </si>
+  <si>
+    <t>ModifierSettingsText</t>
+  </si>
+  <si>
+    <t>附加职业设置</t>
+  </si>
+  <si>
+    <t>buildModifierExtras</t>
+  </si>
+  <si>
+    <t>Evil:</t>
+  </si>
+  <si>
+    <t>邪恶概率:</t>
+  </si>
+  <si>
+    <t>pressTabForMore</t>
+  </si>
+  <si>
+    <t>\n Press TAB or Page Number for more... ({0}/{1})</t>
+  </si>
+  <si>
+    <t>\n 按Tab键查看更多... ({0}/{1})</t>
+  </si>
+  <si>
+    <t>page1</t>
+  </si>
+  <si>
+    <t>Page 1: Vanilla Settings \n\n</t>
+  </si>
+  <si>
+    <t>第一页：原版设置 \n\n</t>
+  </si>
+  <si>
+    <t>page2</t>
+  </si>
+  <si>
+    <t>Page 2: The Other Role Rework Settings \n</t>
+  </si>
+  <si>
+    <t>第二页：超多职业重制版设置 \n</t>
+  </si>
+  <si>
+    <t>page3</t>
+  </si>
+  <si>
+    <t>Page 3: Role and Modifier Rates \n</t>
+  </si>
+  <si>
+    <t>第三页：职业与附加职业概率 \n</t>
+  </si>
+  <si>
+    <t>page4</t>
+  </si>
+  <si>
+    <t>Page 4: Impostor Role Settings \n</t>
+  </si>
+  <si>
+    <t>第四页：伪装者职业设置 \n</t>
+  </si>
+  <si>
+    <t>page5</t>
+  </si>
+  <si>
+    <t>Page 5: Neutral Role Settings \n</t>
+  </si>
+  <si>
+    <t>第五页：中立职业设置 \n</t>
+  </si>
+  <si>
+    <t>page6</t>
+  </si>
+  <si>
+    <t>Page 6: Crewmate Role Settings \n</t>
+  </si>
+  <si>
+    <t>第六页：船员职业设置 \n</t>
+  </si>
+  <si>
+    <t>page7</t>
+  </si>
+  <si>
+    <t>Page 7: Modifier Settings \n</t>
+  </si>
+  <si>
+    <t>第七页：附加职业设置 \n</t>
+  </si>
+  <si>
+    <t>hideNSeekPage1</t>
+  </si>
+  <si>
+    <t>Page 1: Hide N Seek Settings \n\n</t>
+  </si>
+  <si>
+    <t>第一页：捉迷藏设置 \n\n</t>
+  </si>
+  <si>
+    <t>hideNSeekPage2</t>
+  </si>
+  <si>
+    <t>Page 2: Hide N Seek Role Settings \n\n</t>
+  </si>
+  <si>
+    <t>第二页：捉迷藏职业设置 \n\n</t>
+  </si>
+  <si>
+    <t>propHunt1</t>
+  </si>
+  <si>
+    <t>Page 1: Prop Hunt Settings \n\n</t>
+  </si>
+  <si>
+    <t>useScrollWheel</t>
+  </si>
+  <si>
+    <t>(Use scroll wheel if necessary)</t>
+  </si>
+  <si>
+    <t>(如有必要请使用滚轮)</t>
+  </si>
+  <si>
+    <t>killDistancesVS</t>
+  </si>
+  <si>
+    <t>Very Short</t>
+  </si>
+  <si>
+    <t>非常短</t>
+  </si>
+  <si>
+    <t>killDistancesS</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>短</t>
+  </si>
+  <si>
+    <t>killDistancesM</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>中等</t>
+  </si>
+  <si>
+    <t>killDistancesL</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>长</t>
+  </si>
+  <si>
+    <t>presetSelectionText</t>
+  </si>
+  <si>
+    <t>Preset</t>
+  </si>
+  <si>
+    <t>预设</t>
+  </si>
+  <si>
+    <t>presetSelectionText1</t>
+  </si>
+  <si>
+    <t>Preset 1</t>
+  </si>
+  <si>
+    <t>预设 1</t>
+  </si>
+  <si>
+    <t>presetSelectionText2</t>
+  </si>
+  <si>
+    <t>Preset 2</t>
+  </si>
+  <si>
+    <t>预设 2</t>
+  </si>
+  <si>
+    <t>presetSelectionText3</t>
+  </si>
+  <si>
+    <t>Random Preset Skeld</t>
+  </si>
+  <si>
+    <t>随机Skeld预设</t>
+  </si>
+  <si>
+    <t>presetSelectionText4</t>
+  </si>
+  <si>
+    <t>Random Preset Mira HQ</t>
+  </si>
+  <si>
+    <t>随机Mira HQ预设</t>
+  </si>
+  <si>
+    <t>presetSelectionText5</t>
+  </si>
+  <si>
+    <t>Random Preset Polus</t>
+  </si>
+  <si>
+    <t>随机Polus预设</t>
+  </si>
+  <si>
+    <t>presetSelectionText6</t>
+  </si>
+  <si>
+    <t>Random Preset Airship</t>
+  </si>
+  <si>
+    <t>随机Airship预设</t>
+  </si>
+  <si>
+    <t>presetSelectionText7</t>
+  </si>
+  <si>
+    <t>Random Preset Fungle</t>
+  </si>
+  <si>
+    <t>随机Fungle预设</t>
+  </si>
+  <si>
+    <t>presetSelectionText8</t>
+  </si>
+  <si>
+    <t>Random Preset Submerged</t>
+  </si>
+  <si>
+    <t>随机Submerged预设</t>
+  </si>
+  <si>
+    <t>enableEventMode</t>
+  </si>
+  <si>
+    <t>Enable Special Mode</t>
+  </si>
+  <si>
+    <t>启用愚人节恶搞模式</t>
+  </si>
+  <si>
+    <t>enableDraftMode</t>
+  </si>
+  <si>
+    <t>Enable Role Draft</t>
+  </si>
+  <si>
+    <t>开启轮抽选角模式</t>
+  </si>
+  <si>
+    <t>draftModeAmountOfChoices</t>
+  </si>
+  <si>
+    <t>Max Amount Of Roles\nTo Choose From</t>
+  </si>
+  <si>
+    <t>最大可选择职业数量</t>
+  </si>
+  <si>
+    <t>draftModeTimeToChoose</t>
+  </si>
+  <si>
+    <t>Time For Selection</t>
+  </si>
+  <si>
+    <t>选择职业持续时间</t>
+  </si>
+  <si>
+    <t>draftModeShowRoles</t>
+  </si>
+  <si>
+    <t>Show Picked Roles</t>
+  </si>
+  <si>
+    <t>显示被选择的职业</t>
+  </si>
+  <si>
+    <t>draftModeHideCrewRoles</t>
+  </si>
+  <si>
+    <t>Hide Crewmate Roles</t>
+  </si>
+  <si>
+    <t>隐藏已选择的船员职业</t>
+  </si>
+  <si>
+    <t>draftModeHideImpRoles</t>
+  </si>
+  <si>
+    <t>Hide Impostor Roles</t>
+  </si>
+  <si>
+    <t>隐藏已选择的内鬼职业</t>
+  </si>
+  <si>
+    <t>draftModeHideNeutralRoles</t>
+  </si>
+  <si>
+    <t>Hide Neutral Roles</t>
+  </si>
+  <si>
+    <t>隐藏已选择的中立职业</t>
+  </si>
+  <si>
+    <t>crewmateRolesCountMinHeading</t>
+  </si>
+  <si>
+    <t>Min/Max Roles</t>
+  </si>
+  <si>
+    <t>最大/小职业数设置</t>
+  </si>
+  <si>
+    <t>crewmateRolesCountMin</t>
+  </si>
+  <si>
+    <t>Minimum Crewmate Roles</t>
+  </si>
+  <si>
+    <t>最小船员职业数量</t>
+  </si>
+  <si>
+    <t>crewmateRolesCountMax</t>
+  </si>
+  <si>
+    <t>Maximum Crewmate Roles</t>
+  </si>
+  <si>
+    <t>最大船员职业数量</t>
+  </si>
+  <si>
+    <t>neutralRolesCountMin</t>
+  </si>
+  <si>
+    <t>Minimum Neutral Roles</t>
+  </si>
+  <si>
+    <t>最小中立职业数量</t>
+  </si>
+  <si>
+    <t>neutralRolesCountMax</t>
+  </si>
+  <si>
+    <t>Maximum Neutral Roles</t>
+  </si>
+  <si>
+    <t>最小大中立职业数量</t>
+  </si>
+  <si>
+    <t>impostorRolesCountMin</t>
+  </si>
+  <si>
+    <t>Minimum Impostor Roles</t>
+  </si>
+  <si>
+    <t>最小伪装者职业数量</t>
+  </si>
+  <si>
+    <t>impostorRolesCountMax</t>
+  </si>
+  <si>
+    <t>Maximum Impostor Roles</t>
+  </si>
+  <si>
+    <t>最大伪装者职业数量</t>
+  </si>
+  <si>
+    <t>modifiersCountMin</t>
+  </si>
+  <si>
+    <t>Minimum Modifiers</t>
+  </si>
+  <si>
+    <t>最小附加职业数量</t>
+  </si>
+  <si>
+    <t>modifiersCountMax</t>
+  </si>
+  <si>
+    <t>Maximum Modifiers</t>
+  </si>
+  <si>
+    <t>最大附加职业数量</t>
+  </si>
+  <si>
+    <t>crewmateRolesFill</t>
+  </si>
+  <si>
+    <t>Fill Crewmate Roles\n(Ignores Min/Max)</t>
+  </si>
+  <si>
+    <t>填充船员职业数\n(无视大小职业限制)</t>
+  </si>
+  <si>
+    <t>mafia</t>
+  </si>
+  <si>
+    <t>Mafia</t>
+  </si>
+  <si>
+    <t>"mafia"</t>
+  </si>
+  <si>
+    <t>黑手党</t>
+  </si>
+  <si>
+    <t>janitorCooldown</t>
+  </si>
+  <si>
+    <t>Janitor Cooldown</t>
+  </si>
+  <si>
+    <t>"janitorCooldown"</t>
+  </si>
+  <si>
+    <t>清洁工技能冷却</t>
+  </si>
+  <si>
+    <t>morphling</t>
+  </si>
+  <si>
+    <t>Morphling</t>
+  </si>
+  <si>
+    <t>"morphling"</t>
+  </si>
+  <si>
+    <t>化形者</t>
+  </si>
+  <si>
+    <t>morphlingCooldown</t>
+  </si>
+  <si>
+    <t>Morphling Cooldown</t>
+  </si>
+  <si>
+    <t>"morphlingCooldown"</t>
+  </si>
+  <si>
+    <t>化形冷却时间</t>
+  </si>
+  <si>
+    <t>morphlingDuration</t>
+  </si>
+  <si>
+    <t>Morph Duration</t>
+  </si>
+  <si>
+    <t>"morphlingDuration"</t>
+  </si>
+  <si>
+    <t>化形持续时间</t>
+  </si>
+  <si>
+    <t>camouflager</t>
+  </si>
+  <si>
+    <t>Camouflager</t>
+  </si>
+  <si>
+    <t>"camouflager"</t>
+  </si>
+  <si>
+    <t>隐蔽者</t>
+  </si>
+  <si>
+    <t>camouflagerCooldown</t>
+  </si>
+  <si>
+    <t>Camouflager Cooldown</t>
+  </si>
+  <si>
+    <t>"camouflagerCooldown"</t>
+  </si>
+  <si>
+    <t>隐蔽状态冷却</t>
+  </si>
+  <si>
+    <t>camouflagerDuration</t>
+  </si>
+  <si>
+    <t>Camo Duration</t>
+  </si>
+  <si>
+    <t>"camouflagerDuration"</t>
+  </si>
+  <si>
+    <t>隐蔽状态持续时间</t>
+  </si>
+  <si>
+    <t>vampire</t>
+  </si>
+  <si>
+    <t>Vampire</t>
+  </si>
+  <si>
+    <t>"vampire"</t>
+  </si>
+  <si>
+    <t>吸血鬼</t>
+  </si>
+  <si>
+    <t>vampireKillDelay</t>
+  </si>
+  <si>
+    <t>Vampire Kill Delay</t>
+  </si>
+  <si>
+    <t>"vampireKillDelay"</t>
+  </si>
+  <si>
+    <t>从吸血到击杀所需时间</t>
+  </si>
+  <si>
+    <t>vampireCooldown</t>
+  </si>
+  <si>
+    <t>Vampire Cooldown</t>
+  </si>
+  <si>
+    <t>"vampireCooldown"</t>
+  </si>
+  <si>
+    <t>吸血技能冷却时间</t>
+  </si>
+  <si>
+    <t>vampireCanKillNearGarlics</t>
+  </si>
+  <si>
+    <t>Vampire Can Kill Near Garlics</t>
+  </si>
+  <si>
+    <t>"vampireCanKillNearGarlics"</t>
+  </si>
+  <si>
+    <t>可在大蒜附近击杀</t>
+  </si>
+  <si>
+    <t>eraser</t>
+  </si>
+  <si>
+    <t>Eraser</t>
+  </si>
+  <si>
+    <t>"eraser"</t>
+  </si>
+  <si>
+    <t>抹除者</t>
+  </si>
+  <si>
+    <t>eraserCooldown</t>
+  </si>
+  <si>
+    <t>Eraser Cooldown</t>
+  </si>
+  <si>
+    <t>"eraserCooldown"</t>
+  </si>
+  <si>
+    <t>抹除技能冷却时间</t>
+  </si>
+  <si>
+    <t>eraserCanEraseAnyone</t>
+  </si>
+  <si>
+    <t>Eraser Can Erase Anyone</t>
+  </si>
+  <si>
+    <t>"eraserCanEraseAnyone"</t>
+  </si>
+  <si>
+    <t>可抹除任何人</t>
+  </si>
+  <si>
+    <t>trickster</t>
+  </si>
+  <si>
+    <t>Trickster</t>
+  </si>
+  <si>
+    <t>"trickster"</t>
+  </si>
+  <si>
+    <t>骗术师</t>
+  </si>
+  <si>
+    <t>tricksterPlaceBoxCooldown</t>
+  </si>
+  <si>
+    <t>Trickster Box Cooldown</t>
+  </si>
+  <si>
+    <t>"tricksterPlaceBoxCooldown"</t>
+  </si>
+  <si>
+    <t>放置惊吓盒冷却</t>
+  </si>
+  <si>
+    <t>tricksterLightsOutCooldown</t>
+  </si>
+  <si>
+    <t>Trickster Lights Out Cooldown</t>
+  </si>
+  <si>
+    <t>"tricksterLightsOutCooldown"</t>
+  </si>
+  <si>
+    <t>熄灯冷却时间</t>
+  </si>
+  <si>
+    <t>tricksterLightsOutDuration</t>
+  </si>
+  <si>
+    <t>Trickster Lights Out Duration</t>
+  </si>
+  <si>
+    <t>"tricksterLightsOutDuration"</t>
+  </si>
+  <si>
+    <t>熄灯持续时间</t>
+  </si>
+  <si>
+    <t>cleaner</t>
+  </si>
+  <si>
+    <t>Cleaner</t>
+  </si>
+  <si>
+    <t>"cleaner"</t>
+  </si>
+  <si>
+    <t>清理者</t>
+  </si>
+  <si>
+    <t>cleanerCooldown</t>
+  </si>
+  <si>
+    <t>Cleaner Cooldown</t>
+  </si>
+  <si>
+    <t>"cleanerCooldown"</t>
+  </si>
+  <si>
+    <t>清理技能冷却时间</t>
+  </si>
+  <si>
+    <t>warlock</t>
+  </si>
+  <si>
+    <t>Warlock</t>
+  </si>
+  <si>
+    <t>"warlock"</t>
+  </si>
+  <si>
+    <t>术士</t>
+  </si>
+  <si>
+    <t>warlockCooldown</t>
+  </si>
+  <si>
+    <t>Warlock Cooldown</t>
+  </si>
+  <si>
+    <t>"warlockCooldown"</t>
+  </si>
+  <si>
+    <t>诅咒技能冷却时间</t>
+  </si>
+  <si>
+    <t>warlockRootTime</t>
+  </si>
+  <si>
+    <t>Warlock Root Time</t>
+  </si>
+  <si>
+    <t>"warlockRootTime"</t>
+  </si>
+  <si>
+    <t>诅咒后定身时间</t>
+  </si>
+  <si>
+    <t>bountyHunter</t>
+  </si>
+  <si>
+    <t>Bounty Hunter</t>
+  </si>
+  <si>
+    <t>"bountyHunter"</t>
+  </si>
+  <si>
+    <t>赏金猎人</t>
+  </si>
+  <si>
+    <t>bountyHunterBountyDuration</t>
+  </si>
+  <si>
+    <t>Duration After Which Bounty Changes</t>
+  </si>
+  <si>
+    <t>"bountyHunterBountyDuration"</t>
+  </si>
+  <si>
+    <t>赏金目标更换间隔</t>
+  </si>
+  <si>
+    <t>bountyHunterReducedCooldown</t>
+  </si>
+  <si>
+    <t>Cooldown After Killing Bounty</t>
+  </si>
+  <si>
+    <t>"bountyHunterReducedCooldown"</t>
+  </si>
+  <si>
+    <t>击杀目标后的奖励冷却</t>
+  </si>
+  <si>
+    <t>bountyHunterPunishmentTime</t>
+  </si>
+  <si>
+    <t>Additional Cooldown After Killing Others</t>
+  </si>
+  <si>
+    <t>"bountyHunterPunishmentTime"</t>
+  </si>
+  <si>
+    <t>击杀非目标后叠加的惩罚冷却</t>
+  </si>
+  <si>
+    <t>bountyHunterShowArrow</t>
+  </si>
+  <si>
+    <t>Show Arrow Pointing Towards The Bounty</t>
+  </si>
+  <si>
+    <t>"bountyHunterShowArrow"</t>
+  </si>
+  <si>
+    <t>显示指向悬赏目标的箭头</t>
+  </si>
+  <si>
+    <t>bountyHunterArrowUpdateIntervall</t>
+  </si>
+  <si>
+    <t>Arrow Update Intervall</t>
+  </si>
+  <si>
+    <t>"bountyHunterArrowUpdateIntervall"</t>
+  </si>
+  <si>
+    <t>箭头更新间隔</t>
+  </si>
+  <si>
+    <t>witch</t>
+  </si>
+  <si>
+    <t>Witch</t>
+  </si>
+  <si>
+    <t>"witch"</t>
+  </si>
+  <si>
+    <t>女巫</t>
+  </si>
+  <si>
+    <t>witchCooldown</t>
+  </si>
+  <si>
+    <t>Witch Spell Casting Cooldown</t>
+  </si>
+  <si>
+    <t>"witchCooldown"</t>
+  </si>
+  <si>
+    <t>witchAdditionalCooldown</t>
+  </si>
+  <si>
+    <t>Witch Additional Cooldown</t>
+  </si>
+  <si>
+    <t>"witchAdditionalCooldown"</t>
+  </si>
+  <si>
+    <t>诅咒技能冷却递增</t>
+  </si>
+  <si>
+    <t>witchCanSpellAnyone</t>
+  </si>
+  <si>
+    <t>Witch Can Spell Anyone</t>
+  </si>
+  <si>
+    <t>"witchCanSpellAnyone"</t>
+  </si>
+  <si>
+    <t>可以诅咒任何人</t>
+  </si>
+  <si>
+    <t>witchSpellCastingDuration</t>
+  </si>
+  <si>
+    <t>Spell Casting Duration</t>
+  </si>
+  <si>
+    <t>"witchSpellCastingDuration"</t>
+  </si>
+  <si>
+    <t>贴身诅咒所需时间</t>
+  </si>
+  <si>
+    <t>witchTriggerBothCooldowns</t>
+  </si>
+  <si>
+    <t>Trigger Both Cooldowns</t>
+  </si>
+  <si>
+    <t>"witchTriggerBothCooldowns"</t>
+  </si>
+  <si>
+    <t>诅咒与击杀共享冷却</t>
+  </si>
+  <si>
+    <t>witchVoteSavesTargets</t>
+  </si>
+  <si>
+    <t>Voting The Witch Saves All The Targets</t>
+  </si>
+  <si>
+    <t>"witchVoteSavesTargets"</t>
+  </si>
+  <si>
+    <t>驱逐女巫可拯救被诅咒者</t>
+  </si>
+  <si>
+    <t>ninja</t>
+  </si>
+  <si>
+    <t>Ninja</t>
+  </si>
+  <si>
+    <t>"ninja"</t>
+  </si>
+  <si>
+    <t>忍者</t>
+  </si>
+  <si>
+    <t>ninjaCooldown</t>
+  </si>
+  <si>
+    <t>Ninja Mark Cooldown</t>
+  </si>
+  <si>
+    <t>"ninjaCooldown"</t>
+  </si>
+  <si>
+    <t>标记技能冷却时间</t>
+  </si>
+  <si>
+    <t>ninjaKnowsTargetLocation</t>
+  </si>
+  <si>
+    <t>Ninja Knows Location Of Target</t>
+  </si>
+  <si>
+    <t>"ninjaKnowsTargetLocation"</t>
+  </si>
+  <si>
+    <t>显示指向刺杀对象的箭头</t>
+  </si>
+  <si>
+    <t>ninjaTraceTime</t>
+  </si>
+  <si>
+    <t>Trace Duration</t>
+  </si>
+  <si>
+    <t>"ninjaTraceTime"</t>
+  </si>
+  <si>
+    <t>刺杀后树叶痕迹持续时间</t>
+  </si>
+  <si>
+    <t>ninjaTraceColorTime</t>
+  </si>
+  <si>
+    <t>Time Till Trace Color Has Faded</t>
+  </si>
+  <si>
+    <t>"ninjaTraceColorTime"</t>
+  </si>
+  <si>
+    <t>刺杀后痕迹褪色所需时间</t>
+  </si>
+  <si>
+    <t>ninjaInvisibleDuration</t>
+  </si>
+  <si>
+    <t>Time The Ninja Is Invisible</t>
+  </si>
+  <si>
+    <t>"ninjaInvisibleDuration"</t>
+  </si>
+  <si>
+    <t>刺杀后隐身持续时间</t>
+  </si>
+  <si>
+    <t>bomber</t>
+  </si>
+  <si>
+    <t>Bomber</t>
+  </si>
+  <si>
+    <t>"bomber"</t>
+  </si>
+  <si>
+    <t>炸弹狂</t>
+  </si>
+  <si>
+    <t>bomberBombDestructionTime</t>
+  </si>
+  <si>
+    <t>Bomb Destruction Time</t>
+  </si>
+  <si>
+    <t>"bomberBombDestructionTime"</t>
+  </si>
+  <si>
+    <t>炸弹引爆时间</t>
+  </si>
+  <si>
+    <t>bomberBombDestructionRange</t>
+  </si>
+  <si>
+    <t>Bomb Destruction Range</t>
+  </si>
+  <si>
+    <t>"bomberBombDestructionRange"</t>
+  </si>
+  <si>
+    <t>炸弹爆炸范围</t>
+  </si>
+  <si>
+    <t>bomberBombHearRange</t>
+  </si>
+  <si>
+    <t>Bomb Hear Range</t>
+  </si>
+  <si>
+    <t>"bomberBombHearRange"</t>
+  </si>
+  <si>
+    <t>爆炸前预警范围
+声音传播距离</t>
+  </si>
+  <si>
+    <t>bomberDefuseDuration</t>
+  </si>
+  <si>
+    <t>Bomb Defuse Duration</t>
+  </si>
+  <si>
+    <t>"bomberDefuseDuration"</t>
+  </si>
+  <si>
+    <t>拆除炸弹所需时间</t>
+  </si>
+  <si>
+    <t>bomberBombCooldown</t>
+  </si>
+  <si>
+    <t>Bomb Cooldown</t>
+  </si>
+  <si>
+    <t>"bomberBombCooldown"</t>
+  </si>
+  <si>
+    <t>炸弹放置冷却</t>
+  </si>
+  <si>
+    <t>bomberBombActiveAfter</t>
+  </si>
+  <si>
+    <t>Bomb Is Active After</t>
+  </si>
+  <si>
+    <t>"bomberBombActiveAfter"</t>
+  </si>
+  <si>
+    <t>炸弹激活时间</t>
+  </si>
+  <si>
+    <t>yoyo</t>
+  </si>
+  <si>
+    <t>Yo-Yo</t>
+  </si>
+  <si>
+    <t>"yoyo"</t>
+  </si>
+  <si>
+    <t>悠悠球</t>
+  </si>
+  <si>
+    <t>yoyoBlinkDuration</t>
+  </si>
+  <si>
+    <t>Blink Duration</t>
+  </si>
+  <si>
+    <t>"yoyoBlinkDuration"</t>
+  </si>
+  <si>
+    <t>瞬移技能冷却时间</t>
+  </si>
+  <si>
+    <t>yoyoMarkCooldown</t>
+  </si>
+  <si>
+    <t>Mark Location Cooldown</t>
+  </si>
+  <si>
+    <t>"yoyoMarkCooldown"</t>
+  </si>
+  <si>
+    <t>yoyoMarkStaysOverMeeting</t>
+  </si>
+  <si>
+    <t>Marked Location Stays After Meeting</t>
+  </si>
+  <si>
+    <t>"yoyoMarkStaysOverMeeting"</t>
+  </si>
+  <si>
+    <t>会议后不重置标记地点</t>
+  </si>
+  <si>
+    <t>yoyoHasAdminTable</t>
+  </si>
+  <si>
+    <t>Has Admin Table</t>
+  </si>
+  <si>
+    <t>"yoyoHasAdminTable"</t>
+  </si>
+  <si>
+    <t>可随身查看管理室地图</t>
+  </si>
+  <si>
+    <t>yoyoAdminTableCooldown</t>
+  </si>
+  <si>
+    <t>Admin Table Cooldown</t>
+  </si>
+  <si>
+    <t>"yoyoAdminTableCooldown"</t>
+  </si>
+  <si>
+    <t>查看管理室地图技能冷却</t>
+  </si>
+  <si>
+    <t>yoyoSilhouetteVisibility</t>
+  </si>
+  <si>
+    <t>Silhouette Visibility</t>
+  </si>
+  <si>
+    <t>"yoyoSilhouetteVisibility"</t>
+  </si>
+  <si>
+    <t>残影透明度</t>
+  </si>
+  <si>
+    <t>guesser</t>
+  </si>
+  <si>
+    <t>Guesser</t>
+  </si>
+  <si>
+    <t>"guesser"</t>
+  </si>
+  <si>
+    <t>赌怪</t>
+  </si>
+  <si>
+    <t>guesserIsImpGuesserRate</t>
+  </si>
+  <si>
+    <t>Chance That The Guesser Is An Impostor</t>
+  </si>
+  <si>
+    <t>"guesserIsImpGuesserRate"</t>
+  </si>
+  <si>
+    <t>是伪装者阵营的的概率</t>
+  </si>
+  <si>
+    <t>guesserNumberOfShots</t>
+  </si>
+  <si>
+    <t>Guesser Number Of Shots</t>
+  </si>
+  <si>
+    <t>"guesserNumberOfShots"</t>
+  </si>
+  <si>
+    <t>可猜测次数</t>
+  </si>
+  <si>
+    <t>guesserHasMultipleShotsPerMeeting</t>
+  </si>
+  <si>
+    <t>Guesser Can Shoot Multiple Times Per Meeting</t>
+  </si>
+  <si>
+    <t>"guesserHasMultipleShotsPerMeeting"</t>
+  </si>
+  <si>
+    <t>每轮会议可多次猜测</t>
+  </si>
+  <si>
+    <t>guesserKillsThroughShield</t>
+  </si>
+  <si>
+    <t>Guesses Ignore The Medic Shield</t>
+  </si>
+  <si>
+    <t>"guesserKillsThroughShield"</t>
+  </si>
+  <si>
+    <t>猜测时无视医生护盾</t>
+  </si>
+  <si>
+    <t>guesserEvilCanKillSpy</t>
+  </si>
+  <si>
+    <t>Evil Guesser Can Guess The Spy</t>
+  </si>
+  <si>
+    <t>"guesserEvilCanKillSpy"</t>
+  </si>
+  <si>
+    <t>邪恶的赌怪可以猜测卧底</t>
+  </si>
+  <si>
+    <t>guesserSpawnBothRate</t>
+  </si>
+  <si>
+    <t>Both Guesser Spawn Rate</t>
+  </si>
+  <si>
+    <t>"guesserSpawnBothRate"</t>
+  </si>
+  <si>
+    <t>生成双赌的概率</t>
+  </si>
+  <si>
+    <t>guesserCantGuessSnitchIfTaksDone</t>
+  </si>
+  <si>
+    <t>Guesser Can't Guess Snitch When Tasks Completed</t>
+  </si>
+  <si>
+    <t>"guesserCantGuessSnitchIfTaksDone"</t>
+  </si>
+  <si>
+    <t>无法猜测完成任务的告密者</t>
+  </si>
+  <si>
+    <t>jester</t>
+  </si>
+  <si>
+    <t>Jester</t>
+  </si>
+  <si>
+    <t>"jester"</t>
+  </si>
+  <si>
+    <t>小丑</t>
+  </si>
+  <si>
+    <t>jesterCanCallEmergency</t>
+  </si>
+  <si>
+    <t>Jester Can Call Emergency Meeting</t>
+  </si>
+  <si>
+    <t>"jesterCanCallEmergency"</t>
+  </si>
+  <si>
+    <t>可以召开紧急会议</t>
+  </si>
+  <si>
+    <t>jesterHasImpostorVision</t>
+  </si>
+  <si>
+    <t>Jester Has Impostor Vision</t>
+  </si>
+  <si>
+    <t>"jesterHasImpostorVision"</t>
+  </si>
+  <si>
+    <t>拥有伪装者视野</t>
+  </si>
+  <si>
+    <t>arsonist</t>
+  </si>
+  <si>
+    <t>Arsonist</t>
+  </si>
+  <si>
+    <t>"arsonist"</t>
+  </si>
+  <si>
+    <t>纵火犯</t>
+  </si>
+  <si>
+    <t>arsonistCooldown</t>
+  </si>
+  <si>
+    <t>Arsonist Cooldown</t>
+  </si>
+  <si>
+    <t>"arsonistCooldown"</t>
+  </si>
+  <si>
+    <t>技能冷却时间</t>
+  </si>
+  <si>
+    <t>arsonistDuration</t>
+  </si>
+  <si>
+    <t>Arsonist Douse Duration</t>
+  </si>
+  <si>
+    <t>"arsonistDuration"</t>
+  </si>
+  <si>
+    <t>涂油所需时间</t>
+  </si>
+  <si>
+    <t>jackal</t>
+  </si>
+  <si>
+    <t>Jackal</t>
+  </si>
+  <si>
+    <t>"jackal"</t>
+  </si>
+  <si>
+    <t>jackalKillCooldown</t>
+  </si>
+  <si>
+    <t>Jackal/Sidekick Kill Cooldown</t>
+  </si>
+  <si>
+    <t>"jackalKillCooldown"</t>
+  </si>
+  <si>
+    <t>jackalCreateSidekickCooldown</t>
+  </si>
+  <si>
+    <t>Jackal Create Sidekick Cooldown</t>
+  </si>
+  <si>
+    <t>"jackalCreateSidekickCooldown"</t>
+  </si>
+  <si>
+    <t>jackalCanUseVents</t>
+  </si>
+  <si>
+    <t>Jackal Can Use Vents</t>
+  </si>
+  <si>
+    <t>"jackalCanUseVents"</t>
+  </si>
+  <si>
+    <t>jackalCanSabotageLights</t>
+  </si>
+  <si>
+    <t>Jackal Can Sabotage Lights</t>
+  </si>
+  <si>
+    <t>"jackalCanSabotageLights"</t>
+  </si>
+  <si>
+    <t>jackalCanCreateSidekick</t>
+  </si>
+  <si>
+    <t>Jackal Can Create A Sidekick</t>
+  </si>
+  <si>
+    <t>"jackalCanCreateSidekick"</t>
+  </si>
+  <si>
+    <t>sidekickPromotesToJackal</t>
+  </si>
+  <si>
+    <t>Sidekick Gets Promoted To Jackal On Jackal Death</t>
+  </si>
+  <si>
+    <t>"sidekickPromotesToJackal"</t>
+  </si>
+  <si>
+    <t>sidekickCanKill</t>
+  </si>
+  <si>
+    <t>Sidekick Can Kill</t>
+  </si>
+  <si>
+    <t>"sidekickCanKill"</t>
+  </si>
+  <si>
+    <t>sidekickCanUseVents</t>
+  </si>
+  <si>
+    <t>Sidekick Can Use Vents</t>
+  </si>
+  <si>
+    <t>"sidekickCanUseVents"</t>
+  </si>
+  <si>
+    <t>sidekickCanSabotageLights</t>
+  </si>
+  <si>
+    <t>Sidekick Can Sabotage Lights</t>
+  </si>
+  <si>
+    <t>"sidekickCanSabotageLights"</t>
+  </si>
+  <si>
+    <t>jackalPromotedFromSidekickCanCreateSidekick</t>
+  </si>
+  <si>
+    <t>Jackals Promoted From Sidekick Can Create A Sidekick</t>
+  </si>
+  <si>
+    <t>"jackalPromotedFromSidekickCanCreateSidekick"</t>
+  </si>
+  <si>
+    <t>jackalCanCreateSidekickFromImpostor</t>
+  </si>
+  <si>
+    <t>Jackals Can Make An Impostor To His Sidekick</t>
+  </si>
+  <si>
+    <t>"jackalCanCreateSidekickFromImpostor"</t>
+  </si>
+  <si>
+    <t>jackalAndSidekickHaveImpostorVision</t>
+  </si>
+  <si>
+    <t>Jackal And Sidekick Have Impostor Vision</t>
+  </si>
+  <si>
+    <t>"jackalAndSidekickHaveImpostorVision"</t>
+  </si>
+  <si>
+    <t>sidekick</t>
+  </si>
+  <si>
+    <t>Sidekick</t>
+  </si>
+  <si>
+    <t>vulture</t>
+  </si>
+  <si>
+    <t>Vulture</t>
+  </si>
+  <si>
+    <t>vultureCooldown</t>
+  </si>
+  <si>
+    <t>Vulture Cooldown</t>
+  </si>
+  <si>
+    <t>vultureNumberToWin</t>
+  </si>
+  <si>
+    <t>Number Of Corpses Needed To Be Eaten</t>
+  </si>
+  <si>
+    <t>vultureCanUseVents</t>
+  </si>
+  <si>
+    <t>Vulture Can Use Vents</t>
+  </si>
+  <si>
+    <t>vultureShowArrows</t>
+  </si>
+  <si>
+    <t>Show Arrows Pointing Towards The Corpses</t>
+  </si>
+  <si>
+    <t>lawyer</t>
+  </si>
+  <si>
+    <t>Lawyer</t>
+  </si>
+  <si>
+    <t>lawyerIsProsecutorChance</t>
+  </si>
+  <si>
+    <t>Chance That The Lawyer Is Prosecutor</t>
+  </si>
+  <si>
+    <t>lawyerVision</t>
+  </si>
+  <si>
+    <t>Vision</t>
+  </si>
+  <si>
+    <t>lawyerKnowsRole</t>
+  </si>
+  <si>
+    <t>Lawyer/Prosecutor Knows Target Role</t>
+  </si>
+  <si>
+    <t>lawyerCanCallEmergency</t>
+  </si>
+  <si>
+    <t>Lawyer/Prosecutor Can Call Emergency Meeting</t>
+  </si>
+  <si>
+    <t>lawyerTargetCanBeJester</t>
+  </si>
+  <si>
+    <t>Lawyer Target Can Be The Jester</t>
+  </si>
+  <si>
+    <t>pursuerCooldown</t>
+  </si>
+  <si>
+    <t>Pursuer Blank Cooldown</t>
+  </si>
+  <si>
+    <t>pursuerBlanksNumber</t>
+  </si>
+  <si>
+    <t>Pursuer Number Of Blanks</t>
+  </si>
+  <si>
+    <t>prosecutor</t>
+  </si>
+  <si>
+    <t>Prosecutor</t>
+  </si>
+  <si>
+    <t>mayor</t>
+  </si>
+  <si>
+    <t>Mayor</t>
+  </si>
+  <si>
+    <t>mayorCanSeeVoteColors</t>
+  </si>
+  <si>
+    <t>Mayor Can See Vote Colors</t>
+  </si>
+  <si>
+    <t>mayorTasksNeededToSeeVoteColors</t>
+  </si>
+  <si>
+    <t>Completed Tasks Needed To See Vote Colors</t>
+  </si>
+  <si>
+    <t>mayorMeetingButton</t>
+  </si>
+  <si>
+    <t>Mobile Emergency Button</t>
+  </si>
+  <si>
+    <t>mayorMaxRemoteMeetings</t>
+  </si>
+  <si>
+    <t>Number Of Remote Meetings</t>
+  </si>
+  <si>
+    <t>mayorChooseSingleVote</t>
+  </si>
+  <si>
+    <t>Mayor Can Choose Single Vote</t>
+  </si>
+  <si>
+    <t>mayorChooseSingleVote1</t>
+  </si>
+  <si>
+    <t>mayorChooseSingleVote2</t>
+  </si>
+  <si>
+    <t>On (Before Voting)</t>
+  </si>
+  <si>
+    <t>mayorChooseSingleVote3</t>
+  </si>
+  <si>
+    <t>On (Until Meeting Ends)</t>
+  </si>
+  <si>
+    <t>engineer</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>engineerNumberOfFixes</t>
+  </si>
+  <si>
+    <t>Number Of Sabotage Fixes</t>
+  </si>
+  <si>
+    <t>engineerHighlightForImpostors</t>
+  </si>
+  <si>
+    <t>Impostors See Vents Highlighted</t>
+  </si>
+  <si>
+    <t>engineerHighlightForTeamJackal</t>
+  </si>
+  <si>
+    <t>Jackal and Sidekick See Vents Highlighted</t>
+  </si>
+  <si>
+    <t>sheriff</t>
+  </si>
+  <si>
+    <t>Sheriff</t>
+  </si>
+  <si>
+    <t>sheriffCooldown</t>
+  </si>
+  <si>
+    <t>Sheriff Cooldown</t>
+  </si>
+  <si>
+    <t>sheriffCanKillNeutrals</t>
+  </si>
+  <si>
+    <t>Sheriff Can Kill Neutrals</t>
+  </si>
+  <si>
+    <t>deputy</t>
+  </si>
+  <si>
+    <t>Deputy</t>
+  </si>
+  <si>
+    <t>deputySpawnRate</t>
+  </si>
+  <si>
+    <t>Sheriff Has A Deputy</t>
+  </si>
+  <si>
+    <t>deputyNumberOfHandcuffs</t>
+  </si>
+  <si>
+    <t>Deputy Number Of Handcuffs</t>
+  </si>
+  <si>
+    <t>deputyHandcuffCooldown</t>
+  </si>
+  <si>
+    <t>Handcuff Cooldown</t>
+  </si>
+  <si>
+    <t>deputyHandcuffDuration</t>
+  </si>
+  <si>
+    <t>Handcuff Duration</t>
+  </si>
+  <si>
+    <t>deputyKnowsSheriff</t>
+  </si>
+  <si>
+    <t>Sheriff And Deputy Know Each Other</t>
+  </si>
+  <si>
+    <t>deputyGetsPromoted</t>
+  </si>
+  <si>
+    <t>Deputy Gets Promoted To Sheriff</t>
+  </si>
+  <si>
+    <t>deputyGetsPromoted1</t>
+  </si>
+  <si>
+    <t>deputyGetsPromoted2</t>
+  </si>
+  <si>
+    <t>On (Immediately)</t>
+  </si>
+  <si>
+    <t>deputyGetsPromoted3</t>
+  </si>
+  <si>
+    <t>On (After Meeting)</t>
+  </si>
+  <si>
+    <t>deputyKeepsHandcuffs</t>
+  </si>
+  <si>
+    <t>Deputy Keeps Handcuffs When Promoted</t>
+  </si>
+  <si>
+    <t>lighter</t>
+  </si>
+  <si>
+    <t>Lighter</t>
+  </si>
+  <si>
+    <t>lighterModeLightsOnVision</t>
+  </si>
+  <si>
+    <t>Vision On Lights On</t>
+  </si>
+  <si>
+    <t>lighterModeLightsOffVision</t>
+  </si>
+  <si>
+    <t>Vision On Lights Off</t>
+  </si>
+  <si>
+    <t>lighterFlashlightWidth</t>
+  </si>
+  <si>
+    <t>Flashlight Width</t>
+  </si>
+  <si>
+    <t>detective</t>
+  </si>
+  <si>
+    <t>Detective</t>
+  </si>
+  <si>
+    <t>detectiveAnonymousFootprints</t>
+  </si>
+  <si>
+    <t>Anonymous Footprints</t>
+  </si>
+  <si>
+    <t>detectiveFootprintIntervall</t>
+  </si>
+  <si>
+    <t>Footprint Intervall</t>
+  </si>
+  <si>
+    <t>detectiveFootprintDuration</t>
+  </si>
+  <si>
+    <t>Footprint Duration</t>
+  </si>
+  <si>
+    <t>detectiveReportNameDuration</t>
+  </si>
+  <si>
+    <t>Time Where Detective Reports Will Have Name</t>
+  </si>
+  <si>
+    <t>detectiveReportColorDuration</t>
+  </si>
+  <si>
+    <t>Time Where Detective Reports Will Have Color Type</t>
+  </si>
+  <si>
+    <t>timeMaster</t>
+  </si>
+  <si>
+    <t>Time Master</t>
+  </si>
+  <si>
+    <t>timeMasterCooldown</t>
+  </si>
+  <si>
+    <t>Time Master Cooldown</t>
+  </si>
+  <si>
+    <t>timeMasterRewindTime</t>
+  </si>
+  <si>
+    <t>Rewind Time</t>
+  </si>
+  <si>
+    <t>timeMasterShieldDuration</t>
+  </si>
+  <si>
+    <t>Time Master Shield Duration</t>
+  </si>
+  <si>
+    <t>medic</t>
+  </si>
+  <si>
+    <t>Medic</t>
+  </si>
+  <si>
+    <t>medicShowShielded</t>
+  </si>
+  <si>
+    <t>Show Shielded Player</t>
+  </si>
+  <si>
+    <t>medicShowShielded1</t>
+  </si>
+  <si>
+    <t>Everyone</t>
+  </si>
+  <si>
+    <t>medicShowShielded2</t>
+  </si>
+  <si>
+    <t>Shielded + Medic</t>
+  </si>
+  <si>
+    <t>medicShowShielded3</t>
+  </si>
+  <si>
+    <t>medicShowAttemptToShielded</t>
+  </si>
+  <si>
+    <t>Shielded Player Sees Murder Attempt</t>
+  </si>
+  <si>
+    <t>medicSetOrShowShieldAfterMeeting</t>
+  </si>
+  <si>
+    <t>Shield Will Be Activated</t>
+  </si>
+  <si>
+    <t>medicSetOrShowShieldAfterMeeting1</t>
+  </si>
+  <si>
+    <t>Instantly</t>
+  </si>
+  <si>
+    <t>medicSetOrShowShieldAfterMeeting2</t>
+  </si>
+  <si>
+    <t>Instantly, Visible\nAfter Meeting</t>
+  </si>
+  <si>
+    <t>medicSetOrShowShieldAfterMeeting3</t>
+  </si>
+  <si>
+    <t>After Meeting</t>
+  </si>
+  <si>
+    <t>medicShowAttemptToMedic</t>
+  </si>
+  <si>
+    <t>Medic Sees Murder Attempt On Shielded Player</t>
+  </si>
+  <si>
+    <t>swapper</t>
+  </si>
+  <si>
+    <t>Swapper</t>
+  </si>
+  <si>
+    <t>swapperCanCallEmergency</t>
+  </si>
+  <si>
+    <t>Swapper Can Call Emergency Meeting</t>
+  </si>
+  <si>
+    <t>swapperCanOnlySwapOthers</t>
+  </si>
+  <si>
+    <t>Swapper Can Only Swap Others</t>
+  </si>
+  <si>
+    <t>swapperSwapsNumber</t>
+  </si>
+  <si>
+    <t>Initial Swap Charges</t>
+  </si>
+  <si>
+    <t>swapperRechargeTasksNumber</t>
+  </si>
+  <si>
+    <t>Number Of Tasks Needed For Recharging</t>
+  </si>
+  <si>
+    <t>seer</t>
+  </si>
+  <si>
+    <t>Seer</t>
+  </si>
+  <si>
+    <t>seerMode</t>
+  </si>
+  <si>
+    <t>Seer Mode</t>
+  </si>
+  <si>
+    <t>seerMode1</t>
+  </si>
+  <si>
+    <t>Show Death Flash + Souls</t>
+  </si>
+  <si>
+    <t>seerMode2</t>
+  </si>
+  <si>
+    <t>Show Death Flash</t>
+  </si>
+  <si>
+    <t>seerMode3</t>
+  </si>
+  <si>
+    <t>Show Souls</t>
+  </si>
+  <si>
+    <t>seerLimitSoulDuration</t>
+  </si>
+  <si>
+    <t>Seer Limit Soul Duration</t>
+  </si>
+  <si>
+    <t>seerSoulDuration</t>
+  </si>
+  <si>
+    <t>Seer Soul Duration</t>
+  </si>
+  <si>
+    <t>hacker</t>
+  </si>
+  <si>
+    <t>Hacker</t>
+  </si>
+  <si>
+    <t>hackerCooldown</t>
+  </si>
+  <si>
+    <t>Hacker Cooldown</t>
+  </si>
+  <si>
+    <t>hackerHackeringDuration</t>
+  </si>
+  <si>
+    <t>Hacker Duration</t>
+  </si>
+  <si>
+    <t>hackerOnlyColorType</t>
+  </si>
+  <si>
+    <t>Hacker Only Sees Color Type</t>
+  </si>
+  <si>
+    <t>hackerToolsNumber</t>
+  </si>
+  <si>
+    <t>Max Mobile Gadget Charges</t>
+  </si>
+  <si>
+    <t>hackerRechargeTasksNumber</t>
+  </si>
+  <si>
+    <t>hackerNoMove</t>
+  </si>
+  <si>
+    <t>Cant Move During Mobile Gadget Duration</t>
+  </si>
+  <si>
+    <t>tracker</t>
+  </si>
+  <si>
+    <t>Tracker</t>
+  </si>
+  <si>
+    <t>trackerUpdateIntervall</t>
+  </si>
+  <si>
+    <t>Tracker Update Intervall</t>
+  </si>
+  <si>
+    <t>trackerResetTargetAfterMeeting</t>
+  </si>
+  <si>
+    <t>Tracker Reset Target After Meeting</t>
+  </si>
+  <si>
+    <t>trackerCanTrackCorpses</t>
+  </si>
+  <si>
+    <t>Tracker Can Track Corpses</t>
+  </si>
+  <si>
+    <t>trackerCorpsesTrackingCooldown</t>
+  </si>
+  <si>
+    <t>Corpses Tracking Cooldown</t>
+  </si>
+  <si>
+    <t>trackerCorpsesTrackingDuration</t>
+  </si>
+  <si>
+    <t>Corpses Tracking Duration</t>
+  </si>
+  <si>
+    <t>trackerTrackingMethod</t>
+  </si>
+  <si>
+    <t>How Tracker Gets Target Location</t>
+  </si>
+  <si>
+    <t>trackerTrackingMethod1</t>
+  </si>
+  <si>
+    <t>Arrow Only</t>
+  </si>
+  <si>
+    <t>trackerTrackingMethod2</t>
+  </si>
+  <si>
+    <t>Proximity Dectector Only</t>
+  </si>
+  <si>
+    <t>trackerTrackingMethod3</t>
+  </si>
+  <si>
+    <t>Arrow + Proximity</t>
+  </si>
+  <si>
+    <t>snitch</t>
+  </si>
+  <si>
+    <t>Snitch</t>
+  </si>
+  <si>
+    <t>snitchLeftTasksForReveal</t>
+  </si>
+  <si>
+    <t>Task Count Where The Snitch Will Be Revealed</t>
+  </si>
+  <si>
+    <t>snitchMode</t>
+  </si>
+  <si>
+    <t>Information Mode</t>
+  </si>
+  <si>
+    <t>snitchMode1</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>snitchMode2</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>snitchMode3</t>
+  </si>
+  <si>
+    <t>Chat &amp; Map</t>
+  </si>
+  <si>
+    <t>snitchTargets</t>
+  </si>
+  <si>
+    <t>Targets</t>
+  </si>
+  <si>
+    <t>snitchTargets1</t>
+  </si>
+  <si>
+    <t>All Evil Players</t>
+  </si>
+  <si>
+    <t>snitchTargets2</t>
+  </si>
+  <si>
+    <t>Killing Players</t>
+  </si>
+  <si>
+    <t>spy</t>
+  </si>
+  <si>
+    <t>Spy</t>
+  </si>
+  <si>
+    <t>spyCanDieToSheriff</t>
+  </si>
+  <si>
+    <t>Spy Can Die To Sheriff</t>
+  </si>
+  <si>
+    <t>spyImpostorsCanKillAnyone</t>
+  </si>
+  <si>
+    <t>Impostors Can Kill Anyone If There Is A Spy</t>
+  </si>
+  <si>
+    <t>spyCanEnterVents</t>
+  </si>
+  <si>
+    <t>Spy Can Enter Vents</t>
+  </si>
+  <si>
+    <t>spyHasImpostorVision</t>
+  </si>
+  <si>
+    <t>Spy Has Impostor Vision</t>
+  </si>
+  <si>
+    <t>portalmaker</t>
+  </si>
+  <si>
+    <t>Portalmaker</t>
+  </si>
+  <si>
+    <t>portalmakerCooldown</t>
+  </si>
+  <si>
+    <t>Portalmaker Cooldown</t>
+  </si>
+  <si>
+    <t>portalmakerUsePortalCooldown</t>
+  </si>
+  <si>
+    <t>Use Portal Cooldown</t>
+  </si>
+  <si>
+    <t>portalmakerLogOnlyColorType</t>
+  </si>
+  <si>
+    <t>Portalmaker Log Only Shows Color Type</t>
+  </si>
+  <si>
+    <t>portalmakerLogHasTime</t>
+  </si>
+  <si>
+    <t>Log Shows Time</t>
+  </si>
+  <si>
+    <t>portalmakerCanPortalFromAnywhere</t>
+  </si>
+  <si>
+    <t>Can Port To Portal From Everywhere</t>
+  </si>
+  <si>
+    <t>securityGuard</t>
+  </si>
+  <si>
+    <t>Security Guard</t>
+  </si>
+  <si>
+    <t>securityGuardCooldown</t>
+  </si>
+  <si>
+    <t>Security Guard Cooldown</t>
+  </si>
+  <si>
+    <t>securityGuardTotalScrews</t>
+  </si>
+  <si>
+    <t>Security Guard Number Of Screws</t>
+  </si>
+  <si>
+    <t>securityGuardCamPrice</t>
+  </si>
+  <si>
+    <t>Number Of Screws Per Cam</t>
+  </si>
+  <si>
+    <t>securityGuardVentPrice</t>
+  </si>
+  <si>
+    <t>Number Of Screws Per Vent</t>
+  </si>
+  <si>
+    <t>securityGuardCamDuration</t>
+  </si>
+  <si>
+    <t>Security Guard Duration</t>
+  </si>
+  <si>
+    <t>securityGuardCamMaxCharges</t>
+  </si>
+  <si>
+    <t>Gadget Max Charges</t>
+  </si>
+  <si>
+    <t>securityGuardCamRechargeTasksNumber</t>
+  </si>
+  <si>
+    <t>securityGuardNoMove</t>
+  </si>
+  <si>
+    <t>Cant Move During Cam Duration</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>mediumCooldown</t>
+  </si>
+  <si>
+    <t>Medium Questioning Cooldown</t>
+  </si>
+  <si>
+    <t>mediumDuration</t>
+  </si>
+  <si>
+    <t>Medium Questioning Duration</t>
+  </si>
+  <si>
+    <t>mediumOneTimeUse</t>
+  </si>
+  <si>
+    <t>Each Soul Can Only Be Questioned Once</t>
+  </si>
+  <si>
+    <t>mediumChanceAdditionalInfo</t>
+  </si>
+  <si>
+    <t>Chance That The Answer Contains \n Additional Information</t>
+  </si>
+  <si>
+    <t>thief</t>
+  </si>
+  <si>
+    <t>Thief</t>
+  </si>
+  <si>
+    <t>thiefCooldown</t>
+  </si>
+  <si>
+    <t>Thief Cooldown</t>
+  </si>
+  <si>
+    <t>thiefCanKillSheriff</t>
+  </si>
+  <si>
+    <t>Thief Can Kill Sheriff</t>
+  </si>
+  <si>
+    <t>thiefHasImpVision</t>
+  </si>
+  <si>
+    <t>Thief Has Impostor Vision</t>
+  </si>
+  <si>
+    <t>thiefCanUseVents</t>
+  </si>
+  <si>
+    <t>Thief Can Use Vents</t>
+  </si>
+  <si>
+    <t>thiefCanStealWithGuess</t>
+  </si>
+  <si>
+    <t>Thief Can Guess To Steal A Role (If Guesser)</t>
+  </si>
+  <si>
+    <t>trapper</t>
+  </si>
+  <si>
+    <t>Trapper</t>
+  </si>
+  <si>
+    <t>trapperCooldown</t>
+  </si>
+  <si>
+    <t>Trapper Cooldown</t>
+  </si>
+  <si>
+    <t>trapperMaxCharges</t>
+  </si>
+  <si>
+    <t>Max Traps Charges</t>
+  </si>
+  <si>
+    <t>trapperRechargeTasksNumber</t>
+  </si>
+  <si>
+    <t>trapperTrapNeededTriggerToReveal</t>
+  </si>
+  <si>
+    <t>Trap Needed Trigger To Reveal</t>
+  </si>
+  <si>
+    <t>trapperAnonymousMap</t>
+  </si>
+  <si>
+    <t>Show Anonymous Map</t>
+  </si>
+  <si>
+    <t>trapperInfoType</t>
+  </si>
+  <si>
+    <t>Trap Information Type</t>
+  </si>
+  <si>
+    <t>trapperInfoType1</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>trapperInfoType2</t>
+  </si>
+  <si>
+    <t>Good/Evil Role</t>
+  </si>
+  <si>
+    <t>trapperInfoType3</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>trapperTrapDuration</t>
+  </si>
+  <si>
+    <t>Trap Duration</t>
+  </si>
+  <si>
+    <t>modifiersAreHidden</t>
+  </si>
+  <si>
+    <t>VIP, Bait &amp; Bloody Are Hidden</t>
+  </si>
+  <si>
+    <t>modifiersAreHiddenHeading</t>
+  </si>
+  <si>
+    <t>Hide After Death Modifiers</t>
+  </si>
+  <si>
+    <t>modifierBloody</t>
+  </si>
+  <si>
+    <t>Bloody</t>
+  </si>
+  <si>
+    <t>modifierBloodyQuantity</t>
+  </si>
+  <si>
+    <t>Bloody Quantity</t>
+  </si>
+  <si>
+    <t>modifierBloodyDuration</t>
+  </si>
+  <si>
+    <t>Trail Duration</t>
+  </si>
+  <si>
+    <t>modifierAntiTeleport</t>
+  </si>
+  <si>
+    <t>Anti Teleport</t>
+  </si>
+  <si>
+    <t>modifierAntiTeleportQuantity</t>
+  </si>
+  <si>
+    <t>Anti Teleport Quantity</t>
+  </si>
+  <si>
+    <t>modifierTieBreaker</t>
+  </si>
+  <si>
+    <t>Tie Breaker</t>
+  </si>
+  <si>
+    <t>modifierBait</t>
+  </si>
+  <si>
+    <t>Bait</t>
+  </si>
+  <si>
+    <t>modifierBaitQuantity</t>
+  </si>
+  <si>
+    <t>Bait Quantity</t>
+  </si>
+  <si>
+    <t>modifierBaitReportDelayMin</t>
+  </si>
+  <si>
+    <t>Bait Report Delay Min</t>
+  </si>
+  <si>
+    <t>modifierBaitReportDelayMax</t>
+  </si>
+  <si>
+    <t>Bait Report Delay Max</t>
+  </si>
+  <si>
+    <t>modifierBaitShowKillFlash</t>
+  </si>
+  <si>
+    <t>Warn The Killer With A Flash</t>
+  </si>
+  <si>
+    <t>modifierLover</t>
+  </si>
+  <si>
+    <t>Lovers</t>
+  </si>
+  <si>
+    <t>modifierLoverImpLoverRate</t>
+  </si>
+  <si>
+    <t>Chance That One Lover Is Impostor</t>
+  </si>
+  <si>
+    <t>modifierLoverBothDie</t>
+  </si>
+  <si>
+    <t>Both Lovers Die</t>
+  </si>
+  <si>
+    <t>modifierLoverEnableChat</t>
+  </si>
+  <si>
+    <t>Enable Lover Chat</t>
+  </si>
+  <si>
+    <t>modifierSunglasses</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>modifierSunglassesQuantity</t>
+  </si>
+  <si>
+    <t>Sunglasses Quantity</t>
+  </si>
+  <si>
+    <t>modifierSunglassesVision</t>
+  </si>
+  <si>
+    <t>Vision With Sunglasses</t>
+  </si>
+  <si>
+    <t>modifierMini</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>modifierMiniGrowingUpDuration</t>
+  </si>
+  <si>
+    <t>Mini Growing Up Duration</t>
+  </si>
+  <si>
+    <t>modifierMiniGrowingUpInMeeting</t>
+  </si>
+  <si>
+    <t>Mini Grows Up In Meeting</t>
+  </si>
+  <si>
+    <t>eventKicksPerRound</t>
+  </si>
+  <si>
+    <t>Maximum Kicks Mini Suffers</t>
+  </si>
+  <si>
+    <t>eventHeavyAge</t>
+  </si>
+  <si>
+    <t>Age At Which Mini Is Heavy</t>
+  </si>
+  <si>
+    <t>eventReallyNoMini</t>
+  </si>
+  <si>
+    <t>Really No Mini :(</t>
+  </si>
+  <si>
+    <t>modifierVip</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>modifierVipQuantity</t>
+  </si>
+  <si>
+    <t>VIP Quantity</t>
+  </si>
+  <si>
+    <t>modifierVipShowColor</t>
+  </si>
+  <si>
+    <t>Show Team Color</t>
+  </si>
+  <si>
+    <t>modifierInvert</t>
+  </si>
+  <si>
+    <t>Invert</t>
+  </si>
+  <si>
+    <t>modifierInvertQuantity</t>
+  </si>
+  <si>
+    <t>Modifier Quantity</t>
+  </si>
+  <si>
+    <t>modifierInvertDuration</t>
+  </si>
+  <si>
+    <t>Number Of Meetings Inverted</t>
+  </si>
+  <si>
+    <t>modifierChameleon</t>
+  </si>
+  <si>
+    <t>Chameleon</t>
+  </si>
+  <si>
+    <t>modifierChameleonQuantity</t>
+  </si>
+  <si>
+    <t>Chameleon Quantity</t>
+  </si>
+  <si>
+    <t>modifierChameleonHoldDuration</t>
+  </si>
+  <si>
+    <t>Time Until Fading Starts</t>
+  </si>
+  <si>
+    <t>modifierChameleonFadeDuration</t>
+  </si>
+  <si>
+    <t>Fade Duration</t>
+  </si>
+  <si>
+    <t>modifierChameleonMinVisibility</t>
+  </si>
+  <si>
+    <t>Minimum Visibility</t>
+  </si>
+  <si>
+    <t>modifierArmored</t>
+  </si>
+  <si>
+    <t>Armored</t>
+  </si>
+  <si>
+    <t>modifierShifter</t>
+  </si>
+  <si>
+    <t>Shifter</t>
+  </si>
+  <si>
+    <t>modifierShifterShiftsMedicShield</t>
+  </si>
+  <si>
+    <t>Can Shift Medic Shield</t>
+  </si>
+  <si>
+    <t>guesserGamemodeCrewNumber</t>
+  </si>
+  <si>
+    <t>Number of Crew Guessers</t>
+  </si>
+  <si>
+    <t>guesserGamemodeCrewNumberHeading</t>
+  </si>
+  <si>
+    <t>Amount of Guessers</t>
+  </si>
+  <si>
+    <t>guesserGamemodeNeutralNumber</t>
+  </si>
+  <si>
+    <t>Number of Neutral Guessers</t>
+  </si>
+  <si>
+    <t>guesserGamemodeImpNumber</t>
+  </si>
+  <si>
+    <t>Number of Impostor Guessers</t>
+  </si>
+  <si>
+    <t>guesserForceJackalGuesser</t>
+  </si>
+  <si>
+    <t>Force Jackal Guesser</t>
+  </si>
+  <si>
+    <t>guesserForceJackalGuesserHeading</t>
+  </si>
+  <si>
+    <t>Force Guessers</t>
+  </si>
+  <si>
+    <t>guesserGamemodeSidekickIsAlwaysGuesser</t>
+  </si>
+  <si>
+    <t>Sidekick Is Always Guesser</t>
+  </si>
+  <si>
+    <t>guesserForceThiefGuesser</t>
+  </si>
+  <si>
+    <t>Force Thief Guesser</t>
+  </si>
+  <si>
+    <t>guesserGamemodeHaveModifier</t>
+  </si>
+  <si>
+    <t>Guessers Can Have A Modifier</t>
+  </si>
+  <si>
+    <t>guesserGamemodeHaveModifierHeading</t>
+  </si>
+  <si>
+    <t>General Guesser Settings</t>
+  </si>
+  <si>
+    <t>guesserGamemodeNumberOfShots</t>
+  </si>
+  <si>
+    <t>guesserGamemodeHasMultipleShotsPerMeeting</t>
+  </si>
+  <si>
+    <t>guesserGamemodeCrewGuesserNumberOfTasks</t>
+  </si>
+  <si>
+    <t>Number Of Tasks Needed To Unlock Shooting\nFor Crew Guesser</t>
+  </si>
+  <si>
+    <t>guesserGamemodeKillsThroughShield</t>
+  </si>
+  <si>
+    <t>guesserGamemodeEvilCanKillSpy</t>
+  </si>
+  <si>
+    <t>guesserGamemodeCantGuessSnitchIfTaksDone</t>
+  </si>
+  <si>
+    <t>hideNSeekMap</t>
+  </si>
+  <si>
+    <t>hideNSeekHunterCount</t>
+  </si>
+  <si>
+    <t>Number Of Hunters</t>
+  </si>
+  <si>
+    <t>hideNSeekKillCooldown</t>
+  </si>
+  <si>
+    <t>Kill Cooldown</t>
+  </si>
+  <si>
+    <t>hideNSeekHunterVision</t>
+  </si>
+  <si>
+    <t>Hunter Vision</t>
+  </si>
+  <si>
+    <t>hideNSeekHuntedVision</t>
+  </si>
+  <si>
+    <t>Hunted Vision</t>
+  </si>
+  <si>
+    <t>hideNSeekCommonTasks</t>
+  </si>
+  <si>
+    <t>Common Tasks</t>
+  </si>
+  <si>
+    <t>hideNSeekShortTasks</t>
+  </si>
+  <si>
+    <t>Short Tasks</t>
+  </si>
+  <si>
+    <t>hideNSeekLongTasks</t>
+  </si>
+  <si>
+    <t>Long Tasks</t>
+  </si>
+  <si>
+    <t>hideNSeekTimer</t>
+  </si>
+  <si>
+    <t>Timer In Min</t>
+  </si>
+  <si>
+    <t>hideNSeekTaskWin</t>
+  </si>
+  <si>
+    <t>Task Win Is Possible</t>
+  </si>
+  <si>
+    <t>hideNSeekTaskPunish</t>
+  </si>
+  <si>
+    <t>Finish Tasks Punish In Sec</t>
+  </si>
+  <si>
+    <t>hideNSeekCanSabotage</t>
+  </si>
+  <si>
+    <t>Enable Sabotages</t>
+  </si>
+  <si>
+    <t>hideNSeekHunterWaiting</t>
+  </si>
+  <si>
+    <t>Time The Hunter Needs To Wait</t>
+  </si>
+  <si>
+    <t>hunterLightCooldown</t>
+  </si>
+  <si>
+    <t>Hunter Light Cooldown</t>
+  </si>
+  <si>
+    <t>hunterLightCooldownHeading</t>
+  </si>
+  <si>
+    <t>Hunter Lights Settings</t>
+  </si>
+  <si>
+    <t>hunterLightDuration</t>
+  </si>
+  <si>
+    <t>Hunter Light Duration</t>
+  </si>
+  <si>
+    <t>hunterLightVision</t>
+  </si>
+  <si>
+    <t>Hunter Light Vision</t>
+  </si>
+  <si>
+    <t>hunterLightPunish</t>
+  </si>
+  <si>
+    <t>Hunter Light Punish In Sec</t>
+  </si>
+  <si>
+    <t>hunterAdminCooldown</t>
+  </si>
+  <si>
+    <t>Hunter Admin Cooldown</t>
+  </si>
+  <si>
+    <t>hunterAdminDuration</t>
+  </si>
+  <si>
+    <t>Hunter Admin Duration</t>
+  </si>
+  <si>
+    <t>hunterAdminPunish</t>
+  </si>
+  <si>
+    <t>Hunter Admin Punish In Sec</t>
+  </si>
+  <si>
+    <t>hunterArrowCooldown</t>
+  </si>
+  <si>
+    <t>Hunter Arrow Cooldown</t>
+  </si>
+  <si>
+    <t>hunterArrowDuration</t>
+  </si>
+  <si>
+    <t>Hunter Arrow Duration</t>
+  </si>
+  <si>
+    <t>hunterArrowPunish</t>
+  </si>
+  <si>
+    <t>Hunter Arrow Punish In Sec</t>
+  </si>
+  <si>
+    <t>huntedShieldCooldown</t>
+  </si>
+  <si>
+    <t>Hunted Shield Cooldown</t>
+  </si>
+  <si>
+    <t>huntedShieldCooldownHeading</t>
+  </si>
+  <si>
+    <t>Hunter Shields Settings</t>
+  </si>
+  <si>
+    <t>huntedShieldDuration</t>
+  </si>
+  <si>
+    <t>Hunted Shield Duration</t>
+  </si>
+  <si>
+    <t>huntedShieldRewindTime</t>
+  </si>
+  <si>
+    <t>Hunted Rewind Time</t>
+  </si>
+  <si>
+    <t>huntedShieldNumber</t>
+  </si>
+  <si>
+    <t>Hunted Shield Number</t>
+  </si>
+  <si>
+    <t>propHuntTimer</t>
+  </si>
+  <si>
+    <t>Timer In Min (Prop Hunt)</t>
+  </si>
+  <si>
+    <t>propHuntTimerHeading</t>
+  </si>
+  <si>
+    <t>General PropHunt Settings</t>
+  </si>
+  <si>
+    <t>propHuntUnstuckCooldown</t>
+  </si>
+  <si>
+    <t>Unstuck Cooldown</t>
+  </si>
+  <si>
+    <t>propHuntUnstuckDuration</t>
+  </si>
+  <si>
+    <t>Unstuck Duration</t>
+  </si>
+  <si>
+    <t>propHunterVision</t>
+  </si>
+  <si>
+    <t>Hunter Vision (Prop Hunt)</t>
+  </si>
+  <si>
+    <t>propVision</t>
+  </si>
+  <si>
+    <t>Prop Vision</t>
+  </si>
+  <si>
+    <t>propHuntNumberOfHunters</t>
+  </si>
+  <si>
+    <t>Number Of Hunters (Prop Hunt)</t>
+  </si>
+  <si>
+    <t>propHuntNumberOfHuntersHeading</t>
+  </si>
+  <si>
+    <t>Hunter Settings (Prop Hunt)</t>
+  </si>
+  <si>
+    <t>hunterInitialBlackoutTime</t>
+  </si>
+  <si>
+    <t>Hunter Initial Blackout Duration</t>
+  </si>
+  <si>
+    <t>hunterMissCooldown</t>
+  </si>
+  <si>
+    <t>Kill Cooldown After Miss</t>
+  </si>
+  <si>
+    <t>hunterHitCooldown</t>
+  </si>
+  <si>
+    <t>Kill Cooldown After Hit</t>
+  </si>
+  <si>
+    <t>propHuntRevealCooldown</t>
+  </si>
+  <si>
+    <t>Reveal Prop Cooldown</t>
+  </si>
+  <si>
+    <t>propHuntRevealDuration</t>
+  </si>
+  <si>
+    <t>Reveal Prop Duration</t>
+  </si>
+  <si>
+    <t>propHuntRevealPunish</t>
+  </si>
+  <si>
+    <t>Reveal Time Punish</t>
+  </si>
+  <si>
+    <t>propHuntAdminCooldown</t>
+  </si>
+  <si>
+    <t>Hunter Admin Cooldown (Prop Hunt)</t>
+  </si>
+  <si>
+    <t>propHuntFindCooldown</t>
+  </si>
+  <si>
+    <t>Find Cooldown</t>
+  </si>
+  <si>
+    <t>propHuntFindDuration</t>
+  </si>
+  <si>
+    <t>Find Duration</t>
+  </si>
+  <si>
+    <t>propBecomesHunterWhenFound</t>
+  </si>
+  <si>
+    <t>Props Become Hunters When Found</t>
+  </si>
+  <si>
+    <t>propBecomesHunterWhenFoundHeading</t>
+  </si>
+  <si>
+    <t>Prop Settings</t>
+  </si>
+  <si>
+    <t>propHuntInvisEnabled</t>
+  </si>
+  <si>
+    <t>Invisibility Enabled (Prop Hunt)</t>
+  </si>
+  <si>
+    <t>propHuntInvisCooldown</t>
+  </si>
+  <si>
+    <t>Invisibility Cooldown</t>
+  </si>
+  <si>
+    <t>propHuntInvisDuration</t>
+  </si>
+  <si>
+    <t>Invisibility Duration</t>
+  </si>
+  <si>
+    <t>propHuntSpeedboostEnabled</t>
+  </si>
+  <si>
+    <t>Speedboost Enabled</t>
+  </si>
+  <si>
+    <t>propHuntSpeedboostCooldown</t>
+  </si>
+  <si>
+    <t>Speedboost Cooldown</t>
+  </si>
+  <si>
+    <t>propHuntSpeedboostDuration</t>
+  </si>
+  <si>
+    <t>Speedboost Duration</t>
+  </si>
+  <si>
+    <t>propHuntSpeedboostSpeed</t>
+  </si>
+  <si>
+    <t>Speedboost Ratio</t>
+  </si>
+  <si>
+    <t>maxNumberOfMeetingsHeading</t>
+  </si>
+  <si>
+    <t>Gameplay Settings</t>
+  </si>
+  <si>
+    <t>maxNumberOfMeetings</t>
+  </si>
+  <si>
+    <t>Number Of Meetings (excluding Mayor meeting)</t>
+  </si>
+  <si>
+    <t>anyPlayerCanStopStart</t>
+  </si>
+  <si>
+    <t>Any Player Can Stop The Start</t>
+  </si>
+  <si>
+    <t>blockSkippingInEmergencyMeetings</t>
+  </si>
+  <si>
+    <t>Block Skipping In Emergency Meetings</t>
+  </si>
+  <si>
+    <t>noVoteIsSelfVote</t>
+  </si>
+  <si>
+    <t>No Vote Is Self Vote</t>
+  </si>
+  <si>
+    <t>hidePlayerNames</t>
+  </si>
+  <si>
+    <t>Hide Player Names</t>
+  </si>
+  <si>
+    <t>allowParallelMedBayScans</t>
+  </si>
+  <si>
+    <t>Allow Parallel MedBay Scans</t>
+  </si>
+  <si>
+    <t>shieldFirstKill</t>
+  </si>
+  <si>
+    <t>Shield Last Game First Kill</t>
+  </si>
+  <si>
+    <t>finishTasksBeforeHauntingOrZoomingOut</t>
+  </si>
+  <si>
+    <t>Finish Tasks Before Haunting Or Zooming Out</t>
+  </si>
+  <si>
+    <t>deadImpsBlockSabotage</t>
+  </si>
+  <si>
+    <t>Block Dead Impostor From Sabotaging</t>
+  </si>
+  <si>
+    <t>camsNightVision</t>
+  </si>
+  <si>
+    <t>Cams Switch To Night Vision If Lights Are Off</t>
+  </si>
+  <si>
+    <t>camsNightVisionHeading</t>
+  </si>
+  <si>
+    <t>Night Vision Cams</t>
+  </si>
+  <si>
+    <t>camsNoNightVisionIfImpVision</t>
+  </si>
+  <si>
+    <t>Impostor Vision Ignores Night Vision Cams</t>
+  </si>
+  <si>
+    <t>dynamicMapHeading</t>
+  </si>
+  <si>
+    <t>Random Maps</t>
+  </si>
+  <si>
+    <t>dynamicMap</t>
+  </si>
+  <si>
+    <t>Play On A Random Map</t>
+  </si>
+  <si>
+    <t>dynamicMapSeparateSettings</t>
+  </si>
+  <si>
+    <t>Use Random Map Setting Presets</t>
+  </si>
+  <si>
     <t>buttonLeftClick</t>
   </si>
   <si>
@@ -237,9 +3379,6 @@
     <t>jackalSidekick</t>
   </si>
   <si>
-    <t>Sidekick</t>
-  </si>
-  <si>
     <t>招募</t>
   </si>
   <si>
@@ -358,9 +3497,6 @@
   </si>
   <si>
     <t>标记</t>
-  </si>
-  <si>
-    <t>mayorMeetingButton</t>
   </si>
   <si>
     <t>Emergency</t>
@@ -1113,12 +4249,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1592,10 +4758,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AK1"/>
+  <dimension ref="A1:AK503"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="13.5" customHeight="1"/>
@@ -1621,75 +4787,4659 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:37">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:15">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:15">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:15">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:15">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1" spans="1:15">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:15">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:15">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:15">
+      <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:15">
+      <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:15">
+      <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:15">
+      <c r="A19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:15">
+      <c r="A21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:15">
+      <c r="A22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:15">
+      <c r="A24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:15">
+      <c r="A26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:15">
+      <c r="A28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:15">
+      <c r="A29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:15">
+      <c r="A30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:15">
+      <c r="A31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:15">
+      <c r="A33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A36" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A37" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A38" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A40" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A43" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A44" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A45" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="6"/>
+    </row>
+    <row r="46" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A46" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" s="4" customFormat="1" customHeight="1" spans="2:15">
+      <c r="B47" s="6"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="6"/>
+    </row>
+    <row r="48" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A48" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A49" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A50" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A51" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:15">
+      <c r="A53" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:15">
+      <c r="A54" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:15">
+      <c r="A55" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:15">
+      <c r="A56" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:15">
+      <c r="A57" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:15">
+      <c r="A58" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:15">
+      <c r="A59" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:15">
+      <c r="A60" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:15">
+      <c r="A61" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:15">
+      <c r="A63" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A65" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A66" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A67" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A68" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A69" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A70" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" s="4" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A71" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:15">
+      <c r="A73" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:15">
+      <c r="A74" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:15">
+      <c r="A75" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:15">
+      <c r="A76" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:15">
+      <c r="A77" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:15">
+      <c r="A78" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:15">
+      <c r="A79" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:15">
+      <c r="A80" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:15">
+      <c r="A81" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:15">
+      <c r="A82" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:15">
+      <c r="A84" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:15">
+      <c r="A85" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:3">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="9"/>
+    </row>
+    <row r="87" customHeight="1" spans="1:15">
+      <c r="A87" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:15">
+      <c r="A88" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="O88" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:15">
+      <c r="A89" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="O89" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:3">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="9"/>
+    </row>
+    <row r="91" customHeight="1" spans="1:15">
+      <c r="A91" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:15">
+      <c r="A92" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="O92" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:15">
+      <c r="A93" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="O93" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:3">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="9"/>
+    </row>
+    <row r="95" customHeight="1" spans="1:15">
+      <c r="A95" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:15">
+      <c r="A96" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="O96" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:15">
+      <c r="A97" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="O97" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:15">
+      <c r="A98" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="O98" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:15">
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="9"/>
+      <c r="O99" s="12"/>
+    </row>
+    <row r="100" customHeight="1" spans="1:15">
+      <c r="A100" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:15">
+      <c r="A101" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="O101" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:15">
+      <c r="A102" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="O102" s="12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:3">
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="9"/>
+    </row>
+    <row r="104" customHeight="1" spans="1:15">
+      <c r="A104" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:15">
+      <c r="A105" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="O105" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:15">
+      <c r="A106" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="O106" s="13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:15">
+      <c r="A107" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="O107" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:3">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="9"/>
+    </row>
+    <row r="109" customHeight="1" spans="1:15">
+      <c r="A109" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:15">
+      <c r="A110" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:3">
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="9"/>
+    </row>
+    <row r="112" customHeight="1" spans="1:15">
+      <c r="A112" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:15">
+      <c r="A113" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:15">
+      <c r="A114" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:3">
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="9"/>
+    </row>
+    <row r="116" customHeight="1" spans="1:15">
+      <c r="A116" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:15">
+      <c r="A117" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="O117" s="13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:15">
+      <c r="A118" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="O118" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:15">
+      <c r="A119" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="O119" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:15">
+      <c r="A120" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="O120" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="1:15">
+      <c r="A121" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="O121" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:3">
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="9"/>
+    </row>
+    <row r="123" customHeight="1" spans="1:15">
+      <c r="A123" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="O123" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="1:15">
+      <c r="A124" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="O124" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="1:15">
+      <c r="A125" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="O125" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="1:15">
+      <c r="A126" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="O126" s="12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="1:15">
+      <c r="A127" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="O127" s="12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="1:15">
+      <c r="A128" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="O128" s="12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="1:15">
+      <c r="A129" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="O129" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="1:3">
+      <c r="A130" s="10"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="9"/>
+    </row>
+    <row r="131" customHeight="1" spans="1:15">
+      <c r="A131" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="O131" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:15">
+      <c r="A132" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="O132" s="12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="1:15">
+      <c r="A133" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="O133" s="13" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="1:15">
+      <c r="A134" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="O134" s="12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="1:15">
+      <c r="A135" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="O135" s="12" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:15">
+      <c r="A136" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="O136" s="12" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:3">
+      <c r="A137" s="10"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="9"/>
+    </row>
+    <row r="138" customHeight="1" spans="1:15">
+      <c r="A138" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O138" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:15">
+      <c r="A139" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="O139" s="12" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="1:15">
+      <c r="A140" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="O140" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="1:15">
+      <c r="A141" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="O141" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="1:15">
+      <c r="A142" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="O142" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="1:15">
+      <c r="A143" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="O143" s="12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="1:15">
+      <c r="A144" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="O144" s="12" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="1:3">
+      <c r="A145" s="10"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="9"/>
+    </row>
+    <row r="146" customHeight="1" spans="1:15">
+      <c r="A146" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="O146" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:15">
+      <c r="A147" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="O147" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="1:15">
+      <c r="A148" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="O148" s="12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="1:15">
+      <c r="A149" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="O149" s="12" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="1:15">
+      <c r="A150" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="O150" s="12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="1:15">
+      <c r="A151" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="O151" s="12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="1:15">
+      <c r="A152" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="O152" s="12" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="1:3">
+      <c r="A153" s="10"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="9"/>
+    </row>
+    <row r="154" customHeight="1" spans="1:15">
+      <c r="A154" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="O154" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="1:15">
+      <c r="A155" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="O155" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="1:15">
+      <c r="A156" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="O156" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="1:15">
+      <c r="A157" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="O157" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="1:15">
+      <c r="A158" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="O158" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="159" customHeight="1" spans="1:15">
+      <c r="A159" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="O159" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="1:15">
+      <c r="A160" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="O160" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="161" customHeight="1" spans="1:15">
+      <c r="A161" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="O161" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="1:3">
+      <c r="A162" s="10"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="9"/>
+    </row>
+    <row r="163" customHeight="1" spans="1:15">
+      <c r="A163" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="O163" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="1:15">
+      <c r="A164" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="O164" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="165" customHeight="1" spans="1:15">
+      <c r="A165" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="O165" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="1:3">
+      <c r="A166" s="10"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="9"/>
+    </row>
+    <row r="167" customHeight="1" spans="1:15">
+      <c r="A167" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="O167" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="168" customHeight="1" spans="1:15">
+      <c r="A168" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="O168" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="169" customHeight="1" spans="1:15">
+      <c r="A169" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="O169" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="170" customHeight="1" spans="1:3">
+      <c r="A170" s="10"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="9"/>
+    </row>
+    <row r="171" customHeight="1" spans="1:3">
+      <c r="A171" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="1:3">
+      <c r="A172" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="173" customHeight="1" spans="1:3">
+      <c r="A173" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="174" customHeight="1" spans="1:3">
+      <c r="A174" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="175" customHeight="1" spans="1:3">
+      <c r="A175" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="176" customHeight="1" spans="1:3">
+      <c r="A176" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="177" customHeight="1" spans="1:3">
+      <c r="A177" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="178" customHeight="1" spans="1:3">
+      <c r="A178" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="179" customHeight="1" spans="1:3">
+      <c r="A179" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="180" customHeight="1" spans="1:3">
+      <c r="A180" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="181" customHeight="1" spans="1:3">
+      <c r="A181" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="182" customHeight="1" spans="1:3">
+      <c r="A182" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="183" customHeight="1" spans="1:3">
+      <c r="A183" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="184" customHeight="1" spans="1:3">
+      <c r="A184" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="B184" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="C184" s="15"/>
+    </row>
+    <row r="186" customHeight="1" spans="1:2">
+      <c r="A186" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="B186" s="16" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="187" customHeight="1" spans="1:2">
+      <c r="A187" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="B187" s="16" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="188" customHeight="1" spans="1:2">
+      <c r="A188" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="B188" s="16" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="189" customHeight="1" spans="1:2">
+      <c r="A189" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="B189" s="16" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="190" customHeight="1" spans="1:2">
+      <c r="A190" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="B190" s="16" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="191" customHeight="1" spans="1:2">
+      <c r="A191" s="16"/>
+      <c r="B191" s="16"/>
+    </row>
+    <row r="192" customHeight="1" spans="1:2">
+      <c r="A192" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="B192" s="16" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="193" customHeight="1" spans="1:2">
+      <c r="A193" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="B193" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="194" customHeight="1" spans="1:2">
+      <c r="A194" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="B194" s="16" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="195" customHeight="1" spans="1:2">
+      <c r="A195" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="B195" s="16" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="196" customHeight="1" spans="1:2">
+      <c r="A196" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="B196" s="16" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="197" customHeight="1" spans="1:2">
+      <c r="A197" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="B197" s="16" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="198" customHeight="1" spans="1:2">
+      <c r="A198" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="B198" s="16" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="199" customHeight="1" spans="1:2">
+      <c r="A199" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="B199" s="16" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="200" customHeight="1" spans="1:2">
+      <c r="A200" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="B200" s="16" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="201" customHeight="1" spans="1:2">
+      <c r="A201" s="16"/>
+      <c r="B201" s="16"/>
+    </row>
+    <row r="202" customHeight="1" spans="1:2">
+      <c r="A202" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B202" s="16" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="203" customHeight="1" spans="1:2">
+      <c r="A203" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="B203" s="16" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="204" customHeight="1" spans="1:2">
+      <c r="A204" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="B204" s="16" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="205" customHeight="1" spans="1:2">
+      <c r="A205" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="B205" s="16" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="206" customHeight="1" spans="1:2">
+      <c r="A206" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="B206" s="16" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="207" customHeight="1" spans="1:2">
+      <c r="A207" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="B207" s="16" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="208" customHeight="1" spans="1:2">
+      <c r="A208" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="B208" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209" customHeight="1" spans="1:2">
+      <c r="A209" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="B209" s="16" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="210" customHeight="1" spans="1:2">
+      <c r="A210" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="B210" s="16" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="211" customHeight="1" spans="1:2">
+      <c r="A211" s="16"/>
+      <c r="B211" s="16"/>
+    </row>
+    <row r="212" customHeight="1" spans="1:2">
+      <c r="A212" s="16" t="s">
+        <v>575</v>
+      </c>
+      <c r="B212" s="16" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="213" customHeight="1" spans="1:2">
+      <c r="A213" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="B213" s="16" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="214" customHeight="1" spans="1:2">
+      <c r="A214" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="B214" s="16" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="215" customHeight="1" spans="1:2">
+      <c r="A215" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="B215" s="16" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="216" customHeight="1" spans="1:2">
+      <c r="A216" s="16"/>
+      <c r="B216" s="16"/>
+    </row>
+    <row r="217" customHeight="1" spans="1:2">
+      <c r="A217" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="B217" s="16" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="218" customHeight="1" spans="1:2">
+      <c r="A218" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="B218" s="16" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="219" customHeight="1" spans="1:2">
+      <c r="A219" s="16" t="s">
+        <v>587</v>
+      </c>
+      <c r="B219" s="16" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="220" customHeight="1" spans="1:2">
+      <c r="A220" s="16"/>
+      <c r="B220" s="16"/>
+    </row>
+    <row r="221" customHeight="1" spans="1:2">
+      <c r="A221" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="B221" s="16" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="222" customHeight="1" spans="1:2">
+      <c r="A222" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="B222" s="16" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="223" customHeight="1" spans="1:2">
+      <c r="A223" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="B223" s="16" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="224" customHeight="1" spans="1:2">
+      <c r="A224" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="B224" s="16" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="225" customHeight="1" spans="1:2">
+      <c r="A225" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="B225" s="16" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="226" customHeight="1" spans="1:2">
+      <c r="A226" s="16" t="s">
+        <v>599</v>
+      </c>
+      <c r="B226" s="16" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="227" customHeight="1" spans="1:2">
+      <c r="A227" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="B227" s="16" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="228" customHeight="1" spans="1:2">
+      <c r="A228" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="B228" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" customHeight="1" spans="1:2">
+      <c r="A229" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="B229" s="16" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="230" customHeight="1" spans="1:2">
+      <c r="A230" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="B230" s="16" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="231" customHeight="1" spans="1:2">
+      <c r="A231" s="16" t="s">
+        <v>608</v>
+      </c>
+      <c r="B231" s="16" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="232" customHeight="1" spans="1:2">
+      <c r="A232" s="16"/>
+      <c r="B232" s="16"/>
+    </row>
+    <row r="233" customHeight="1" spans="1:2">
+      <c r="A233" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="B233" s="16" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="234" customHeight="1" spans="1:2">
+      <c r="A234" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="B234" s="16" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="235" customHeight="1" spans="1:2">
+      <c r="A235" s="16" t="s">
+        <v>614</v>
+      </c>
+      <c r="B235" s="16" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="236" customHeight="1" spans="1:2">
+      <c r="A236" s="16" t="s">
+        <v>616</v>
+      </c>
+      <c r="B236" s="16" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="237" customHeight="1" spans="1:2">
+      <c r="A237" s="16"/>
+      <c r="B237" s="16"/>
+    </row>
+    <row r="238" customHeight="1" spans="1:2">
+      <c r="A238" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="B238" s="16" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="239" customHeight="1" spans="1:2">
+      <c r="A239" s="16" t="s">
+        <v>620</v>
+      </c>
+      <c r="B239" s="16" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="240" customHeight="1" spans="1:2">
+      <c r="A240" s="16" t="s">
+        <v>622</v>
+      </c>
+      <c r="B240" s="16" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="241" customHeight="1" spans="1:2">
+      <c r="A241" s="16" t="s">
+        <v>624</v>
+      </c>
+      <c r="B241" s="16" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="242" customHeight="1" spans="1:2">
+      <c r="A242" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="B242" s="16" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="243" customHeight="1" spans="1:2">
+      <c r="A243" s="16" t="s">
+        <v>628</v>
+      </c>
+      <c r="B243" s="16" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="244" customHeight="1" spans="1:2">
+      <c r="A244" s="16"/>
+      <c r="B244" s="16"/>
+    </row>
+    <row r="245" customHeight="1" spans="1:2">
+      <c r="A245" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="B245" s="16" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="246" customHeight="1" spans="1:2">
+      <c r="A246" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="B246" s="16" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="247" customHeight="1" spans="1:2">
+      <c r="A247" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="B247" s="16" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="248" customHeight="1" spans="1:2">
+      <c r="A248" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="B248" s="16" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="249" customHeight="1" spans="1:2">
+      <c r="A249" s="16"/>
+      <c r="B249" s="16"/>
+    </row>
+    <row r="250" customHeight="1" spans="1:2">
+      <c r="A250" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="B250" s="16" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="251" customHeight="1" spans="1:2">
+      <c r="A251" s="16" t="s">
+        <v>640</v>
+      </c>
+      <c r="B251" s="16" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="252" customHeight="1" spans="1:2">
+      <c r="A252" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="B252" s="16" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="253" customHeight="1" spans="1:2">
+      <c r="A253" s="16" t="s">
+        <v>644</v>
+      </c>
+      <c r="B253" s="16" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="254" customHeight="1" spans="1:2">
+      <c r="A254" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="B254" s="16" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="255" customHeight="1" spans="1:2">
+      <c r="A255" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="B255" s="16" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="256" customHeight="1" spans="1:2">
+      <c r="A256" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="B256" s="16" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="257" customHeight="1" spans="1:2">
+      <c r="A257" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="B257" s="16" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="258" customHeight="1" spans="1:2">
+      <c r="A258" s="16" t="s">
+        <v>653</v>
+      </c>
+      <c r="B258" s="16" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="259" customHeight="1" spans="1:2">
+      <c r="A259" s="16" t="s">
+        <v>655</v>
+      </c>
+      <c r="B259" s="16" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="260" customHeight="1" spans="1:2">
+      <c r="A260" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="B260" s="16" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="261" customHeight="1" spans="1:2">
+      <c r="A261" s="16"/>
+      <c r="B261" s="16"/>
+    </row>
+    <row r="262" customHeight="1" spans="1:2">
+      <c r="A262" s="16" t="s">
+        <v>659</v>
+      </c>
+      <c r="B262" s="16" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="263" customHeight="1" spans="1:2">
+      <c r="A263" s="16" t="s">
+        <v>661</v>
+      </c>
+      <c r="B263" s="16" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="264" customHeight="1" spans="1:2">
+      <c r="A264" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="B264" s="16" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="265" customHeight="1" spans="1:2">
+      <c r="A265" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="B265" s="16" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="266" customHeight="1" spans="1:2">
+      <c r="A266" s="16" t="s">
+        <v>667</v>
+      </c>
+      <c r="B266" s="16" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="267" customHeight="1" spans="1:2">
+      <c r="A267" s="16"/>
+      <c r="B267" s="16"/>
+    </row>
+    <row r="268" customHeight="1" spans="1:2">
+      <c r="A268" s="16" t="s">
+        <v>669</v>
+      </c>
+      <c r="B268" s="16" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="269" customHeight="1" spans="1:2">
+      <c r="A269" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="B269" s="16" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="270" customHeight="1" spans="1:2">
+      <c r="A270" s="16" t="s">
+        <v>673</v>
+      </c>
+      <c r="B270" s="16" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="271" customHeight="1" spans="1:2">
+      <c r="A271" s="16" t="s">
+        <v>675</v>
+      </c>
+      <c r="B271" s="16" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="272" customHeight="1" spans="1:2">
+      <c r="A272" s="16" t="s">
+        <v>677</v>
+      </c>
+      <c r="B272" s="16" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="273" customHeight="1" spans="1:2">
+      <c r="A273" s="16" t="s">
+        <v>679</v>
+      </c>
+      <c r="B273" s="16" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="274" customHeight="1" spans="1:2">
+      <c r="A274" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B274" s="16" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="275" customHeight="1" spans="1:2">
+      <c r="A275" s="16"/>
+      <c r="B275" s="16"/>
+    </row>
+    <row r="276" customHeight="1" spans="1:2">
+      <c r="A276" s="16" t="s">
+        <v>683</v>
+      </c>
+      <c r="B276" s="16" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="277" customHeight="1" spans="1:2">
+      <c r="A277" s="16" t="s">
+        <v>685</v>
+      </c>
+      <c r="B277" s="16" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="278" customHeight="1" spans="1:2">
+      <c r="A278" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="B278" s="16" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="279" customHeight="1" spans="1:2">
+      <c r="A279" s="16" t="s">
+        <v>689</v>
+      </c>
+      <c r="B279" s="16" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="280" customHeight="1" spans="1:2">
+      <c r="A280" s="16" t="s">
+        <v>691</v>
+      </c>
+      <c r="B280" s="16" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="281" customHeight="1" spans="1:2">
+      <c r="A281" s="16" t="s">
+        <v>693</v>
+      </c>
+      <c r="B281" s="16" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="282" customHeight="1" spans="1:2">
+      <c r="A282" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="B282" s="16" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="284" customHeight="1" spans="1:2">
+      <c r="A284" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="B284" s="16" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="285" customHeight="1" spans="1:2">
+      <c r="A285" s="16" t="s">
+        <v>698</v>
+      </c>
+      <c r="B285" s="16" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="286" customHeight="1" spans="1:2">
+      <c r="A286" s="16" t="s">
+        <v>700</v>
+      </c>
+      <c r="B286" s="16" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="287" customHeight="1" spans="1:2">
+      <c r="A287" s="16" t="s">
+        <v>702</v>
+      </c>
+      <c r="B287" s="16" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="288" customHeight="1" spans="1:2">
+      <c r="A288" s="16" t="s">
+        <v>704</v>
+      </c>
+      <c r="B288" s="16" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="289" customHeight="1" spans="1:2">
+      <c r="A289" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="B289" s="16" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="290" customHeight="1" spans="1:2">
+      <c r="A290" s="16" t="s">
+        <v>708</v>
+      </c>
+      <c r="B290" s="16" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="291" customHeight="1" spans="1:2">
+      <c r="A291" s="16" t="s">
+        <v>710</v>
+      </c>
+      <c r="B291" s="16" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="292" customHeight="1" spans="1:2">
+      <c r="A292" s="16" t="s">
+        <v>712</v>
+      </c>
+      <c r="B292" s="16" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="293" customHeight="1" spans="1:2">
+      <c r="A293" s="16" t="s">
+        <v>714</v>
+      </c>
+      <c r="B293" s="16" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="294" customHeight="1" spans="1:2">
+      <c r="A294" s="16"/>
+      <c r="B294" s="16"/>
+    </row>
+    <row r="295" customHeight="1" spans="1:2">
+      <c r="A295" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="B295" s="16" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="296" customHeight="1" spans="1:2">
+      <c r="A296" s="16" t="s">
+        <v>718</v>
+      </c>
+      <c r="B296" s="16" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="297" customHeight="1" spans="1:2">
+      <c r="A297" s="16" t="s">
+        <v>720</v>
+      </c>
+      <c r="B297" s="16" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="298" customHeight="1" spans="1:2">
+      <c r="A298" s="16" t="s">
+        <v>722</v>
+      </c>
+      <c r="B298" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="299" customHeight="1" spans="1:2">
+      <c r="A299" s="16" t="s">
+        <v>724</v>
+      </c>
+      <c r="B299" s="16" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="300" customHeight="1" spans="1:2">
+      <c r="A300" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="B300" s="16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="301" customHeight="1" spans="1:2">
+      <c r="A301" s="16" t="s">
+        <v>728</v>
+      </c>
+      <c r="B301" s="16" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="302" customHeight="1" spans="1:2">
+      <c r="A302" s="16" t="s">
+        <v>730</v>
+      </c>
+      <c r="B302" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="303" customHeight="1" spans="1:2">
+      <c r="A303" s="16" t="s">
+        <v>732</v>
+      </c>
+      <c r="B303" s="16" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="304" customHeight="1" spans="1:2">
+      <c r="A304" s="16"/>
+      <c r="B304" s="16"/>
+    </row>
+    <row r="305" customHeight="1" spans="1:2">
+      <c r="A305" s="16" t="s">
+        <v>734</v>
+      </c>
+      <c r="B305" s="16" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="306" customHeight="1" spans="1:2">
+      <c r="A306" s="16" t="s">
+        <v>736</v>
+      </c>
+      <c r="B306" s="16" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="307" customHeight="1" spans="1:2">
+      <c r="A307" s="16" t="s">
+        <v>738</v>
+      </c>
+      <c r="B307" s="16" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="308" customHeight="1" spans="1:2">
+      <c r="A308" s="16" t="s">
+        <v>740</v>
+      </c>
+      <c r="B308" s="16" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="309" customHeight="1" spans="1:2">
+      <c r="A309" s="16" t="s">
+        <v>742</v>
+      </c>
+      <c r="B309" s="16" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="310" customHeight="1" spans="1:2">
+      <c r="A310" s="16"/>
+      <c r="B310" s="16"/>
+    </row>
+    <row r="311" customHeight="1" spans="1:2">
+      <c r="A311" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="B311" s="16" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="312" customHeight="1" spans="1:2">
+      <c r="A312" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="B312" s="16" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="313" customHeight="1" spans="1:2">
+      <c r="A313" s="16" t="s">
+        <v>748</v>
+      </c>
+      <c r="B313" s="16" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="314" customHeight="1" spans="1:2">
+      <c r="A314" s="16" t="s">
+        <v>750</v>
+      </c>
+      <c r="B314" s="16" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="315" customHeight="1" spans="1:2">
+      <c r="A315" s="16" t="s">
+        <v>752</v>
+      </c>
+      <c r="B315" s="16" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="316" customHeight="1" spans="1:2">
+      <c r="A316" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="B316" s="16" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="317" customHeight="1" spans="1:2">
+      <c r="A317" s="16"/>
+      <c r="B317" s="16"/>
+    </row>
+    <row r="318" customHeight="1" spans="1:2">
+      <c r="A318" s="16" t="s">
+        <v>756</v>
+      </c>
+      <c r="B318" s="16" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="319" customHeight="1" spans="1:2">
+      <c r="A319" s="16" t="s">
+        <v>758</v>
+      </c>
+      <c r="B319" s="16" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="320" customHeight="1" spans="1:2">
+      <c r="A320" s="16" t="s">
+        <v>760</v>
+      </c>
+      <c r="B320" s="16" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="321" customHeight="1" spans="1:2">
+      <c r="A321" s="16" t="s">
+        <v>762</v>
+      </c>
+      <c r="B321" s="16" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="322" customHeight="1" spans="1:2">
+      <c r="A322" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="B322" s="16" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="323" customHeight="1" spans="1:2">
+      <c r="A323" s="16" t="s">
+        <v>766</v>
+      </c>
+      <c r="B323" s="16" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="324" customHeight="1" spans="1:2">
+      <c r="A324" s="16" t="s">
+        <v>768</v>
+      </c>
+      <c r="B324" s="16" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="325" customHeight="1" spans="1:2">
+      <c r="A325" s="16" t="s">
+        <v>770</v>
+      </c>
+      <c r="B325" s="16" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="326" customHeight="1" spans="1:2">
+      <c r="A326" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="B326" s="16" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="327" customHeight="1" spans="1:2">
+      <c r="A327" s="16"/>
+      <c r="B327" s="16"/>
+    </row>
+    <row r="328" customHeight="1" spans="1:2">
+      <c r="A328" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="B328" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="329" customHeight="1" spans="1:2">
+      <c r="A329" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="B329" s="16" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="330" customHeight="1" spans="1:2">
+      <c r="A330" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="B330" s="16" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="331" customHeight="1" spans="1:2">
+      <c r="A331" s="16" t="s">
+        <v>778</v>
+      </c>
+      <c r="B331" s="16" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="332" customHeight="1" spans="1:2">
+      <c r="A332" s="16" t="s">
+        <v>780</v>
+      </c>
+      <c r="B332" s="16" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="333" customHeight="1" spans="1:2">
+      <c r="A333" s="16"/>
+      <c r="B333" s="16"/>
+    </row>
+    <row r="334" customHeight="1" spans="1:2">
+      <c r="A334" s="16" t="s">
+        <v>782</v>
+      </c>
+      <c r="B334" s="16" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="335" customHeight="1" spans="1:2">
+      <c r="A335" s="16" t="s">
+        <v>784</v>
+      </c>
+      <c r="B335" s="16" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="336" customHeight="1" spans="1:2">
+      <c r="A336" s="16" t="s">
+        <v>786</v>
+      </c>
+      <c r="B336" s="16" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="337" customHeight="1" spans="1:2">
+      <c r="A337" s="16" t="s">
+        <v>788</v>
+      </c>
+      <c r="B337" s="16" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="338" customHeight="1" spans="1:2">
+      <c r="A338" s="16" t="s">
+        <v>790</v>
+      </c>
+      <c r="B338" s="16" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="339" customHeight="1" spans="1:2">
+      <c r="A339" s="16" t="s">
+        <v>792</v>
+      </c>
+      <c r="B339" s="16" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="340" customHeight="1" spans="1:2">
+      <c r="A340" s="16"/>
+      <c r="B340" s="16"/>
+    </row>
+    <row r="341" customHeight="1" spans="1:2">
+      <c r="A341" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="B341" s="16" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="342" customHeight="1" spans="1:2">
+      <c r="A342" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="B342" s="16" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="343" customHeight="1" spans="1:2">
+      <c r="A343" s="16" t="s">
+        <v>798</v>
+      </c>
+      <c r="B343" s="16" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="344" customHeight="1" spans="1:2">
+      <c r="A344" s="16" t="s">
+        <v>800</v>
+      </c>
+      <c r="B344" s="16" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="345" customHeight="1" spans="1:2">
+      <c r="A345" s="16" t="s">
+        <v>801</v>
+      </c>
+      <c r="B345" s="16" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="346" customHeight="1" spans="1:2">
+      <c r="A346" s="16" t="s">
+        <v>803</v>
+      </c>
+      <c r="B346" s="16" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="347" customHeight="1" spans="1:2">
+      <c r="A347" s="16" t="s">
+        <v>805</v>
+      </c>
+      <c r="B347" s="16" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="348" customHeight="1" spans="1:2">
+      <c r="A348" s="16" t="s">
+        <v>807</v>
+      </c>
+      <c r="B348" s="16" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="349" customHeight="1" spans="1:2">
+      <c r="A349" s="16" t="s">
+        <v>809</v>
+      </c>
+      <c r="B349" s="16" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="350" customHeight="1" spans="1:2">
+      <c r="A350" s="16" t="s">
+        <v>811</v>
+      </c>
+      <c r="B350" s="16" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="351" customHeight="1" spans="1:2">
+      <c r="A351" s="16" t="s">
+        <v>813</v>
+      </c>
+      <c r="B351" s="16" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="352" customHeight="1" spans="1:2">
+      <c r="A352" s="16"/>
+      <c r="B352" s="16"/>
+    </row>
+    <row r="353" customHeight="1" spans="1:2">
+      <c r="A353" s="16" t="s">
+        <v>815</v>
+      </c>
+      <c r="B353" s="16" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="354" customHeight="1" spans="1:2">
+      <c r="A354" s="16"/>
+      <c r="B354" s="16"/>
+    </row>
+    <row r="355" customHeight="1" spans="1:2">
+      <c r="A355" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="B355" s="16" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="356" customHeight="1" spans="1:2">
+      <c r="A356" s="16"/>
+      <c r="B356" s="16"/>
+    </row>
+    <row r="357" customHeight="1" spans="1:2">
+      <c r="A357" s="16" t="s">
+        <v>819</v>
+      </c>
+      <c r="B357" s="16" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="358" customHeight="1" spans="1:2">
+      <c r="A358" s="16" t="s">
+        <v>821</v>
+      </c>
+      <c r="B358" s="16" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="359" customHeight="1" spans="1:2">
+      <c r="A359" s="16" t="s">
+        <v>823</v>
+      </c>
+      <c r="B359" s="16" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="360" customHeight="1" spans="1:2">
+      <c r="A360" s="16"/>
+      <c r="B360" s="16"/>
+    </row>
+    <row r="361" customHeight="1" spans="1:2">
+      <c r="A361" s="16" t="s">
+        <v>825</v>
+      </c>
+      <c r="B361" s="16" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="362" customHeight="1" spans="1:2">
+      <c r="A362" s="16" t="s">
+        <v>827</v>
+      </c>
+      <c r="B362" s="16" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="363" customHeight="1" spans="1:2">
+      <c r="A363" s="16"/>
+      <c r="B363" s="16"/>
+    </row>
+    <row r="364" customHeight="1" spans="1:2">
+      <c r="A364" s="16" t="s">
+        <v>829</v>
+      </c>
+      <c r="B364" s="16" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="365" customHeight="1" spans="1:2">
+      <c r="A365" s="16"/>
+      <c r="B365" s="16"/>
+    </row>
+    <row r="366" customHeight="1" spans="1:2">
+      <c r="A366" s="16" t="s">
+        <v>831</v>
+      </c>
+      <c r="B366" s="16" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="367" customHeight="1" spans="1:2">
+      <c r="A367" s="16" t="s">
+        <v>833</v>
+      </c>
+      <c r="B367" s="16" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="368" customHeight="1" spans="1:2">
+      <c r="A368" s="16" t="s">
+        <v>835</v>
+      </c>
+      <c r="B368" s="16" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="369" customHeight="1" spans="1:2">
+      <c r="A369" s="16" t="s">
+        <v>837</v>
+      </c>
+      <c r="B369" s="16" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="370" customHeight="1" spans="1:2">
+      <c r="A370" s="16" t="s">
+        <v>839</v>
+      </c>
+      <c r="B370" s="16" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="371" customHeight="1" spans="1:2">
+      <c r="A371" s="16"/>
+      <c r="B371" s="16"/>
+    </row>
+    <row r="372" customHeight="1" spans="1:2">
+      <c r="A372" s="16" t="s">
+        <v>841</v>
+      </c>
+      <c r="B372" s="16" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="373" customHeight="1" spans="1:2">
+      <c r="A373" s="16" t="s">
+        <v>843</v>
+      </c>
+      <c r="B373" s="16" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="374" customHeight="1" spans="1:2">
+      <c r="A374" s="16" t="s">
+        <v>845</v>
+      </c>
+      <c r="B374" s="16" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="375" customHeight="1" spans="1:2">
+      <c r="A375" s="16" t="s">
+        <v>847</v>
+      </c>
+      <c r="B375" s="16" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="376" customHeight="1" spans="1:2">
+      <c r="A376" s="16"/>
+      <c r="B376" s="16"/>
+    </row>
+    <row r="377" customHeight="1" spans="1:2">
+      <c r="A377" s="16" t="s">
+        <v>849</v>
+      </c>
+      <c r="B377" s="16" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="378" customHeight="1" spans="1:2">
+      <c r="A378" s="16" t="s">
+        <v>851</v>
+      </c>
+      <c r="B378" s="16" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="379" customHeight="1" spans="1:2">
+      <c r="A379" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="B379" s="16" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="380" customHeight="1" spans="1:2">
+      <c r="A380" s="16"/>
+      <c r="B380" s="16"/>
+    </row>
+    <row r="381" customHeight="1" spans="1:2">
+      <c r="A381" s="16" t="s">
+        <v>855</v>
+      </c>
+      <c r="B381" s="16" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="382" customHeight="1" spans="1:2">
+      <c r="A382" s="16" t="s">
+        <v>857</v>
+      </c>
+      <c r="B382" s="16" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="383" customHeight="1" spans="1:2">
+      <c r="A383" s="16" t="s">
+        <v>859</v>
+      </c>
+      <c r="B383" s="16" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="384" customHeight="1" spans="1:2">
+      <c r="A384" s="16" t="s">
+        <v>861</v>
+      </c>
+      <c r="B384" s="16" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="385" customHeight="1" spans="1:2">
+      <c r="A385" s="16" t="s">
+        <v>863</v>
+      </c>
+      <c r="B385" s="16" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="386" customHeight="1" spans="1:2">
+      <c r="A386" s="16" t="s">
+        <v>865</v>
+      </c>
+      <c r="B386" s="16" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="388" customHeight="1" spans="1:2">
+      <c r="A388" s="16" t="s">
+        <v>867</v>
+      </c>
+      <c r="B388" s="16" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="389" customHeight="1" spans="1:2">
+      <c r="A389" s="16" t="s">
+        <v>869</v>
+      </c>
+      <c r="B389" s="16" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="390" customHeight="1" spans="1:2">
+      <c r="A390" s="16" t="s">
+        <v>871</v>
+      </c>
+      <c r="B390" s="16" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="391" customHeight="1" spans="1:2">
+      <c r="A391" s="16"/>
+      <c r="B391" s="16"/>
+    </row>
+    <row r="392" customHeight="1" spans="1:2">
+      <c r="A392" s="16" t="s">
+        <v>873</v>
+      </c>
+      <c r="B392" s="16" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="393" customHeight="1" spans="1:2">
+      <c r="A393" s="16" t="s">
+        <v>875</v>
+      </c>
+      <c r="B393" s="16" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="394" customHeight="1" spans="1:2">
+      <c r="A394" s="16" t="s">
+        <v>877</v>
+      </c>
+      <c r="B394" s="16" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="395" customHeight="1" spans="1:2">
+      <c r="A395" s="16"/>
+      <c r="B395" s="16"/>
+    </row>
+    <row r="396" customHeight="1" spans="1:2">
+      <c r="A396" s="16" t="s">
+        <v>879</v>
+      </c>
+      <c r="B396" s="16" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="397" customHeight="1" spans="1:2">
+      <c r="A397" s="16" t="s">
+        <v>881</v>
+      </c>
+      <c r="B397" s="16" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="398" customHeight="1" spans="1:2">
+      <c r="A398" s="16" t="s">
+        <v>883</v>
+      </c>
+      <c r="B398" s="16" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="399" customHeight="1" spans="1:2">
+      <c r="A399" s="16" t="s">
+        <v>885</v>
+      </c>
+      <c r="B399" s="16" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="400" customHeight="1" spans="1:2">
+      <c r="A400" s="16" t="s">
+        <v>887</v>
+      </c>
+      <c r="B400" s="16" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="401" customHeight="1" spans="1:2">
+      <c r="A401" s="16"/>
+      <c r="B401" s="16"/>
+    </row>
+    <row r="402" customHeight="1" spans="1:2">
+      <c r="A402" s="16" t="s">
+        <v>889</v>
+      </c>
+      <c r="B402" s="16" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="403" customHeight="1" spans="1:2">
+      <c r="A403" s="16"/>
+      <c r="B403" s="16"/>
+    </row>
+    <row r="404" customHeight="1" spans="1:2">
+      <c r="A404" s="16" t="s">
+        <v>891</v>
+      </c>
+      <c r="B404" s="16" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="405" customHeight="1" spans="1:2">
+      <c r="A405" s="16" t="s">
+        <v>893</v>
+      </c>
+      <c r="B405" s="16" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="406" customHeight="1" spans="1:2">
+      <c r="A406" s="16"/>
+      <c r="B406" s="16"/>
+    </row>
+    <row r="407" customHeight="1" spans="1:2">
+      <c r="A407" s="16" t="s">
+        <v>895</v>
+      </c>
+      <c r="B407" s="16" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="408" customHeight="1" spans="1:2">
+      <c r="A408" s="16" t="s">
+        <v>897</v>
+      </c>
+      <c r="B408" s="16" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="409" customHeight="1" spans="1:2">
+      <c r="A409" s="16" t="s">
+        <v>899</v>
+      </c>
+      <c r="B409" s="16" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="410" customHeight="1" spans="1:2">
+      <c r="A410" s="16" t="s">
+        <v>901</v>
+      </c>
+      <c r="B410" s="16" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="411" customHeight="1" spans="1:2">
+      <c r="A411" s="16" t="s">
+        <v>903</v>
+      </c>
+      <c r="B411" s="16" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="412" customHeight="1" spans="1:2">
+      <c r="A412" s="16" t="s">
+        <v>905</v>
+      </c>
+      <c r="B412" s="16" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="413" customHeight="1" spans="1:2">
+      <c r="A413" s="16" t="s">
+        <v>907</v>
+      </c>
+      <c r="B413" s="16" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="414" customHeight="1" spans="1:2">
+      <c r="A414" s="16" t="s">
+        <v>909</v>
+      </c>
+      <c r="B414" s="16" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="415" customHeight="1" spans="1:2">
+      <c r="A415" s="16" t="s">
+        <v>911</v>
+      </c>
+      <c r="B415" s="16" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="416" customHeight="1" spans="1:2">
+      <c r="A416" s="16" t="s">
+        <v>913</v>
+      </c>
+      <c r="B416" s="16" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="417" customHeight="1" spans="1:2">
+      <c r="A417" s="16" t="s">
+        <v>915</v>
+      </c>
+      <c r="B417" s="16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="418" customHeight="1" spans="1:2">
+      <c r="A418" s="16" t="s">
+        <v>916</v>
+      </c>
+      <c r="B418" s="16" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="419" customHeight="1" spans="1:2">
+      <c r="A419" s="16" t="s">
+        <v>917</v>
+      </c>
+      <c r="B419" s="16" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="420" customHeight="1" spans="1:2">
+      <c r="A420" s="16" t="s">
+        <v>919</v>
+      </c>
+      <c r="B420" s="16" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="421" customHeight="1" spans="1:2">
+      <c r="A421" s="16" t="s">
+        <v>920</v>
+      </c>
+      <c r="B421" s="16" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="422" customHeight="1" spans="1:2">
+      <c r="A422" s="16" t="s">
+        <v>921</v>
+      </c>
+      <c r="B422" s="16" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="423" customHeight="1" spans="1:2">
+      <c r="A423" s="16"/>
+      <c r="B423" s="16"/>
+    </row>
+    <row r="424" customHeight="1" spans="1:2">
+      <c r="A424" s="16" t="s">
+        <v>922</v>
+      </c>
+      <c r="B424" s="16" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="425" customHeight="1" spans="1:2">
+      <c r="A425" s="16" t="s">
+        <v>923</v>
+      </c>
+      <c r="B425" s="16" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="426" customHeight="1" spans="1:2">
+      <c r="A426" s="16" t="s">
+        <v>925</v>
+      </c>
+      <c r="B426" s="16" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="427" customHeight="1" spans="1:2">
+      <c r="A427" s="16" t="s">
+        <v>927</v>
+      </c>
+      <c r="B427" s="16" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="428" customHeight="1" spans="1:2">
+      <c r="A428" s="16" t="s">
+        <v>929</v>
+      </c>
+      <c r="B428" s="16" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="429" customHeight="1" spans="1:2">
+      <c r="A429" s="16" t="s">
+        <v>931</v>
+      </c>
+      <c r="B429" s="16" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="430" customHeight="1" spans="1:2">
+      <c r="A430" s="16" t="s">
+        <v>933</v>
+      </c>
+      <c r="B430" s="16" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="431" customHeight="1" spans="1:2">
+      <c r="A431" s="16" t="s">
+        <v>935</v>
+      </c>
+      <c r="B431" s="16" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="432" customHeight="1" spans="1:2">
+      <c r="A432" s="16" t="s">
+        <v>937</v>
+      </c>
+      <c r="B432" s="16" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="433" customHeight="1" spans="1:2">
+      <c r="A433" s="16" t="s">
+        <v>939</v>
+      </c>
+      <c r="B433" s="16" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="434" customHeight="1" spans="1:2">
+      <c r="A434" s="16" t="s">
+        <v>941</v>
+      </c>
+      <c r="B434" s="16" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="435" customHeight="1" spans="1:2">
+      <c r="A435" s="16" t="s">
+        <v>943</v>
+      </c>
+      <c r="B435" s="16" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="436" customHeight="1" spans="1:2">
+      <c r="A436" s="16" t="s">
+        <v>945</v>
+      </c>
+      <c r="B436" s="16" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="437" customHeight="1" spans="1:2">
+      <c r="A437" s="16"/>
+      <c r="B437" s="16"/>
+    </row>
+    <row r="438" customHeight="1" spans="1:2">
+      <c r="A438" s="16" t="s">
+        <v>947</v>
+      </c>
+      <c r="B438" s="16" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="439" customHeight="1" spans="1:2">
+      <c r="A439" s="16" t="s">
+        <v>949</v>
+      </c>
+      <c r="B439" s="16" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="440" customHeight="1" spans="1:2">
+      <c r="A440" s="16" t="s">
+        <v>951</v>
+      </c>
+      <c r="B440" s="16" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="441" customHeight="1" spans="1:2">
+      <c r="A441" s="16" t="s">
+        <v>953</v>
+      </c>
+      <c r="B441" s="16" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="442" customHeight="1" spans="1:2">
+      <c r="A442" s="16" t="s">
+        <v>955</v>
+      </c>
+      <c r="B442" s="16" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="443" customHeight="1" spans="1:2">
+      <c r="A443" s="16"/>
+      <c r="B443" s="16"/>
+    </row>
+    <row r="444" customHeight="1" spans="1:2">
+      <c r="A444" s="16" t="s">
+        <v>957</v>
+      </c>
+      <c r="B444" s="16" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="445" customHeight="1" spans="1:2">
+      <c r="A445" s="16" t="s">
+        <v>959</v>
+      </c>
+      <c r="B445" s="16" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="446" customHeight="1" spans="1:2">
+      <c r="A446" s="16" t="s">
+        <v>961</v>
+      </c>
+      <c r="B446" s="16" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="447" customHeight="1" spans="1:2">
+      <c r="A447" s="16"/>
+      <c r="B447" s="16"/>
+    </row>
+    <row r="448" customHeight="1" spans="1:2">
+      <c r="A448" s="16" t="s">
+        <v>963</v>
+      </c>
+      <c r="B448" s="16" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="449" customHeight="1" spans="1:2">
+      <c r="A449" s="16" t="s">
+        <v>965</v>
+      </c>
+      <c r="B449" s="16" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="450" customHeight="1" spans="1:2">
+      <c r="A450" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="B450" s="16" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="451" customHeight="1" spans="1:2">
+      <c r="A451" s="16"/>
+      <c r="B451" s="16"/>
+    </row>
+    <row r="452" customHeight="1" spans="1:2">
+      <c r="A452" s="16" t="s">
+        <v>969</v>
+      </c>
+      <c r="B452" s="16" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="453" customHeight="1" spans="1:2">
+      <c r="A453" s="16" t="s">
+        <v>971</v>
+      </c>
+      <c r="B453" s="16" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="454" customHeight="1" spans="1:2">
+      <c r="A454" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="B454" s="16" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="455" customHeight="1" spans="1:2">
+      <c r="A455" s="16" t="s">
+        <v>975</v>
+      </c>
+      <c r="B455" s="16" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="456" customHeight="1" spans="1:2">
+      <c r="A456" s="16" t="s">
+        <v>977</v>
+      </c>
+      <c r="B456" s="16" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="457" customHeight="1" spans="1:2">
+      <c r="A457" s="16"/>
+      <c r="B457" s="16"/>
+    </row>
+    <row r="458" customHeight="1" spans="1:2">
+      <c r="A458" s="16" t="s">
+        <v>979</v>
+      </c>
+      <c r="B458" s="16" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="459" customHeight="1" spans="1:2">
+      <c r="A459" s="16" t="s">
+        <v>981</v>
+      </c>
+      <c r="B459" s="16" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="460" customHeight="1" spans="1:2">
+      <c r="A460" s="16" t="s">
+        <v>983</v>
+      </c>
+      <c r="B460" s="16" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="461" customHeight="1" spans="1:2">
+      <c r="A461" s="16" t="s">
+        <v>985</v>
+      </c>
+      <c r="B461" s="16" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="462" customHeight="1" spans="1:2">
+      <c r="A462" s="16" t="s">
+        <v>987</v>
+      </c>
+      <c r="B462" s="16" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="463" customHeight="1" spans="1:2">
+      <c r="A463" s="16" t="s">
+        <v>989</v>
+      </c>
+      <c r="B463" s="16" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="464" customHeight="1" spans="1:2">
+      <c r="A464" s="16" t="s">
+        <v>991</v>
+      </c>
+      <c r="B464" s="16" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="465" customHeight="1" spans="1:2">
+      <c r="A465" s="16" t="s">
+        <v>993</v>
+      </c>
+      <c r="B465" s="16" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="466" customHeight="1" spans="1:2">
+      <c r="A466" s="16"/>
+      <c r="B466" s="16"/>
+    </row>
+    <row r="467" customHeight="1" spans="1:2">
+      <c r="A467" s="16" t="s">
+        <v>995</v>
+      </c>
+      <c r="B467" s="16" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="468" customHeight="1" spans="1:2">
+      <c r="A468" s="16" t="s">
+        <v>997</v>
+      </c>
+      <c r="B468" s="16" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="469" customHeight="1" spans="1:2">
+      <c r="A469" s="16" t="s">
+        <v>999</v>
+      </c>
+      <c r="B469" s="16" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="470" customHeight="1" spans="1:2">
+      <c r="A470" s="16"/>
+      <c r="B470" s="16"/>
+    </row>
+    <row r="471" customHeight="1" spans="1:2">
+      <c r="A471" s="16" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B471" s="16" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="472" customHeight="1" spans="1:2">
+      <c r="A472" s="16" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B472" s="16" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="473" customHeight="1" spans="1:2">
+      <c r="A473" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B473" s="16" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="474" customHeight="1" spans="1:2">
+      <c r="A474" s="16" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B474" s="16" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="475" customHeight="1" spans="1:2">
+      <c r="A475" s="16" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B475" s="16" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="476" customHeight="1" spans="1:2">
+      <c r="A476" s="16" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B476" s="16" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="477" customHeight="1" spans="1:2">
+      <c r="A477" s="16" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B477" s="16" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="478" customHeight="1" spans="1:2">
+      <c r="A478" s="16" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B478" s="16" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="479" customHeight="1" spans="1:2">
+      <c r="A479" s="16" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B479" s="16" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="480" customHeight="1" spans="1:2">
+      <c r="A480" s="16" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B480" s="16" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="481" customHeight="1" spans="1:2">
+      <c r="A481" s="16" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B481" s="16" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="482" customHeight="1" spans="1:2">
+      <c r="A482" s="16" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B482" s="16" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="483" customHeight="1" spans="1:2">
+      <c r="A483" s="16" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B483" s="16" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="484" customHeight="1" spans="1:2">
+      <c r="A484" s="16" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B484" s="16" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="485" customHeight="1" spans="1:2">
+      <c r="A485" s="16" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B485" s="16" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="486" customHeight="1" spans="1:2">
+      <c r="A486" s="16"/>
+      <c r="B486" s="16"/>
+    </row>
+    <row r="487" customHeight="1" spans="1:2">
+      <c r="A487" s="16" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B487" s="16" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="488" customHeight="1" spans="1:2">
+      <c r="A488" s="16" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B488" s="16" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="489" customHeight="1" spans="1:2">
+      <c r="A489" s="16" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B489" s="16" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="490" customHeight="1" spans="1:2">
+      <c r="A490" s="16" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B490" s="16" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="491" customHeight="1" spans="1:2">
+      <c r="A491" s="16" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B491" s="16" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="492" customHeight="1" spans="1:2">
+      <c r="A492" s="16" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B492" s="16" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="493" customHeight="1" spans="1:2">
+      <c r="A493" s="16" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B493" s="16" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="494" customHeight="1" spans="1:2">
+      <c r="A494" s="16" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B494" s="16" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="495" customHeight="1" spans="1:2">
+      <c r="A495" s="16" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B495" s="16" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="496" customHeight="1" spans="1:2">
+      <c r="A496" s="16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B496" s="16" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="497" customHeight="1" spans="1:2">
+      <c r="A497" s="16" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B497" s="16" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="498" customHeight="1" spans="1:2">
+      <c r="A498" s="16" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B498" s="16" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="499" customHeight="1" spans="1:2">
+      <c r="A499" s="16" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B499" s="16" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="501" customHeight="1" spans="1:2">
+      <c r="A501" s="16" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B501" s="16" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="502" customHeight="1" spans="1:2">
+      <c r="A502" s="16" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B502" s="16" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="503" customHeight="1" spans="1:2">
+      <c r="A503" s="16" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B503" s="16" t="s">
+        <v>1062</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -1703,7 +9453,7 @@
   <sheetPr/>
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -1781,521 +9531,498 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>1063</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+        <v>1064</v>
+      </c>
       <c r="M2" s="3"/>
-      <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>18</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>1066</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+        <v>1067</v>
+      </c>
       <c r="O3" s="1" t="s">
-        <v>21</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>1069</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>1070</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>24</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>1072</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>1073</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>27</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>1075</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>1076</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>30</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>1078</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>1079</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>33</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>1081</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>1082</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>36</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>1084</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>1085</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>39</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>1087</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>1088</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>42</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>1090</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>1091</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>45</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>1093</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>1094</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>48</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>1096</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>1097</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>51</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>1099</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>1100</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>54</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>1102</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>1103</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>57</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
-        <v>58</v>
+        <v>1105</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>1106</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>60</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
-        <v>61</v>
+        <v>1108</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>1109</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>63</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>1111</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>1112</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>66</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>1114</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>529</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>69</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>70</v>
+        <v>1116</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>1117</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>72</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
-        <v>73</v>
+        <v>1119</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>1120</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>75</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
-        <v>76</v>
+        <v>1122</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>77</v>
+        <v>1123</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>78</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
-        <v>79</v>
+        <v>1125</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>80</v>
+        <v>1126</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>81</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
-        <v>82</v>
+        <v>1128</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>83</v>
+        <v>1129</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>84</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2" t="s">
-        <v>85</v>
+        <v>1131</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>86</v>
+        <v>1132</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>87</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
-        <v>88</v>
+        <v>1134</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>89</v>
+        <v>1135</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>90</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2" t="s">
-        <v>91</v>
+        <v>1137</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>92</v>
+        <v>1138</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>93</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
-        <v>94</v>
+        <v>1140</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>95</v>
+        <v>1141</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>96</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
-        <v>97</v>
+        <v>1143</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>98</v>
+        <v>1144</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>99</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="2" t="s">
-        <v>100</v>
+        <v>1146</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>101</v>
+        <v>1147</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>102</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="2" t="s">
-        <v>103</v>
+        <v>1149</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>104</v>
+        <v>1150</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>105</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="2" t="s">
-        <v>106</v>
+        <v>1152</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>107</v>
+        <v>1153</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>108</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="2" t="s">
-        <v>109</v>
+        <v>564</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>110</v>
+        <v>1155</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>111</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="2" t="s">
-        <v>112</v>
+        <v>1157</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>113</v>
+        <v>1158</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>114</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="2" t="s">
-        <v>115</v>
+        <v>1160</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>116</v>
+        <v>1161</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>117</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="2" t="s">
-        <v>118</v>
+        <v>1163</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>119</v>
+        <v>1164</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>120</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="2" t="s">
-        <v>121</v>
+        <v>1166</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>122</v>
+        <v>1167</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>123</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="2" t="s">
-        <v>124</v>
+        <v>1169</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>125</v>
+        <v>1170</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>126</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="2" t="s">
-        <v>127</v>
+        <v>1172</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>128</v>
+        <v>1173</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>129</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="2" t="s">
-        <v>130</v>
+        <v>1175</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>71</v>
+        <v>1117</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>131</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="2" t="s">
-        <v>132</v>
+        <v>1177</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>133</v>
+        <v>1178</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>134</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="2" t="s">
-        <v>135</v>
+        <v>1180</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>136</v>
+        <v>1181</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>137</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="2" t="s">
-        <v>138</v>
+        <v>1183</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>139</v>
+        <v>1184</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>140</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="2" t="s">
-        <v>141</v>
+        <v>1186</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>142</v>
+        <v>1187</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>143</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="2" t="s">
-        <v>144</v>
+        <v>1189</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>145</v>
+        <v>1190</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>146</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="2" t="s">
-        <v>147</v>
+        <v>1192</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>148</v>
+        <v>1193</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>149</v>
+        <v>1194</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="1502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="1543">
   <si>
     <t>English</t>
   </si>
@@ -3758,6 +3758,123 @@
   </si>
   <si>
     <t>房间最大玩家数量已经是 {0} 了</t>
+  </si>
+  <si>
+    <t>jesterWin</t>
+  </si>
+  <si>
+    <t>Jester Wins</t>
+  </si>
+  <si>
+    <t>arsonistWin</t>
+  </si>
+  <si>
+    <t>Arsonist Wins</t>
+  </si>
+  <si>
+    <t>vultureWin</t>
+  </si>
+  <si>
+    <t>Vulture Wins</t>
+  </si>
+  <si>
+    <t>prosecutorWin</t>
+  </si>
+  <si>
+    <t>Prosecutor Wins</t>
+  </si>
+  <si>
+    <t>loversTeamWin</t>
+  </si>
+  <si>
+    <t>Lovers And Crewmates Win</t>
+  </si>
+  <si>
+    <t>loversSoloWin</t>
+  </si>
+  <si>
+    <t>Lovers Win</t>
+  </si>
+  <si>
+    <t>jackalWin</t>
+  </si>
+  <si>
+    <t>Team Jackal Wins</t>
+  </si>
+  <si>
+    <t>miniLose</t>
+  </si>
+  <si>
+    <t>Mini died</t>
+  </si>
+  <si>
+    <t>impostorDisconnect</t>
+  </si>
+  <si>
+    <t>Last Crewmate Disconnected</t>
+  </si>
+  <si>
+    <t>impostorsByKill</t>
+  </si>
+  <si>
+    <t>Impostors Win - By Kill</t>
+  </si>
+  <si>
+    <t>impostorsBySabotage</t>
+  </si>
+  <si>
+    <t>Impostors Win - By Sabotage</t>
+  </si>
+  <si>
+    <t>impostorsByVote</t>
+  </si>
+  <si>
+    <t>Impostors Win - By Vote, Guess or DC</t>
+  </si>
+  <si>
+    <t>crewmatesByTask</t>
+  </si>
+  <si>
+    <t>Crew Wins - Taskwin</t>
+  </si>
+  <si>
+    <t>crewmateDisconnect</t>
+  </si>
+  <si>
+    <t>Crew Wins - No Evil Killers Left</t>
+  </si>
+  <si>
+    <t>crewmatesByVote</t>
+  </si>
+  <si>
+    <t>additionalLawyerBonusWin</t>
+  </si>
+  <si>
+    <t>The Lawyer wins with the client</t>
+  </si>
+  <si>
+    <t>additionalAlivePursuerWin</t>
+  </si>
+  <si>
+    <t>The Pursuer survived</t>
+  </si>
+  <si>
+    <t>gameTimeText</t>
+  </si>
+  <si>
+    <t>Time:</t>
+  </si>
+  <si>
+    <t>endGameMainText</t>
+  </si>
+  <si>
+    <t>Players and roles at the end of the game:</t>
+  </si>
+  <si>
+    <t>endGameKills</t>
+  </si>
+  <si>
+    <t>Kills:</t>
   </si>
   <si>
     <t>buttonLeftClick</t>
@@ -4605,6 +4722,12 @@
   <si>
     <t>Crewmate Role</t>
   </si>
+  <si>
+    <t>youText2</t>
+  </si>
+  <si>
+    <t>你的选择</t>
+  </si>
 </sst>
 </file>
 
@@ -4616,7 +4739,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4639,6 +4762,11 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -5097,31 +5225,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5130,119 +5255,122 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -5277,6 +5405,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5752,10 +5883,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AK711"/>
+  <dimension ref="A1:AK735"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="O70" sqref="O70"/>
+    <sheetView topLeftCell="A708" workbookViewId="0">
+      <selection activeCell="A735" sqref="A735"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="13.5" customHeight="1"/>
@@ -11482,6 +11613,166 @@
       </c>
       <c r="O711" s="2" t="s">
         <v>1240</v>
+      </c>
+    </row>
+    <row r="713" customHeight="1" spans="1:2">
+      <c r="A713" s="18" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B713" s="2" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="714" customHeight="1" spans="1:2">
+      <c r="A714" s="18" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B714" s="2" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="715" customHeight="1" spans="1:2">
+      <c r="A715" s="18" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B715" s="2" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="716" customHeight="1" spans="1:2">
+      <c r="A716" s="18" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B716" s="2" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="717" customHeight="1" spans="1:2">
+      <c r="A717" s="18" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B717" s="2" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="718" customHeight="1" spans="1:2">
+      <c r="A718" s="18" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B718" s="2" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="719" customHeight="1" spans="1:2">
+      <c r="A719" s="18" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B719" s="2" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="720" customHeight="1" spans="1:2">
+      <c r="A720" s="18" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B720" s="2" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="722" customHeight="1" spans="1:2">
+      <c r="A722" s="18" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B722" s="18" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="723" customHeight="1" spans="1:2">
+      <c r="A723" s="18" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B723" s="18" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="724" customHeight="1" spans="1:2">
+      <c r="A724" s="18" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B724" s="18" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="725" customHeight="1" spans="1:2">
+      <c r="A725" s="18" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B725" s="18" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="726" customHeight="1" spans="1:2">
+      <c r="A726" s="18" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B726" s="18" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="727" customHeight="1" spans="1:2">
+      <c r="A727" s="18" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B727" s="18" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="728" customHeight="1" spans="1:2">
+      <c r="A728" s="18" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B728" s="18" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="730" customHeight="1" spans="1:2">
+      <c r="A730" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B730" s="2" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="731" customHeight="1" spans="1:2">
+      <c r="A731" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B731" s="2" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="733" customHeight="1" spans="1:2">
+      <c r="A733" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B733" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="734" customHeight="1" spans="1:2">
+      <c r="A734" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B734" s="2" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="735" customHeight="1" spans="1:2">
+      <c r="A735" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B735" s="2" t="s">
+        <v>1279</v>
       </c>
     </row>
   </sheetData>
@@ -11574,344 +11865,344 @@
     </row>
     <row r="2" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>1241</v>
+        <v>1280</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1242</v>
+        <v>1281</v>
       </c>
       <c r="M2" s="8"/>
       <c r="O2" s="6" t="s">
-        <v>1243</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="13.5" customHeight="1" spans="1:15">
       <c r="A3" s="6" t="s">
-        <v>1244</v>
+        <v>1283</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1245</v>
+        <v>1284</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>1246</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
-        <v>1247</v>
+        <v>1286</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1248</v>
+        <v>1287</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>1249</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
-        <v>1250</v>
+        <v>1289</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1251</v>
+        <v>1290</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>1252</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
-        <v>1253</v>
+        <v>1292</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1254</v>
+        <v>1293</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>1255</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>1256</v>
+        <v>1295</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1257</v>
+        <v>1296</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>1258</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>1259</v>
+        <v>1298</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1260</v>
+        <v>1299</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>1261</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
-        <v>1262</v>
+        <v>1301</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1263</v>
+        <v>1302</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>1264</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
-        <v>1265</v>
+        <v>1304</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1266</v>
+        <v>1305</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>1267</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>1268</v>
+        <v>1307</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1269</v>
+        <v>1308</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>1270</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>1271</v>
+        <v>1310</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1272</v>
+        <v>1311</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>1273</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>1274</v>
+        <v>1313</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1275</v>
+        <v>1314</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>1276</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>1277</v>
+        <v>1316</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1278</v>
+        <v>1317</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>1279</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>1280</v>
+        <v>1319</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1281</v>
+        <v>1320</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>1282</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
-        <v>1283</v>
+        <v>1322</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1284</v>
+        <v>1323</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>1285</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
-        <v>1286</v>
+        <v>1325</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1287</v>
+        <v>1326</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>1288</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
-        <v>1289</v>
+        <v>1328</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1290</v>
+        <v>1329</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>1291</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>1292</v>
+        <v>1331</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>506</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>1293</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>1294</v>
+        <v>1333</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1295</v>
+        <v>1334</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>1296</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
-        <v>1297</v>
+        <v>1336</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1298</v>
+        <v>1337</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>1299</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
-        <v>1300</v>
+        <v>1339</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1301</v>
+        <v>1340</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>1302</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
-        <v>1303</v>
+        <v>1342</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1304</v>
+        <v>1343</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>1305</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
-        <v>1306</v>
+        <v>1345</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1307</v>
+        <v>1346</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>1308</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2" t="s">
-        <v>1309</v>
+        <v>1348</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1310</v>
+        <v>1349</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>1311</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
-        <v>1312</v>
+        <v>1351</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1313</v>
+        <v>1352</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>1314</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2" t="s">
-        <v>1315</v>
+        <v>1354</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1316</v>
+        <v>1355</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>1317</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
-        <v>1318</v>
+        <v>1357</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1319</v>
+        <v>1358</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>1320</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
-        <v>1321</v>
+        <v>1360</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1322</v>
+        <v>1361</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>1323</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="2" t="s">
-        <v>1324</v>
+        <v>1363</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1325</v>
+        <v>1364</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>1326</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="2" t="s">
-        <v>1327</v>
+        <v>1366</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1328</v>
+        <v>1367</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>1329</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="2" t="s">
-        <v>1330</v>
+        <v>1369</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1331</v>
+        <v>1370</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>1332</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -11919,153 +12210,153 @@
         <v>602</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1333</v>
+        <v>1372</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>1334</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="2" t="s">
-        <v>1335</v>
+        <v>1374</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1336</v>
+        <v>1375</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>1337</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="2" t="s">
-        <v>1338</v>
+        <v>1377</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1339</v>
+        <v>1378</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>1340</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="2" t="s">
-        <v>1341</v>
+        <v>1380</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1342</v>
+        <v>1381</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>1343</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="2" t="s">
-        <v>1344</v>
+        <v>1383</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1345</v>
+        <v>1384</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>1346</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="2" t="s">
-        <v>1347</v>
+        <v>1386</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1348</v>
+        <v>1387</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>1349</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="2" t="s">
-        <v>1350</v>
+        <v>1389</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1351</v>
+        <v>1390</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>1352</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="2" t="s">
-        <v>1353</v>
+        <v>1392</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1295</v>
+        <v>1334</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>1354</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="2" t="s">
-        <v>1355</v>
+        <v>1394</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1356</v>
+        <v>1395</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>1357</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="2" t="s">
-        <v>1358</v>
+        <v>1397</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1359</v>
+        <v>1398</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>1360</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="2" t="s">
-        <v>1361</v>
+        <v>1400</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1362</v>
+        <v>1401</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>1363</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="2" t="s">
-        <v>1364</v>
+        <v>1403</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1365</v>
+        <v>1404</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>1366</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="2" t="s">
-        <v>1367</v>
+        <v>1406</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1368</v>
+        <v>1407</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>1369</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="2" t="s">
-        <v>1370</v>
+        <v>1409</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1371</v>
+        <v>1410</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>1372</v>
+        <v>1411</v>
       </c>
     </row>
   </sheetData>
@@ -12145,10 +12436,10 @@
     </row>
     <row r="2" customFormat="1" ht="28.5" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>1373</v>
+        <v>1412</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1374</v>
+        <v>1413</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -12163,17 +12454,17 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="7" t="s">
-        <v>1375</v>
+        <v>1414</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" ht="57" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>1376</v>
+        <v>1415</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1377</v>
+        <v>1416</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -12188,17 +12479,17 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="7" t="s">
-        <v>1378</v>
+        <v>1417</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" ht="42.75" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>1379</v>
+        <v>1418</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1380</v>
+        <v>1419</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -12213,17 +12504,17 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="7" t="s">
-        <v>1381</v>
+        <v>1420</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" ht="71.25" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>1382</v>
+        <v>1421</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1383</v>
+        <v>1422</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -12238,17 +12529,17 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="7" t="s">
-        <v>1384</v>
+        <v>1423</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" ht="42.75" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>1385</v>
+        <v>1424</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1386</v>
+        <v>1425</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -12263,17 +12554,17 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="7" t="s">
-        <v>1387</v>
+        <v>1426</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" ht="57" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>1388</v>
+        <v>1427</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1389</v>
+        <v>1428</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -12288,17 +12579,17 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="7" t="s">
-        <v>1390</v>
+        <v>1429</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>1391</v>
+        <v>1430</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1392</v>
+        <v>1431</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -12313,7 +12604,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>1393</v>
+        <v>1432</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -12400,10 +12691,10 @@
     </row>
     <row r="2" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A2" s="1" t="s">
-        <v>1394</v>
+        <v>1433</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1395</v>
+        <v>1434</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -12418,7 +12709,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>1396</v>
+        <v>1435</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -12434,10 +12725,10 @@
     </row>
     <row r="3" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A3" s="1" t="s">
-        <v>1397</v>
+        <v>1436</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1398</v>
+        <v>1437</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -12452,7 +12743,7 @@
       <c r="M3" s="5"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>1399</v>
+        <v>1438</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -12468,10 +12759,10 @@
     </row>
     <row r="4" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A4" s="1" t="s">
-        <v>1400</v>
+        <v>1439</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1401</v>
+        <v>1440</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -12486,7 +12777,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>1402</v>
+        <v>1441</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -12502,10 +12793,10 @@
     </row>
     <row r="5" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A5" s="1" t="s">
-        <v>1403</v>
+        <v>1442</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1404</v>
+        <v>1443</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -12520,7 +12811,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>1405</v>
+        <v>1444</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -12536,10 +12827,10 @@
     </row>
     <row r="6" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A6" s="1" t="s">
-        <v>1406</v>
+        <v>1445</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1407</v>
+        <v>1446</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -12554,7 +12845,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>1408</v>
+        <v>1447</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -12570,10 +12861,10 @@
     </row>
     <row r="7" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A7" s="1" t="s">
-        <v>1409</v>
+        <v>1448</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1410</v>
+        <v>1449</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -12588,7 +12879,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>1411</v>
+        <v>1450</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -12604,10 +12895,10 @@
     </row>
     <row r="8" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A8" s="1" t="s">
-        <v>1412</v>
+        <v>1451</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1413</v>
+        <v>1452</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -12622,7 +12913,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>1414</v>
+        <v>1453</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -12638,10 +12929,10 @@
     </row>
     <row r="9" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A9" s="1" t="s">
-        <v>1415</v>
+        <v>1454</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1416</v>
+        <v>1455</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -12656,7 +12947,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>1417</v>
+        <v>1456</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -12672,10 +12963,10 @@
     </row>
     <row r="10" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A10" s="1" t="s">
-        <v>1418</v>
+        <v>1457</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1419</v>
+        <v>1458</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -12690,7 +12981,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>1420</v>
+        <v>1459</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -12706,10 +12997,10 @@
     </row>
     <row r="11" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A11" s="1" t="s">
-        <v>1421</v>
+        <v>1460</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1422</v>
+        <v>1461</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -12724,7 +13015,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>1423</v>
+        <v>1462</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -12740,10 +13031,10 @@
     </row>
     <row r="12" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A12" s="1" t="s">
-        <v>1424</v>
+        <v>1463</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1425</v>
+        <v>1464</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -12758,7 +13049,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>1426</v>
+        <v>1465</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -12774,10 +13065,10 @@
     </row>
     <row r="13" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A13" s="1" t="s">
-        <v>1427</v>
+        <v>1466</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1428</v>
+        <v>1467</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -12792,7 +13083,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>1429</v>
+        <v>1468</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -12808,10 +13099,10 @@
     </row>
     <row r="14" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A14" s="1" t="s">
-        <v>1430</v>
+        <v>1469</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1431</v>
+        <v>1470</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -12826,7 +13117,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>1432</v>
+        <v>1471</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -12842,10 +13133,10 @@
     </row>
     <row r="15" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A15" s="1" t="s">
-        <v>1433</v>
+        <v>1472</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1434</v>
+        <v>1473</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -12860,7 +13151,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>1435</v>
+        <v>1474</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -12876,10 +13167,10 @@
     </row>
     <row r="16" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A16" s="1" t="s">
-        <v>1436</v>
+        <v>1475</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1437</v>
+        <v>1476</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -12894,7 +13185,7 @@
       <c r="M16" s="5"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>1438</v>
+        <v>1477</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -12910,10 +13201,10 @@
     </row>
     <row r="17" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A17" s="1" t="s">
-        <v>1439</v>
+        <v>1478</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1440</v>
+        <v>1479</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -12928,7 +13219,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>1441</v>
+        <v>1480</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -12944,10 +13235,10 @@
     </row>
     <row r="18" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A18" s="1" t="s">
-        <v>1442</v>
+        <v>1481</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1443</v>
+        <v>1482</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -12962,7 +13253,7 @@
       <c r="M18" s="5"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>1444</v>
+        <v>1483</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -12978,10 +13269,10 @@
     </row>
     <row r="19" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A19" s="1" t="s">
-        <v>1445</v>
+        <v>1484</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1446</v>
+        <v>1485</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -12996,7 +13287,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>1447</v>
+        <v>1486</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -13012,10 +13303,10 @@
     </row>
     <row r="20" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A20" s="1" t="s">
-        <v>1448</v>
+        <v>1487</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1449</v>
+        <v>1488</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -13030,7 +13321,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>1450</v>
+        <v>1489</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -13046,10 +13337,10 @@
     </row>
     <row r="21" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A21" s="1" t="s">
-        <v>1451</v>
+        <v>1490</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1452</v>
+        <v>1491</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -13064,7 +13355,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>1453</v>
+        <v>1492</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -13080,10 +13371,10 @@
     </row>
     <row r="22" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A22" s="1" t="s">
-        <v>1454</v>
+        <v>1493</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1455</v>
+        <v>1494</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -13098,7 +13389,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1" t="s">
-        <v>1456</v>
+        <v>1495</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -13114,10 +13405,10 @@
     </row>
     <row r="23" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A23" s="1" t="s">
-        <v>1457</v>
+        <v>1496</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1458</v>
+        <v>1497</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -13132,7 +13423,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
-        <v>1459</v>
+        <v>1498</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -13148,10 +13439,10 @@
     </row>
     <row r="24" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A24" s="1" t="s">
-        <v>1460</v>
+        <v>1499</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1461</v>
+        <v>1500</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -13166,7 +13457,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1" t="s">
-        <v>1462</v>
+        <v>1501</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -13182,10 +13473,10 @@
     </row>
     <row r="25" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:26">
       <c r="A25" s="1" t="s">
-        <v>1463</v>
+        <v>1502</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1464</v>
+        <v>1503</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -13200,7 +13491,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>1465</v>
+        <v>1504</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -13223,10 +13514,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.25"/>
@@ -13290,120 +13581,120 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>1466</v>
+        <v>1505</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1467</v>
+        <v>1506</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>1468</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>1469</v>
+        <v>1508</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1470</v>
+        <v>1509</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>1471</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
-        <v>1472</v>
+        <v>1511</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1473</v>
+        <v>1512</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>1474</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
-        <v>1475</v>
+        <v>1514</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1476</v>
+        <v>1515</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>1477</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
-        <v>1478</v>
+        <v>1517</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1479</v>
+        <v>1518</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>1480</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
-        <v>1481</v>
+        <v>1520</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1482</v>
+        <v>1521</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>1483</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>1484</v>
+        <v>1523</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1485</v>
+        <v>1524</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>1486</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>1487</v>
+        <v>1526</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1488</v>
+        <v>1527</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>1489</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
-        <v>1490</v>
+        <v>1529</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1491</v>
+        <v>1530</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>1492</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
-        <v>1493</v>
+        <v>1532</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1494</v>
+        <v>1533</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>1495</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>1496</v>
+        <v>1535</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1497</v>
+        <v>1536</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>33</v>
@@ -13411,10 +13702,10 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>1498</v>
+        <v>1537</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1499</v>
+        <v>1538</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>36</v>
@@ -13422,13 +13713,24 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>1500</v>
+        <v>1539</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1501</v>
+        <v>1540</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>1542</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WindowsFile\TheOtherRolesRework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6583F5FC-B57A-426B-9073-F62072EC125A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FCEBA3-AA3C-485B-8202-BC69D81ECE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="2338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="2339">
   <si>
     <t>English</t>
   </si>
@@ -7257,6 +7257,10 @@
   </si>
   <si>
     <t>记住队友以防他们被招募</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>fraudsterButtonSuicide</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -7810,7 +7814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q896"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
+    <sheetView topLeftCell="A389" workbookViewId="0">
       <selection activeCell="O896" sqref="O896"/>
     </sheetView>
   </sheetViews>
@@ -16405,10 +16409,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33" defaultRowHeight="13.8"/>
@@ -16978,6 +16982,17 @@
       </c>
       <c r="O47" s="1" t="s">
         <v>2130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="13" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>2311</v>
+      </c>
+      <c r="O48" s="13" t="s">
+        <v>2314</v>
       </c>
     </row>
   </sheetData>
@@ -18484,6 +18499,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -18525,25 +18551,14 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-</pixelators>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WindowsFile\TheOtherRolesRework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FCEBA3-AA3C-485B-8202-BC69D81ECE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C5AE8F-5E44-4A3F-99B8-9B1665249B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="2339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="2345">
   <si>
     <t>English</t>
   </si>
@@ -7261,6 +7261,29 @@
   </si>
   <si>
     <t>fraudsterButtonSuicide</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheriffCanStopGameEnd</t>
+  </si>
+  <si>
+    <t>Sheriff Can Stop Game End</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>警长可以阻止游戏结束</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>deputyCanStopGameEnd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deputy Can Stop Game End</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕快可以阻止游戏结束</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -7812,10 +7835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q896"/>
+  <dimension ref="A1:Q898"/>
   <sheetViews>
-    <sheetView topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="O896" sqref="O896"/>
+    <sheetView tabSelected="1" topLeftCell="D326" workbookViewId="0">
+      <selection activeCell="O348" sqref="O348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8"/>
@@ -11168,1679 +11191,1686 @@
       </c>
     </row>
     <row r="332" spans="1:15">
-      <c r="A332" s="9"/>
-      <c r="B332" s="9"/>
-      <c r="O332" s="4"/>
+      <c r="A332" s="9" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B332" s="14" t="s">
+        <v>2340</v>
+      </c>
+      <c r="O332" s="16" t="s">
+        <v>2341</v>
+      </c>
     </row>
     <row r="333" spans="1:15">
-      <c r="A333" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="B333" s="9" t="s">
-        <v>730</v>
-      </c>
-      <c r="O333" s="4" t="s">
-        <v>731</v>
-      </c>
+      <c r="A333" s="9"/>
+      <c r="B333" s="9"/>
+      <c r="O333" s="4"/>
     </row>
     <row r="334" spans="1:15">
       <c r="A334" s="9" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B334" s="9" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="O334" s="4" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="335" spans="1:15">
       <c r="A335" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="B335" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="O335" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15">
+      <c r="A336" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="B335" s="9" t="s">
+      <c r="B336" s="9" t="s">
         <v>736</v>
       </c>
-      <c r="O335" s="4" t="s">
+      <c r="O336" s="4" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="336" spans="1:15">
-      <c r="A336" s="9"/>
-      <c r="B336" s="9"/>
-    </row>
     <row r="337" spans="1:15">
-      <c r="A337" s="9" t="s">
-        <v>738</v>
-      </c>
-      <c r="B337" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="O337" s="1" t="s">
-        <v>740</v>
-      </c>
+      <c r="A337" s="9"/>
+      <c r="B337" s="9"/>
     </row>
     <row r="338" spans="1:15">
       <c r="A338" s="9" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B338" s="9" t="s">
-        <v>742</v>
-      </c>
-      <c r="O338" s="4" t="s">
-        <v>743</v>
+        <v>739</v>
+      </c>
+      <c r="O338" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="339" spans="1:15">
       <c r="A339" s="9" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B339" s="9" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="O339" s="4" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="340" spans="1:15">
       <c r="A340" s="9" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B340" s="9" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="O340" s="4" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="341" spans="1:15">
       <c r="A341" s="9" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B341" s="9" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="O341" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="342" spans="1:15">
       <c r="A342" s="9" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B342" s="9" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="O342" s="4" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="343" spans="1:15">
       <c r="A343" s="9" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B343" s="9" t="s">
-        <v>17</v>
+        <v>754</v>
       </c>
       <c r="O343" s="4" t="s">
-        <v>18</v>
+        <v>755</v>
       </c>
     </row>
     <row r="344" spans="1:15">
       <c r="A344" s="9" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>758</v>
+        <v>17</v>
       </c>
       <c r="O344" s="4" t="s">
-        <v>759</v>
+        <v>18</v>
       </c>
     </row>
     <row r="345" spans="1:15">
       <c r="A345" s="9" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="O345" s="4" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="346" spans="1:15">
       <c r="A346" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="B346" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="O346" s="4" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15">
+      <c r="A347" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="B346" s="9" t="s">
+      <c r="B347" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="O346" s="1" t="s">
+      <c r="O347" s="1" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="347" spans="1:15">
-      <c r="A347" s="9"/>
-      <c r="B347" s="9"/>
-      <c r="O347" s="4"/>
-    </row>
     <row r="348" spans="1:15">
-      <c r="A348" s="9" t="s">
-        <v>766</v>
-      </c>
-      <c r="B348" s="9" t="s">
-        <v>767</v>
-      </c>
-      <c r="O348" s="1" t="s">
-        <v>768</v>
+      <c r="A348" s="14" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B348" s="14" t="s">
+        <v>2343</v>
+      </c>
+      <c r="O348" s="13" t="s">
+        <v>2344</v>
       </c>
     </row>
     <row r="349" spans="1:15">
-      <c r="A349" s="9" t="s">
-        <v>769</v>
-      </c>
-      <c r="B349" s="9" t="s">
-        <v>770</v>
-      </c>
-      <c r="O349" s="1" t="s">
-        <v>771</v>
-      </c>
+      <c r="A349" s="9"/>
+      <c r="B349" s="9"/>
+      <c r="O349" s="4"/>
     </row>
     <row r="350" spans="1:15">
       <c r="A350" s="9" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B350" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="O350" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15">
+      <c r="A351" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="B351" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="O350" s="1" t="s">
+      <c r="O351" s="1" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="351" spans="1:15">
-      <c r="A351" s="9"/>
-      <c r="B351" s="9"/>
     </row>
     <row r="352" spans="1:15">
       <c r="A352" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="O352" s="1" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="353" spans="1:15">
-      <c r="A353" s="9" t="s">
-        <v>776</v>
-      </c>
-      <c r="B353" s="9" t="s">
-        <v>777</v>
-      </c>
-      <c r="O353" s="1" t="s">
-        <v>778</v>
-      </c>
+      <c r="A353" s="9"/>
+      <c r="B353" s="9"/>
     </row>
     <row r="354" spans="1:15">
       <c r="A354" s="9" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B354" s="9" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="O354" s="1" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="355" spans="1:15">
-      <c r="A355" s="9"/>
-      <c r="B355" s="9"/>
+      <c r="A355" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="B355" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="O355" s="1" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="356" spans="1:15">
       <c r="A356" s="9" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B356" s="9" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="O356" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="357" spans="1:15">
-      <c r="A357" s="9" t="s">
-        <v>785</v>
-      </c>
-      <c r="B357" s="9" t="s">
-        <v>786</v>
-      </c>
-      <c r="O357" s="1" t="s">
-        <v>787</v>
-      </c>
+      <c r="A357" s="9"/>
+      <c r="B357" s="9"/>
     </row>
     <row r="358" spans="1:15">
       <c r="A358" s="9" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="B358" s="9" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="O358" s="1" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="359" spans="1:15">
-      <c r="A359" s="9"/>
-      <c r="B359" s="9"/>
+      <c r="A359" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="B359" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="O359" s="1" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="360" spans="1:15">
       <c r="A360" s="9" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B360" s="9" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="O360" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="361" spans="1:15">
-      <c r="A361" s="9" t="s">
-        <v>794</v>
-      </c>
-      <c r="B361" s="9" t="s">
-        <v>795</v>
-      </c>
-      <c r="O361" s="1" t="s">
-        <v>796</v>
-      </c>
+      <c r="A361" s="9"/>
+      <c r="B361" s="9"/>
     </row>
     <row r="362" spans="1:15">
       <c r="A362" s="9" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B362" s="9" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="O362" s="1" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="363" spans="1:15">
       <c r="A363" s="9" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B363" s="9" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="O363" s="1" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="364" spans="1:15">
       <c r="A364" s="9" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="B364" s="9" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="O364" s="1" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
     </row>
     <row r="365" spans="1:15">
-      <c r="A365" s="9"/>
-      <c r="B365" s="9"/>
+      <c r="A365" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="B365" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="O365" s="1" t="s">
+        <v>802</v>
+      </c>
     </row>
     <row r="366" spans="1:15">
       <c r="A366" s="9" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B366" s="9" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="O366" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="367" spans="1:15">
-      <c r="A367" s="9" t="s">
-        <v>809</v>
-      </c>
-      <c r="B367" s="9" t="s">
-        <v>810</v>
-      </c>
-      <c r="O367" s="1" t="s">
-        <v>811</v>
-      </c>
+      <c r="A367" s="9"/>
+      <c r="B367" s="9"/>
     </row>
     <row r="368" spans="1:15">
       <c r="A368" s="9" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="B368" s="9" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="O368" s="1" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="369" spans="1:15">
-      <c r="A369" s="9"/>
-      <c r="B369" s="9"/>
+      <c r="A369" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="B369" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="O369" s="1" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="370" spans="1:15">
       <c r="A370" s="9" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B370" s="9" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="O370" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="371" spans="1:15">
-      <c r="A371" s="9" t="s">
-        <v>818</v>
-      </c>
-      <c r="B371" s="9" t="s">
-        <v>819</v>
-      </c>
-      <c r="O371" s="1" t="s">
-        <v>820</v>
-      </c>
+      <c r="A371" s="9"/>
+      <c r="B371" s="9"/>
     </row>
     <row r="372" spans="1:15">
       <c r="A372" s="9" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="O372" s="1" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="373" spans="1:15">
-      <c r="A373" s="9"/>
-      <c r="B373" s="9"/>
+      <c r="A373" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="B373" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="O373" s="1" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="374" spans="1:15">
       <c r="A374" s="9" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B374" s="9" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="O374" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="375" spans="1:15">
-      <c r="A375" s="9" t="s">
-        <v>827</v>
-      </c>
-      <c r="B375" s="9" t="s">
-        <v>828</v>
-      </c>
-      <c r="O375" s="1" t="s">
-        <v>829</v>
-      </c>
+      <c r="A375" s="9"/>
+      <c r="B375" s="9"/>
     </row>
     <row r="376" spans="1:15">
       <c r="A376" s="9" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="B376" s="9" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="O376" s="1" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
     <row r="377" spans="1:15">
-      <c r="A377" s="9"/>
-      <c r="B377" s="9"/>
+      <c r="A377" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="B377" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="O377" s="1" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="378" spans="1:15">
       <c r="A378" s="9" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B378" s="9" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="O378" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="379" spans="1:15">
-      <c r="A379" s="9" t="s">
-        <v>836</v>
-      </c>
-      <c r="B379" s="9" t="s">
-        <v>837</v>
-      </c>
-      <c r="O379" s="1" t="s">
-        <v>838</v>
-      </c>
+      <c r="A379" s="9"/>
+      <c r="B379" s="9"/>
     </row>
     <row r="380" spans="1:15">
       <c r="A380" s="9" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="B380" s="9" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="O380" s="1" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
     <row r="381" spans="1:15">
       <c r="A381" s="9" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B381" s="9" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
       <c r="O381" s="1" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
     </row>
     <row r="382" spans="1:15">
       <c r="A382" s="9" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B382" s="9" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="O382" s="1" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="383" spans="1:15">
       <c r="A383" s="9" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B383" s="9" t="s">
-        <v>847</v>
+        <v>825</v>
       </c>
       <c r="O383" s="1" t="s">
-        <v>848</v>
+        <v>826</v>
       </c>
     </row>
     <row r="384" spans="1:15">
       <c r="A384" s="9" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="B384" s="9" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="O384" s="1" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="385" spans="1:15">
       <c r="A385" s="9" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B385" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="O385" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="386" spans="1:15">
       <c r="A386" s="9" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="B386" s="9" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="O386" s="1" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="387" spans="1:15">
       <c r="A387" s="9" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="B387" s="9" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="O387" s="1" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="388" spans="1:15">
-      <c r="A388" s="9"/>
-      <c r="B388" s="9"/>
+      <c r="A388" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="B388" s="9" t="s">
+        <v>856</v>
+      </c>
+      <c r="O388" s="1" t="s">
+        <v>857</v>
+      </c>
     </row>
     <row r="389" spans="1:15">
       <c r="A389" s="9" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B389" s="9" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="O389" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="390" spans="1:15">
-      <c r="A390" s="9" t="s">
-        <v>864</v>
-      </c>
-      <c r="B390" s="9" t="s">
-        <v>865</v>
-      </c>
-      <c r="O390" s="1" t="s">
-        <v>866</v>
-      </c>
+      <c r="A390" s="9"/>
+      <c r="B390" s="9"/>
     </row>
     <row r="391" spans="1:15">
       <c r="A391" s="9" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="B391" s="9" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="O391" s="1" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
     </row>
     <row r="392" spans="1:15">
-      <c r="A392" s="9"/>
-      <c r="B392" s="9"/>
+      <c r="A392" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="B392" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="O392" s="1" t="s">
+        <v>866</v>
+      </c>
     </row>
     <row r="393" spans="1:15">
       <c r="A393" s="9" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B393" s="9" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="O393" s="1" t="s">
-        <v>510</v>
+        <v>869</v>
       </c>
     </row>
     <row r="394" spans="1:15">
-      <c r="A394" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="B394" s="9" t="s">
-        <v>873</v>
-      </c>
-      <c r="O394" s="1" t="s">
-        <v>874</v>
-      </c>
+      <c r="A394" s="9"/>
+      <c r="B394" s="9"/>
     </row>
     <row r="395" spans="1:15">
       <c r="A395" s="9" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="B395" s="9" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="O395" s="1" t="s">
-        <v>877</v>
+        <v>510</v>
       </c>
     </row>
     <row r="396" spans="1:15">
       <c r="A396" s="9" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="B396" s="9" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="O396" s="1" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
     <row r="397" spans="1:15">
-      <c r="A397" s="9"/>
-      <c r="B397" s="9"/>
+      <c r="A397" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="B397" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="O397" s="1" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="398" spans="1:15">
       <c r="A398" s="9" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B398" s="9" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="O398" s="1" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="399" spans="1:15">
-      <c r="A399" s="9" t="s">
-        <v>884</v>
-      </c>
-      <c r="B399" s="9" t="s">
-        <v>885</v>
-      </c>
-      <c r="O399" s="1" t="s">
-        <v>886</v>
-      </c>
+      <c r="A399" s="9"/>
+      <c r="B399" s="9"/>
     </row>
     <row r="400" spans="1:15">
       <c r="A400" s="9" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="B400" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="O400" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="401" spans="1:15">
+      <c r="A401" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="B401" s="9" t="s">
         <v>885</v>
       </c>
-      <c r="O400" s="1" t="s">
+      <c r="O401" s="1" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="401" spans="1:15">
-      <c r="A401" s="9"/>
-      <c r="B401" s="9"/>
     </row>
     <row r="402" spans="1:15">
       <c r="A402" s="9" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B402" s="9" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="O402" s="1" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="403" spans="1:15">
-      <c r="A403" s="9" t="s">
-        <v>891</v>
-      </c>
-      <c r="B403" s="9" t="s">
-        <v>892</v>
-      </c>
-      <c r="O403" s="1" t="s">
-        <v>893</v>
-      </c>
+      <c r="A403" s="9"/>
+      <c r="B403" s="9"/>
     </row>
     <row r="404" spans="1:15">
       <c r="A404" s="9" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="B404" s="9" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="O404" s="1" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
     </row>
     <row r="405" spans="1:15">
       <c r="A405" s="9" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="B405" s="9" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="O405" s="1" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
     </row>
     <row r="406" spans="1:15">
       <c r="A406" s="9" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="B406" s="9" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="O406" s="1" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
     </row>
     <row r="407" spans="1:15">
       <c r="A407" s="9" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="B407" s="9" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="O407" s="1" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
     </row>
     <row r="408" spans="1:15">
-      <c r="A408" s="9"/>
-      <c r="B408" s="9"/>
+      <c r="A408" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="B408" s="9" t="s">
+        <v>901</v>
+      </c>
       <c r="O408" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="409" spans="1:15">
       <c r="A409" s="9" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B409" s="9" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="O409" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="410" spans="1:15">
-      <c r="A410" s="9" t="s">
-        <v>909</v>
-      </c>
-      <c r="B410" s="9" t="s">
-        <v>910</v>
-      </c>
+      <c r="A410" s="9"/>
+      <c r="B410" s="9"/>
       <c r="O410" s="1" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="411" spans="1:15">
       <c r="A411" s="9" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="B411" s="9" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="O411" s="1" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="412" spans="1:15">
-      <c r="A412" s="9"/>
-      <c r="B412" s="9"/>
+      <c r="A412" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="B412" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="O412" s="1" t="s">
+        <v>911</v>
+      </c>
     </row>
     <row r="413" spans="1:15">
       <c r="A413" s="9" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B413" s="9" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="O413" s="1" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="414" spans="1:15">
-      <c r="A414" s="9" t="s">
-        <v>918</v>
-      </c>
-      <c r="B414" s="9" t="s">
-        <v>919</v>
-      </c>
-      <c r="O414" s="1" t="s">
-        <v>920</v>
-      </c>
+      <c r="A414" s="9"/>
+      <c r="B414" s="9"/>
     </row>
     <row r="415" spans="1:15">
       <c r="A415" s="9" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="B415" s="9" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="O415" s="1" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="416" spans="1:15">
       <c r="A416" s="9" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="B416" s="9" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="O416" s="1" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
     </row>
     <row r="417" spans="1:15">
       <c r="A417" s="9" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="B417" s="9" t="s">
-        <v>879</v>
+        <v>922</v>
       </c>
       <c r="O417" s="1" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
     </row>
     <row r="418" spans="1:15">
       <c r="A418" s="9" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="B418" s="9" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="O418" s="1" t="s">
-        <v>931</v>
+        <v>926</v>
+      </c>
+    </row>
+    <row r="419" spans="1:15">
+      <c r="A419" s="9" t="s">
+        <v>927</v>
+      </c>
+      <c r="B419" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="O419" s="1" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="420" spans="1:15">
       <c r="A420" s="9" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B420" s="9" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="O420" s="1" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="421" spans="1:15">
-      <c r="A421" s="9" t="s">
-        <v>935</v>
-      </c>
-      <c r="B421" s="9" t="s">
-        <v>936</v>
-      </c>
-      <c r="O421" s="1" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="422" spans="1:15">
       <c r="A422" s="9" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="B422" s="9" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="O422" s="1" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
     </row>
     <row r="423" spans="1:15">
-      <c r="A423" s="9"/>
-      <c r="B423" s="9"/>
+      <c r="A423" s="9" t="s">
+        <v>935</v>
+      </c>
+      <c r="B423" s="9" t="s">
+        <v>936</v>
+      </c>
+      <c r="O423" s="1" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="424" spans="1:15">
       <c r="A424" s="9" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B424" s="9" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="O424" s="1" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="425" spans="1:15">
-      <c r="A425" s="9" t="s">
-        <v>944</v>
-      </c>
-      <c r="B425" s="9" t="s">
-        <v>945</v>
-      </c>
-      <c r="O425" s="1" t="s">
-        <v>946</v>
-      </c>
+      <c r="A425" s="9"/>
+      <c r="B425" s="9"/>
     </row>
     <row r="426" spans="1:15">
       <c r="A426" s="9" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="B426" s="9" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="O426" s="1" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
     </row>
     <row r="427" spans="1:15">
       <c r="A427" s="9" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="B427" s="9" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="O427" s="1" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
     </row>
     <row r="428" spans="1:15">
       <c r="A428" s="9" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B428" s="9" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="O428" s="1" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
     </row>
     <row r="429" spans="1:15">
       <c r="A429" s="9" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="B429" s="9" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="O429" s="1" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
     </row>
     <row r="430" spans="1:15">
       <c r="A430" s="9" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="B430" s="9" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="O430" s="1" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
     </row>
     <row r="431" spans="1:15">
       <c r="A431" s="9" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="B431" s="9" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="O431" s="1" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="432" spans="1:15">
       <c r="A432" s="9" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="B432" s="9" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="O432" s="1" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="433" spans="1:15">
-      <c r="A433" s="9"/>
-      <c r="B433" s="9"/>
+      <c r="A433" s="9" t="s">
+        <v>962</v>
+      </c>
+      <c r="B433" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="O433" s="1" t="s">
+        <v>964</v>
+      </c>
     </row>
     <row r="434" spans="1:15">
       <c r="A434" s="9" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B434" s="9" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="O434" s="1" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="435" spans="1:15">
-      <c r="A435" s="9" t="s">
-        <v>971</v>
-      </c>
-      <c r="B435" s="9" t="s">
-        <v>972</v>
-      </c>
-      <c r="O435" s="1" t="s">
-        <v>973</v>
-      </c>
+      <c r="A435" s="9"/>
+      <c r="B435" s="9"/>
     </row>
     <row r="436" spans="1:15">
       <c r="A436" s="9" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="B436" s="9" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="O436" s="1" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="437" spans="1:15">
-      <c r="A437" s="9"/>
-      <c r="B437" s="9"/>
+      <c r="A437" s="9" t="s">
+        <v>971</v>
+      </c>
+      <c r="B437" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="O437" s="1" t="s">
+        <v>973</v>
+      </c>
     </row>
     <row r="438" spans="1:15">
       <c r="A438" s="9" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B438" s="9" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="O438" s="1" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="439" spans="1:15">
-      <c r="A439" s="9" t="s">
-        <v>980</v>
-      </c>
-      <c r="B439" s="9" t="s">
-        <v>981</v>
-      </c>
-      <c r="O439" s="1" t="s">
-        <v>982</v>
-      </c>
+      <c r="A439" s="9"/>
+      <c r="B439" s="9"/>
     </row>
     <row r="440" spans="1:15">
       <c r="A440" s="9" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="B440" s="9" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="O440" s="1" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
     </row>
     <row r="441" spans="1:15">
       <c r="A441" s="9" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="B441" s="9" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="O441" s="1" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="442" spans="1:15">
       <c r="A442" s="9" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="B442" s="9" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="O442" s="1" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
     </row>
     <row r="443" spans="1:15">
       <c r="A443" s="9" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="B443" s="9" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="O443" s="1" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
     </row>
     <row r="444" spans="1:15">
       <c r="A444" s="9" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="B444" s="9" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="O444" s="1" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
     </row>
     <row r="445" spans="1:15">
       <c r="A445" s="9" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="B445" s="9" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="O445" s="1" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
     </row>
     <row r="446" spans="1:15">
-      <c r="A446" s="9"/>
-      <c r="B446" s="9"/>
+      <c r="A446" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="B446" s="9" t="s">
+        <v>996</v>
+      </c>
+      <c r="O446" s="1" t="s">
+        <v>997</v>
+      </c>
     </row>
     <row r="447" spans="1:15">
       <c r="A447" s="9" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="B447" s="9" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="O447" s="1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="448" spans="1:15">
-      <c r="A448" s="9" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B448" s="9" t="s">
-        <v>1005</v>
-      </c>
-      <c r="O448" s="1" t="s">
-        <v>1006</v>
-      </c>
+      <c r="A448" s="9"/>
+      <c r="B448" s="9"/>
     </row>
     <row r="449" spans="1:15">
       <c r="A449" s="9" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="B449" s="9" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="O449" s="1" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="450" spans="1:15">
-      <c r="A450" s="9"/>
-      <c r="B450" s="9"/>
+      <c r="A450" s="9" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B450" s="9" t="s">
+        <v>1005</v>
+      </c>
+      <c r="O450" s="1" t="s">
+        <v>1006</v>
+      </c>
     </row>
     <row r="451" spans="1:15">
       <c r="A451" s="9" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B451" s="9" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="O451" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="452" spans="1:15">
-      <c r="A452" s="9" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B452" s="9" t="s">
-        <v>1014</v>
-      </c>
-      <c r="O452" s="1" t="s">
-        <v>1015</v>
-      </c>
+      <c r="A452" s="9"/>
+      <c r="B452" s="9"/>
     </row>
     <row r="453" spans="1:15">
       <c r="A453" s="9" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="B453" s="9" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="O453" s="1" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="454" spans="1:15">
       <c r="A454" s="9" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="B454" s="9" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="O454" s="1" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="455" spans="1:15">
-      <c r="A455" s="9"/>
-      <c r="B455" s="9"/>
+      <c r="A455" s="9" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B455" s="9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="O455" s="1" t="s">
+        <v>1018</v>
+      </c>
     </row>
     <row r="456" spans="1:15">
       <c r="A456" s="9" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B456" s="9" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="O456" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="457" spans="1:15">
-      <c r="A457" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B457" s="9" t="s">
-        <v>1026</v>
-      </c>
-      <c r="O457" s="1" t="s">
-        <v>1027</v>
-      </c>
+      <c r="A457" s="9"/>
+      <c r="B457" s="9"/>
     </row>
     <row r="458" spans="1:15">
       <c r="A458" s="9" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="B458" s="9" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O458" s="1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="459" spans="1:15">
+      <c r="A459" s="9" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B459" s="9" t="s">
         <v>1026</v>
       </c>
-      <c r="O458" s="1" t="s">
+      <c r="O459" s="1" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="459" spans="1:15">
-      <c r="A459" s="9"/>
-      <c r="B459" s="9"/>
     </row>
     <row r="460" spans="1:15">
       <c r="A460" s="9" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B460" s="9" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="O460" s="1" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="461" spans="1:15">
-      <c r="A461" s="9" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B461" s="9" t="s">
-        <v>1033</v>
-      </c>
-      <c r="O461" s="1" t="s">
-        <v>1034</v>
-      </c>
+      <c r="A461" s="9"/>
+      <c r="B461" s="9"/>
     </row>
     <row r="462" spans="1:15">
       <c r="A462" s="9" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="B462" s="9" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="O462" s="1" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="463" spans="1:15">
       <c r="A463" s="9" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="B463" s="9" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="O463" s="1" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="464" spans="1:15">
       <c r="A464" s="9" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="B464" s="9" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="O464" s="1" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="465" spans="1:15">
-      <c r="A465" s="9"/>
-      <c r="B465" s="9"/>
+      <c r="A465" s="9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B465" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="O465" s="1" t="s">
+        <v>1040</v>
+      </c>
     </row>
     <row r="466" spans="1:15">
       <c r="A466" s="9" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B466" s="9" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="O466" s="1" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="467" spans="1:15">
-      <c r="A467" s="9" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B467" s="9" t="s">
-        <v>1048</v>
-      </c>
-      <c r="O467" s="1" t="s">
-        <v>1049</v>
-      </c>
+      <c r="A467" s="9"/>
+      <c r="B467" s="9"/>
     </row>
     <row r="468" spans="1:15">
       <c r="A468" s="9" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="B468" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="O468" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="469" spans="1:15">
+      <c r="A469" s="9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B469" s="9" t="s">
         <v>1048</v>
       </c>
-      <c r="O468" s="1" t="s">
+      <c r="O469" s="1" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="469" spans="1:15">
-      <c r="A469" s="9"/>
-      <c r="B469" s="9"/>
     </row>
     <row r="470" spans="1:15">
       <c r="A470" s="9" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B470" s="9" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="O470" s="1" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="471" spans="1:15">
-      <c r="A471" s="9" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B471" s="9" t="s">
-        <v>1055</v>
-      </c>
-      <c r="O471" s="1" t="s">
-        <v>1056</v>
-      </c>
+      <c r="A471" s="9"/>
+      <c r="B471" s="9"/>
     </row>
     <row r="472" spans="1:15">
       <c r="A472" s="9" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="B472" s="9" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="O472" s="1" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="473" spans="1:15">
       <c r="A473" s="9" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="B473" s="9" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="O473" s="1" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="474" spans="1:15">
       <c r="A474" s="9" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="B474" s="9" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="O474" s="1" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="475" spans="1:15">
       <c r="A475" s="9" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="B475" s="9" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="O475" s="1" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="476" spans="1:15">
       <c r="A476" s="9" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="B476" s="9" t="s">
-        <v>879</v>
+        <v>1064</v>
       </c>
       <c r="O476" s="1" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="477" spans="1:15">
       <c r="A477" s="9" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="B477" s="9" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="O477" s="1" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="478" spans="1:15">
-      <c r="A478" s="9"/>
-      <c r="B478" s="9"/>
+      <c r="A478" s="9" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B478" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="O478" s="1" t="s">
+        <v>1070</v>
+      </c>
     </row>
     <row r="479" spans="1:15">
       <c r="A479" s="9" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B479" s="9" t="s">
-        <v>121</v>
+        <v>1072</v>
       </c>
       <c r="O479" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="480" spans="1:15">
-      <c r="A480" s="9" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B480" s="9" t="s">
-        <v>1077</v>
-      </c>
-      <c r="O480" s="1" t="s">
-        <v>1078</v>
-      </c>
+      <c r="A480" s="9"/>
+      <c r="B480" s="9"/>
     </row>
     <row r="481" spans="1:15">
       <c r="A481" s="9" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="B481" s="9" t="s">
-        <v>1080</v>
+        <v>121</v>
       </c>
       <c r="O481" s="1" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="482" spans="1:15">
-      <c r="A482" s="9"/>
-      <c r="B482" s="9"/>
+      <c r="A482" s="9" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B482" s="9" t="s">
+        <v>1077</v>
+      </c>
+      <c r="O482" s="1" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="483" spans="1:15">
       <c r="A483" s="9" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="B483" s="9" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="O483" s="1" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="484" spans="1:15">
-      <c r="A484" s="9" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B484" s="9" t="s">
-        <v>1086</v>
-      </c>
-      <c r="O484" s="1" t="s">
-        <v>1087</v>
-      </c>
+      <c r="A484" s="9"/>
+      <c r="B484" s="9"/>
     </row>
     <row r="485" spans="1:15">
       <c r="A485" s="9" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="B485" s="9" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="O485" s="1" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="486" spans="1:15">
       <c r="A486" s="9" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="B486" s="9" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="O486" s="1" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="487" spans="1:15">
-      <c r="A487" s="9"/>
-      <c r="B487" s="9"/>
+      <c r="A487" s="9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B487" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="O487" s="1" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="488" spans="1:15">
       <c r="A488" s="9" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="B488" s="9" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="O488" s="1" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="489" spans="1:15">
-      <c r="A489" s="9" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B489" s="9" t="s">
-        <v>1098</v>
-      </c>
-      <c r="O489" s="1" t="s">
-        <v>1099</v>
-      </c>
+      <c r="A489" s="9"/>
+      <c r="B489" s="9"/>
     </row>
     <row r="490" spans="1:15">
       <c r="A490" s="9" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="B490" s="9" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="O490" s="1" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="491" spans="1:15">
-      <c r="A491" s="9"/>
-      <c r="B491" s="9"/>
+      <c r="A491" s="9" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B491" s="9" t="s">
+        <v>1098</v>
+      </c>
+      <c r="O491" s="1" t="s">
+        <v>1099</v>
+      </c>
     </row>
     <row r="492" spans="1:15">
       <c r="A492" s="9" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="B492" s="9" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="O492" s="1" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="493" spans="1:15">
-      <c r="A493" s="9" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B493" s="9" t="s">
-        <v>1107</v>
-      </c>
-      <c r="O493" s="1" t="s">
-        <v>1108</v>
-      </c>
+      <c r="A493" s="9"/>
+      <c r="B493" s="9"/>
     </row>
     <row r="494" spans="1:15">
       <c r="A494" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="B494" s="9" t="s">
-        <v>879</v>
+        <v>1104</v>
       </c>
       <c r="O494" s="1" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="495" spans="1:15">
       <c r="A495" s="9" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="B495" s="9" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="O495" s="1" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="496" spans="1:15">
       <c r="A496" s="9" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="B496" s="9" t="s">
-        <v>1115</v>
+        <v>879</v>
       </c>
       <c r="O496" s="1" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="497" spans="1:15">
       <c r="A497" s="9" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="B497" s="9" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="O497" s="1" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="498" spans="1:15">
       <c r="A498" s="9" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="B498" s="9" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="O498" s="1" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="499" spans="1:15">
       <c r="A499" s="9" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="B499" s="9" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="O499" s="1" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="500" spans="1:15">
       <c r="A500" s="9" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="B500" s="9" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="O500" s="1" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="501" spans="1:15">
       <c r="A501" s="9" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="B501" s="9" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="O501" s="1" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="502" spans="1:15">
-      <c r="A502" s="9"/>
-      <c r="B502" s="9"/>
+      <c r="A502" s="9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B502" s="9" t="s">
+        <v>1127</v>
+      </c>
+      <c r="O502" s="1" t="s">
+        <v>1128</v>
+      </c>
     </row>
     <row r="503" spans="1:15">
       <c r="A503" s="9" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B503" s="9" t="s">
-        <v>1133</v>
-      </c>
-      <c r="O503" s="13" t="s">
-        <v>2296</v>
+        <v>1130</v>
+      </c>
+      <c r="O503" s="1" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="504" spans="1:15">
@@ -12849,13 +12879,13 @@
     </row>
     <row r="505" spans="1:15">
       <c r="A505" s="9" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B505" s="9" t="s">
-        <v>1135</v>
-      </c>
-      <c r="O505" s="1" t="s">
-        <v>1136</v>
+        <v>1133</v>
+      </c>
+      <c r="O505" s="13" t="s">
+        <v>2296</v>
       </c>
     </row>
     <row r="506" spans="1:15">
@@ -12864,113 +12894,113 @@
     </row>
     <row r="507" spans="1:15">
       <c r="A507" s="9" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="B507" s="9" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="O507" s="1" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="508" spans="1:15">
-      <c r="A508" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B508" s="9" t="s">
-        <v>1141</v>
-      </c>
-      <c r="O508" s="1" t="s">
-        <v>1142</v>
-      </c>
+      <c r="A508" s="9"/>
+      <c r="B508" s="9"/>
     </row>
     <row r="509" spans="1:15">
       <c r="A509" s="9" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="B509" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="O509" s="1" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="510" spans="1:15">
+      <c r="A510" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B510" s="9" t="s">
         <v>1141</v>
       </c>
-      <c r="O509" s="1" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="510" spans="1:15">
-      <c r="A510" s="9"/>
-      <c r="B510" s="9"/>
+      <c r="O510" s="1" t="s">
+        <v>1142</v>
+      </c>
     </row>
     <row r="511" spans="1:15">
       <c r="A511" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B511" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="O511" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="512" spans="1:15">
+      <c r="A512" s="9"/>
+      <c r="B512" s="9"/>
+    </row>
+    <row r="513" spans="1:15">
+      <c r="A513" s="9" t="s">
         <v>1145</v>
       </c>
-      <c r="B511" s="9" t="s">
+      <c r="B513" s="9" t="s">
         <v>1146</v>
       </c>
-      <c r="O511" s="1" t="s">
+      <c r="O513" s="1" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="512" spans="1:15">
-      <c r="A512" s="9" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B512" s="9" t="s">
-        <v>1149</v>
-      </c>
-      <c r="O512" s="1" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="513" spans="1:15">
-      <c r="A513" s="9"/>
-      <c r="B513" s="9"/>
     </row>
     <row r="514" spans="1:15">
       <c r="A514" s="9" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="B514" s="9" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="O514" s="1" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="515" spans="1:15">
-      <c r="A515" s="9" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B515" s="9" t="s">
-        <v>1155</v>
-      </c>
-      <c r="O515" s="1" t="s">
-        <v>1156</v>
-      </c>
+      <c r="A515" s="9"/>
+      <c r="B515" s="9"/>
     </row>
     <row r="516" spans="1:15">
       <c r="A516" s="9" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="B516" s="9" t="s">
+        <v>1152</v>
+      </c>
+      <c r="O516" s="1" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="517" spans="1:15">
+      <c r="A517" s="9" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B517" s="9" t="s">
         <v>1155</v>
       </c>
-      <c r="O516" s="1" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="517" spans="1:15">
-      <c r="A517" s="9"/>
-      <c r="B517" s="9"/>
+      <c r="O517" s="1" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="518" spans="1:15">
       <c r="A518" s="9" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B518" s="9" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="O518" s="1" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="519" spans="1:15">
@@ -12978,3424 +13008,3439 @@
       <c r="B519" s="9"/>
     </row>
     <row r="520" spans="1:15">
-      <c r="A520" s="14" t="s">
+      <c r="A520" s="9" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B520" s="9" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O520" s="1" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="521" spans="1:15">
+      <c r="A521" s="9"/>
+      <c r="B521" s="9"/>
+    </row>
+    <row r="522" spans="1:15">
+      <c r="A522" s="14" t="s">
         <v>2305</v>
       </c>
-      <c r="B520" s="9" t="s">
+      <c r="B522" s="9" t="s">
         <v>1162</v>
       </c>
-      <c r="O520" s="1" t="s">
+      <c r="O522" s="1" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="521" spans="1:15">
-      <c r="A521" s="9" t="s">
+    <row r="523" spans="1:15">
+      <c r="A523" s="9" t="s">
         <v>1164</v>
       </c>
-      <c r="B521" s="9" t="s">
+      <c r="B523" s="9" t="s">
         <v>1165</v>
       </c>
-      <c r="O521" s="1" t="s">
+      <c r="O523" s="1" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="522" spans="1:15">
-      <c r="A522" s="9" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B522" s="9" t="s">
-        <v>1165</v>
-      </c>
-      <c r="O522" s="1" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="523" spans="1:15">
-      <c r="A523" s="9"/>
-      <c r="B523" s="9"/>
     </row>
     <row r="524" spans="1:15">
       <c r="A524" s="9" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B524" s="9" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="O524" s="1" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="525" spans="1:15">
-      <c r="A525" s="9" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B525" s="9" t="s">
-        <v>1172</v>
-      </c>
-      <c r="O525" s="1" t="s">
-        <v>1173</v>
-      </c>
+      <c r="A525" s="9"/>
+      <c r="B525" s="9"/>
     </row>
     <row r="526" spans="1:15">
       <c r="A526" s="9" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="B526" s="9" t="s">
+        <v>1169</v>
+      </c>
+      <c r="O526" s="1" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="527" spans="1:15">
+      <c r="A527" s="9" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B527" s="9" t="s">
         <v>1172</v>
       </c>
-      <c r="O526" s="1" t="s">
+      <c r="O527" s="1" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="527" spans="1:15">
-      <c r="A527" s="9"/>
-      <c r="B527" s="9"/>
     </row>
     <row r="528" spans="1:15">
       <c r="A528" s="9" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B528" s="9" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="O528" s="1" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="529" spans="1:15">
-      <c r="A529" s="9" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B529" s="9" t="s">
-        <v>1179</v>
-      </c>
-      <c r="O529" s="1" t="s">
-        <v>1180</v>
-      </c>
+      <c r="A529" s="9"/>
+      <c r="B529" s="9"/>
     </row>
     <row r="530" spans="1:15">
       <c r="A530" s="9" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="B530" s="9" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="O530" s="1" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="531" spans="1:15">
       <c r="A531" s="9" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="B531" s="9" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="O531" s="1" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="532" spans="1:15">
-      <c r="A532" s="9"/>
-      <c r="B532" s="9"/>
+      <c r="A532" s="9" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B532" s="9" t="s">
+        <v>1182</v>
+      </c>
+      <c r="O532" s="1" t="s">
+        <v>1183</v>
+      </c>
     </row>
     <row r="533" spans="1:15">
       <c r="A533" s="9" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B533" s="9" t="s">
+        <v>1185</v>
+      </c>
+      <c r="O533" s="1" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="534" spans="1:15">
+      <c r="A534" s="9"/>
+      <c r="B534" s="9"/>
+    </row>
+    <row r="535" spans="1:15">
+      <c r="A535" s="9" t="s">
         <v>1187</v>
       </c>
-      <c r="B533" s="9" t="s">
+      <c r="B535" s="9" t="s">
         <v>1188</v>
       </c>
-      <c r="O533" s="1" t="s">
+      <c r="O535" s="1" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="534" spans="1:15">
-      <c r="A534" s="9" t="s">
+    <row r="536" spans="1:15">
+      <c r="A536" s="9" t="s">
         <v>1190</v>
       </c>
-      <c r="B534" s="9" t="s">
+      <c r="B536" s="9" t="s">
         <v>1191</v>
       </c>
-      <c r="O534" s="1" t="s">
+      <c r="O536" s="1" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="535" spans="1:15" ht="18">
-      <c r="A535" s="9" t="s">
+    <row r="537" spans="1:15" ht="18">
+      <c r="A537" s="9" t="s">
         <v>1193</v>
       </c>
-      <c r="B535" s="9" t="s">
+      <c r="B537" s="9" t="s">
         <v>1191</v>
       </c>
-      <c r="O535" s="1" t="s">
+      <c r="O537" s="1" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="536" spans="1:15">
-      <c r="A536" s="9"/>
-      <c r="B536" s="9"/>
-    </row>
-    <row r="537" spans="1:15">
-      <c r="A537" s="9" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B537" s="9" t="s">
-        <v>1196</v>
-      </c>
-      <c r="O537" s="1" t="s">
-        <v>1197</v>
-      </c>
-    </row>
     <row r="538" spans="1:15">
-      <c r="A538" s="9" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B538" s="9" t="s">
-        <v>1199</v>
-      </c>
-      <c r="O538" s="1" t="s">
-        <v>1200</v>
-      </c>
+      <c r="A538" s="9"/>
+      <c r="B538" s="9"/>
     </row>
     <row r="539" spans="1:15">
       <c r="A539" s="9" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="B539" s="9" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="O539" s="1" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="540" spans="1:15">
-      <c r="A540" s="9"/>
-      <c r="B540" s="9"/>
+      <c r="A540" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B540" s="9" t="s">
+        <v>1199</v>
+      </c>
+      <c r="O540" s="1" t="s">
+        <v>1200</v>
+      </c>
     </row>
     <row r="541" spans="1:15">
       <c r="A541" s="9" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="B541" s="9" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="O541" s="1" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="542" spans="1:15">
-      <c r="A542" s="9" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B542" s="9" t="s">
-        <v>1208</v>
-      </c>
-      <c r="O542" s="1" t="s">
-        <v>1209</v>
-      </c>
+      <c r="A542" s="9"/>
+      <c r="B542" s="9"/>
     </row>
     <row r="543" spans="1:15">
       <c r="A543" s="9" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="B543" s="9" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="O543" s="1" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="544" spans="1:15">
+      <c r="A544" s="9" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B544" s="9" t="s">
+        <v>1208</v>
+      </c>
+      <c r="O544" s="1" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="544" spans="1:15">
-      <c r="A544" s="9"/>
-      <c r="B544" s="9"/>
     </row>
     <row r="545" spans="1:15">
       <c r="A545" s="9" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B545" s="9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="O545" s="1" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="546" spans="1:15">
+      <c r="A546" s="9"/>
+      <c r="B546" s="9"/>
+    </row>
+    <row r="547" spans="1:15">
+      <c r="A547" s="9" t="s">
         <v>1212</v>
       </c>
-      <c r="B545" s="9" t="s">
+      <c r="B547" s="9" t="s">
         <v>1213</v>
       </c>
-      <c r="O545" s="1" t="s">
+      <c r="O547" s="1" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="546" spans="1:15">
-      <c r="A546" s="9" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B546" s="9" t="s">
-        <v>1216</v>
-      </c>
-      <c r="O546" s="1" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="547" spans="1:15">
-      <c r="A547" s="9"/>
-      <c r="B547" s="9"/>
     </row>
     <row r="548" spans="1:15">
       <c r="A548" s="9" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="B548" s="9" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="O548" s="1" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="549" spans="1:15">
-      <c r="A549" s="9" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B549" s="9" t="s">
-        <v>1222</v>
-      </c>
-      <c r="O549" s="1" t="s">
-        <v>1223</v>
-      </c>
+      <c r="A549" s="9"/>
+      <c r="B549" s="9"/>
     </row>
     <row r="550" spans="1:15">
       <c r="A550" s="9" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B550" s="9" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="O550" s="1" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="551" spans="1:15">
-      <c r="A551" s="9"/>
-      <c r="B551" s="9"/>
+      <c r="A551" s="9" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B551" s="9" t="s">
+        <v>1222</v>
+      </c>
+      <c r="O551" s="1" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="552" spans="1:15">
       <c r="A552" s="9" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="B552" s="9" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="O552" s="1" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="553" spans="1:15">
-      <c r="A553" s="9" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B553" s="9" t="s">
-        <v>1231</v>
-      </c>
-      <c r="O553" s="1" t="s">
-        <v>1232</v>
-      </c>
+      <c r="A553" s="9"/>
+      <c r="B553" s="9"/>
     </row>
     <row r="554" spans="1:15">
       <c r="A554" s="9" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="B554" s="9" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="O554" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="555" spans="1:15">
       <c r="A555" s="9" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="B555" s="9" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="O555" s="1" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="556" spans="1:15">
       <c r="A556" s="9" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="B556" s="9" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="O556" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="557" spans="1:15">
+      <c r="A557" s="9" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B557" s="9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="O557" s="1" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="558" spans="1:15">
       <c r="A558" s="9" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="B558" s="9" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="O558" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="559" spans="1:15">
-      <c r="A559" s="9" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B559" s="9" t="s">
-        <v>1245</v>
-      </c>
-      <c r="O559" s="1" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="560" spans="1:15">
       <c r="A560" s="9" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="B560" s="9" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="O560" s="1" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="561" spans="1:15">
-      <c r="A561" s="9"/>
-      <c r="B561" s="9"/>
+      <c r="A561" s="9" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B561" s="9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="O561" s="1" t="s">
+        <v>1246</v>
+      </c>
     </row>
     <row r="562" spans="1:15">
       <c r="A562" s="9" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B562" s="9" t="s">
+        <v>1248</v>
+      </c>
+      <c r="O562" s="1" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="563" spans="1:15">
+      <c r="A563" s="9"/>
+      <c r="B563" s="9"/>
+    </row>
+    <row r="564" spans="1:15">
+      <c r="A564" s="9" t="s">
         <v>1250</v>
       </c>
-      <c r="B562" s="9" t="s">
+      <c r="B564" s="9" t="s">
         <v>1251</v>
       </c>
-      <c r="O562" s="1" t="s">
+      <c r="O564" s="1" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="563" spans="1:15">
-      <c r="A563" s="9" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B563" s="9" t="s">
-        <v>1254</v>
-      </c>
-      <c r="O563" s="1" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="564" spans="1:15">
-      <c r="A564" s="9"/>
-      <c r="B564" s="9"/>
     </row>
     <row r="565" spans="1:15">
       <c r="A565" s="9" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="B565" s="9" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="O565" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="566" spans="1:15">
-      <c r="A566" s="9" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B566" s="9" t="s">
-        <v>1260</v>
-      </c>
-      <c r="O566" s="1" t="s">
-        <v>1261</v>
-      </c>
+      <c r="A566" s="9"/>
+      <c r="B566" s="9"/>
     </row>
     <row r="567" spans="1:15">
       <c r="A567" s="9" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="B567" s="9" t="s">
+        <v>1257</v>
+      </c>
+      <c r="O567" s="1" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="568" spans="1:15">
+      <c r="A568" s="9" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B568" s="9" t="s">
         <v>1260</v>
       </c>
-      <c r="O567" s="1" t="s">
+      <c r="O568" s="1" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="568" spans="1:15">
-      <c r="A568" s="9"/>
-      <c r="B568" s="9"/>
     </row>
     <row r="569" spans="1:15">
       <c r="A569" s="9" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B569" s="9" t="s">
+        <v>1260</v>
+      </c>
+      <c r="O569" s="1" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="570" spans="1:15">
+      <c r="A570" s="9"/>
+      <c r="B570" s="9"/>
+    </row>
+    <row r="571" spans="1:15">
+      <c r="A571" s="9" t="s">
         <v>1263</v>
       </c>
-      <c r="B569" s="9" t="s">
+      <c r="B571" s="9" t="s">
         <v>1264</v>
       </c>
-      <c r="O569" s="1" t="s">
+      <c r="O571" s="1" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="570" spans="1:15">
-      <c r="A570" s="9" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B570" s="9" t="s">
-        <v>1267</v>
-      </c>
-      <c r="O570" s="1" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="571" spans="1:15">
-      <c r="A571" s="9"/>
-      <c r="B571" s="9"/>
     </row>
     <row r="572" spans="1:15">
       <c r="A572" s="9" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="B572" s="9" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="O572" s="1" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="573" spans="1:15">
-      <c r="A573" s="9" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B573" s="9" t="s">
-        <v>1273</v>
-      </c>
-      <c r="O573" s="1" t="s">
-        <v>1274</v>
-      </c>
+      <c r="A573" s="9"/>
+      <c r="B573" s="9"/>
     </row>
     <row r="574" spans="1:15">
       <c r="A574" s="9" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="B574" s="9" t="s">
+        <v>1270</v>
+      </c>
+      <c r="O574" s="1" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="575" spans="1:15">
+      <c r="A575" s="9" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B575" s="9" t="s">
         <v>1273</v>
       </c>
-      <c r="O574" s="1" t="s">
+      <c r="O575" s="1" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="575" spans="1:15">
-      <c r="A575" s="9"/>
-      <c r="B575" s="9"/>
     </row>
     <row r="576" spans="1:15">
       <c r="A576" s="9" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B576" s="9" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="O576" s="1" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="577" spans="1:15">
-      <c r="A577" s="9" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B577" s="9" t="s">
-        <v>1280</v>
-      </c>
-      <c r="O577" s="1" t="s">
-        <v>1281</v>
-      </c>
+      <c r="A577" s="9"/>
+      <c r="B577" s="9"/>
     </row>
     <row r="578" spans="1:15">
       <c r="A578" s="9" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="B578" s="9" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="O578" s="1" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="579" spans="1:15">
       <c r="A579" s="9" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="B579" s="9" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="O579" s="1" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="580" spans="1:15">
-      <c r="A580" s="9"/>
-      <c r="B580" s="9"/>
+      <c r="A580" s="9" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B580" s="9" t="s">
+        <v>1283</v>
+      </c>
+      <c r="O580" s="1" t="s">
+        <v>1284</v>
+      </c>
     </row>
     <row r="581" spans="1:15">
       <c r="A581" s="9" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="B581" s="9" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="O581" s="1" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="582" spans="1:15">
-      <c r="A582" s="9" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B582" s="9" t="s">
-        <v>1292</v>
-      </c>
-      <c r="O582" s="1" t="s">
-        <v>1293</v>
-      </c>
+      <c r="A582" s="9"/>
+      <c r="B582" s="9"/>
     </row>
     <row r="583" spans="1:15">
       <c r="A583" s="9" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="B583" s="9" t="s">
+        <v>1289</v>
+      </c>
+      <c r="O583" s="1" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="584" spans="1:15">
+      <c r="A584" s="9" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B584" s="9" t="s">
         <v>1292</v>
       </c>
-      <c r="O583" s="1" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="584" spans="1:15">
-      <c r="A584" s="9"/>
-      <c r="B584" s="9"/>
+      <c r="O584" s="1" t="s">
+        <v>1293</v>
+      </c>
     </row>
     <row r="585" spans="1:15">
       <c r="A585" s="9" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B585" s="9" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="O585" s="1" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="586" spans="1:15">
-      <c r="A586" s="9" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B586" s="9" t="s">
-        <v>1300</v>
-      </c>
-      <c r="O586" s="1" t="s">
-        <v>1301</v>
-      </c>
+      <c r="A586" s="9"/>
+      <c r="B586" s="9"/>
     </row>
     <row r="587" spans="1:15">
       <c r="A587" s="9" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="B587" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="O587" s="1" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="588" spans="1:15">
+      <c r="A588" s="9" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B588" s="9" t="s">
         <v>1300</v>
       </c>
-      <c r="O587" s="1" t="s">
+      <c r="O588" s="1" t="s">
         <v>1301</v>
       </c>
-    </row>
-    <row r="588" spans="1:15">
-      <c r="A588" s="9"/>
-      <c r="B588" s="9"/>
     </row>
     <row r="589" spans="1:15">
       <c r="A589" s="9" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B589" s="9" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="O589" s="1" t="s">
-        <v>1305</v>
-      </c>
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="590" spans="1:15">
+      <c r="A590" s="9"/>
+      <c r="B590" s="9"/>
     </row>
     <row r="591" spans="1:15">
       <c r="A591" s="9" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="B591" s="9" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="O591" s="1" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="592" spans="1:15">
-      <c r="A592" s="9" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B592" s="9" t="s">
-        <v>1310</v>
-      </c>
-      <c r="O592" s="1" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="593" spans="1:15">
       <c r="A593" s="9" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="B593" s="9" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="O593" s="1" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="594" spans="1:15">
       <c r="A594" s="9" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="B594" s="9" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="O594" s="1" t="s">
-        <v>1317</v>
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="595" spans="1:15">
+      <c r="A595" s="9" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B595" s="9" t="s">
+        <v>1313</v>
+      </c>
+      <c r="O595" s="1" t="s">
+        <v>1314</v>
       </c>
     </row>
     <row r="596" spans="1:15">
       <c r="A596" s="9" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B596" s="9" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="O596" s="1" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="597" spans="1:15">
-      <c r="A597" s="9" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B597" s="9" t="s">
-        <v>1322</v>
-      </c>
-      <c r="O597" s="13" t="s">
-        <v>2307</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="598" spans="1:15">
       <c r="A598" s="9" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="B598" s="9" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="O598" s="1" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="599" spans="1:15">
       <c r="A599" s="9" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="B599" s="9" t="s">
-        <v>1327</v>
-      </c>
-      <c r="O599" s="1" t="s">
-        <v>1328</v>
+        <v>1322</v>
+      </c>
+      <c r="O599" s="13" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="600" spans="1:15">
+      <c r="A600" s="9" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B600" s="9" t="s">
+        <v>1324</v>
+      </c>
+      <c r="O600" s="1" t="s">
+        <v>1325</v>
       </c>
     </row>
     <row r="601" spans="1:15">
       <c r="A601" s="9" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="B601" s="9" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="O601" s="1" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="602" spans="1:15">
-      <c r="A602" s="9" t="s">
-        <v>1332</v>
-      </c>
-      <c r="B602" s="9" t="s">
-        <v>1333</v>
-      </c>
-      <c r="O602" s="1" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="603" spans="1:15">
       <c r="A603" s="9" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="B603" s="9" t="s">
-        <v>484</v>
+        <v>1330</v>
       </c>
       <c r="O603" s="1" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="604" spans="1:15">
       <c r="A604" s="9" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="B604" s="9" t="s">
-        <v>487</v>
+        <v>1333</v>
       </c>
       <c r="O604" s="1" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="605" spans="1:15">
       <c r="A605" s="9" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="B605" s="9" t="s">
-        <v>1340</v>
+        <v>484</v>
       </c>
       <c r="O605" s="1" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="606" spans="1:15">
       <c r="A606" s="9" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="B606" s="9" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="O606" s="1" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="607" spans="1:15">
       <c r="A607" s="9" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="B607" s="9" t="s">
-        <v>493</v>
+        <v>1340</v>
       </c>
       <c r="O607" s="1" t="s">
-        <v>494</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="608" spans="1:15">
       <c r="A608" s="9" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="B608" s="9" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="O608" s="1" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="609" spans="1:15">
-      <c r="A609" s="9"/>
-      <c r="B609" s="9"/>
+      <c r="A609" s="9" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B609" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="O609" s="1" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="610" spans="1:15">
       <c r="A610" s="9" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="B610" s="9" t="s">
-        <v>1348</v>
+        <v>499</v>
       </c>
       <c r="O610" s="1" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="611" spans="1:15">
-      <c r="A611" s="9" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B611" s="9" t="s">
-        <v>1351</v>
-      </c>
-      <c r="O611" s="9" t="s">
-        <v>1352</v>
-      </c>
+      <c r="A611" s="9"/>
+      <c r="B611" s="9"/>
     </row>
     <row r="612" spans="1:15">
       <c r="A612" s="9" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="B612" s="9" t="s">
-        <v>1354</v>
-      </c>
-      <c r="O612" s="9" t="s">
-        <v>1355</v>
+        <v>1348</v>
+      </c>
+      <c r="O612" s="1" t="s">
+        <v>1349</v>
       </c>
     </row>
     <row r="613" spans="1:15">
-      <c r="A613" s="9"/>
-      <c r="B613" s="9"/>
+      <c r="A613" s="9" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B613" s="9" t="s">
+        <v>1351</v>
+      </c>
+      <c r="O613" s="9" t="s">
+        <v>1352</v>
+      </c>
     </row>
     <row r="614" spans="1:15">
       <c r="A614" s="9" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="B614" s="9" t="s">
-        <v>1357</v>
-      </c>
-      <c r="O614" s="1" t="s">
-        <v>1358</v>
+        <v>1354</v>
+      </c>
+      <c r="O614" s="9" t="s">
+        <v>1355</v>
       </c>
     </row>
     <row r="615" spans="1:15">
-      <c r="A615" s="9" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B615" s="9" t="s">
-        <v>1360</v>
-      </c>
-      <c r="O615" s="1" t="s">
-        <v>1361</v>
-      </c>
+      <c r="A615" s="9"/>
+      <c r="B615" s="9"/>
     </row>
     <row r="616" spans="1:15">
       <c r="A616" s="9" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="B616" s="9" t="s">
+        <v>1357</v>
+      </c>
+      <c r="O616" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="617" spans="1:15">
+      <c r="A617" s="9" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B617" s="9" t="s">
         <v>1360</v>
       </c>
-      <c r="O616" s="1" t="s">
+      <c r="O617" s="1" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="617" spans="1:15">
-      <c r="A617" s="9"/>
-      <c r="B617" s="9"/>
     </row>
     <row r="618" spans="1:15">
       <c r="A618" s="9" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B618" s="9" t="s">
-        <v>987</v>
+        <v>1360</v>
       </c>
       <c r="O618" s="1" t="s">
-        <v>988</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="619" spans="1:15">
-      <c r="A619" s="9" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B619" s="9" t="s">
-        <v>1365</v>
-      </c>
-      <c r="O619" s="1" t="s">
-        <v>1366</v>
-      </c>
+      <c r="A619" s="9"/>
+      <c r="B619" s="9"/>
     </row>
     <row r="620" spans="1:15">
       <c r="A620" s="9" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="B620" s="9" t="s">
-        <v>1368</v>
+        <v>987</v>
       </c>
       <c r="O620" s="1" t="s">
-        <v>725</v>
+        <v>988</v>
       </c>
     </row>
     <row r="621" spans="1:15">
       <c r="A621" s="9" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="B621" s="9" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="O621" s="1" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="622" spans="1:15">
       <c r="A622" s="9" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="B622" s="9" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="O622" s="1" t="s">
-        <v>1374</v>
+        <v>725</v>
       </c>
     </row>
     <row r="623" spans="1:15">
       <c r="A623" s="9" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="B623" s="9" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="O623" s="1" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="624" spans="1:15">
       <c r="A624" s="9" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="B624" s="9" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="O624" s="1" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="625" spans="1:15">
       <c r="A625" s="9" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="B625" s="9" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="O625" s="1" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="626" spans="1:15">
       <c r="A626" s="9" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="B626" s="9" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="O626" s="1" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="627" spans="1:15">
       <c r="A627" s="9" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="B627" s="9" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="O627" s="1" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="628" spans="1:15">
       <c r="A628" s="9" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="B628" s="9" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="O628" s="1" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="629" spans="1:15">
       <c r="A629" s="9" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="B629" s="9" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="O629" s="1" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="630" spans="1:15">
       <c r="A630" s="9" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="B630" s="9" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="O630" s="1" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="631" spans="1:15">
-      <c r="O631" s="4"/>
+      <c r="A631" s="9" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B631" s="9" t="s">
+        <v>1394</v>
+      </c>
+      <c r="O631" s="1" t="s">
+        <v>1395</v>
+      </c>
     </row>
     <row r="632" spans="1:15">
       <c r="A632" s="9" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="B632" s="9" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="O632" s="1" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="633" spans="1:15">
-      <c r="A633" s="9" t="s">
-        <v>1402</v>
-      </c>
-      <c r="B633" s="9" t="s">
-        <v>1403</v>
-      </c>
-      <c r="O633" s="1" t="s">
-        <v>1404</v>
-      </c>
+      <c r="O633" s="4"/>
     </row>
     <row r="634" spans="1:15">
       <c r="A634" s="9" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="B634" s="9" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="O634" s="1" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="635" spans="1:15">
       <c r="A635" s="9" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="B635" s="9" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="O635" s="1" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="636" spans="1:15">
       <c r="A636" s="9" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="B636" s="9" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="O636" s="1" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="637" spans="1:15">
-      <c r="A637" s="9"/>
-      <c r="B637" s="9"/>
+      <c r="A637" s="9" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B637" s="9" t="s">
+        <v>1409</v>
+      </c>
+      <c r="O637" s="1" t="s">
+        <v>1410</v>
+      </c>
     </row>
     <row r="638" spans="1:15">
       <c r="A638" s="9" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="B638" s="9" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="O638" s="1" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="639" spans="1:15">
-      <c r="A639" s="9" t="s">
-        <v>1417</v>
-      </c>
-      <c r="B639" s="9" t="s">
-        <v>1418</v>
-      </c>
-      <c r="O639" s="1" t="s">
-        <v>1419</v>
-      </c>
+      <c r="A639" s="9"/>
+      <c r="B639" s="9"/>
     </row>
     <row r="640" spans="1:15">
       <c r="A640" s="9" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="B640" s="9" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="O640" s="1" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="641" spans="1:15">
-      <c r="A641" s="9"/>
-      <c r="B641" s="9"/>
+      <c r="A641" s="9" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B641" s="9" t="s">
+        <v>1418</v>
+      </c>
+      <c r="O641" s="1" t="s">
+        <v>1419</v>
+      </c>
     </row>
     <row r="642" spans="1:15">
       <c r="A642" s="9" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="B642" s="9" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="O642" s="1" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="643" spans="1:15">
-      <c r="A643" s="9" t="s">
-        <v>1426</v>
-      </c>
-      <c r="B643" s="9" t="s">
-        <v>1427</v>
-      </c>
-      <c r="O643" s="1" t="s">
-        <v>1428</v>
-      </c>
+      <c r="A643" s="9"/>
+      <c r="B643" s="9"/>
     </row>
     <row r="644" spans="1:15">
       <c r="A644" s="9" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="B644" s="9" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="O644" s="1" t="s">
-        <v>1431</v>
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="645" spans="1:15">
+      <c r="A645" s="9" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B645" s="9" t="s">
+        <v>1427</v>
+      </c>
+      <c r="O645" s="1" t="s">
+        <v>1428</v>
       </c>
     </row>
     <row r="646" spans="1:15">
       <c r="A646" s="9" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="B646" s="9" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="O646" s="1" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="647" spans="1:15">
-      <c r="A647" s="9" t="s">
-        <v>1435</v>
-      </c>
-      <c r="B647" s="9" t="s">
-        <v>1436</v>
-      </c>
-      <c r="O647" s="1" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="648" spans="1:15">
       <c r="A648" s="9" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="B648" s="9" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="O648" s="1" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="649" spans="1:15">
       <c r="A649" s="9" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="B649" s="9" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="O649" s="1" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="650" spans="1:15">
       <c r="A650" s="9" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B650" s="9" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O650" s="1" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="651" spans="1:15">
+      <c r="A651" s="9" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B651" s="9" t="s">
+        <v>1442</v>
+      </c>
+      <c r="O651" s="1" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="652" spans="1:15">
+      <c r="A652" s="9" t="s">
         <v>1444</v>
       </c>
-      <c r="B650" s="9" t="s">
+      <c r="B652" s="9" t="s">
         <v>1445</v>
       </c>
-      <c r="O650" s="1" t="s">
+      <c r="O652" s="1" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="651" spans="1:15">
-      <c r="A651" s="9"/>
-      <c r="B651" s="9"/>
-    </row>
-    <row r="652" spans="1:15">
-      <c r="A652" s="9"/>
-      <c r="B652" s="9"/>
-    </row>
     <row r="653" spans="1:15">
-      <c r="A653" s="9" t="s">
-        <v>1447</v>
-      </c>
-      <c r="B653" s="9" t="s">
-        <v>1448</v>
-      </c>
-      <c r="O653" s="1" t="s">
-        <v>1449</v>
-      </c>
+      <c r="A653" s="9"/>
+      <c r="B653" s="9"/>
     </row>
     <row r="654" spans="1:15">
-      <c r="A654" s="9" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B654" s="9" t="s">
-        <v>1451</v>
-      </c>
-      <c r="O654" s="1" t="s">
-        <v>1452</v>
-      </c>
+      <c r="A654" s="9"/>
+      <c r="B654" s="9"/>
     </row>
     <row r="655" spans="1:15">
       <c r="A655" s="9" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="B655" s="9" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="O655" s="1" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="656" spans="1:15">
+      <c r="A656" s="9" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B656" s="9" t="s">
+        <v>1451</v>
+      </c>
+      <c r="O656" s="1" t="s">
         <v>1452</v>
       </c>
     </row>
     <row r="657" spans="1:15">
       <c r="A657" s="9" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B657" s="9" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="O657" s="1" t="s">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="658" spans="1:15">
-      <c r="A658" s="9" t="s">
-        <v>1458</v>
-      </c>
-      <c r="B658" s="9" t="s">
-        <v>1459</v>
-      </c>
-      <c r="O658" s="10" t="s">
-        <v>1386</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="659" spans="1:15">
       <c r="A659" s="9" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="B659" s="9" t="s">
-        <v>1461</v>
-      </c>
-      <c r="O659" s="10" t="s">
-        <v>1462</v>
+        <v>1456</v>
+      </c>
+      <c r="O659" s="1" t="s">
+        <v>1457</v>
       </c>
     </row>
     <row r="660" spans="1:15">
       <c r="A660" s="9" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="B660" s="9" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="O660" s="10" t="s">
-        <v>1465</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="661" spans="1:15">
       <c r="A661" s="9" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="B661" s="9" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="O661" s="10" t="s">
-        <v>1371</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="662" spans="1:15">
       <c r="A662" s="9" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="B662" s="9" t="s">
-        <v>1469</v>
+        <v>1464</v>
       </c>
       <c r="O662" s="10" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="663" spans="1:15">
       <c r="A663" s="9" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
       <c r="B663" s="9" t="s">
-        <v>1472</v>
+        <v>1467</v>
       </c>
       <c r="O663" s="10" t="s">
-        <v>1473</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="664" spans="1:15">
       <c r="A664" s="9" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="B664" s="9" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="O664" s="10" t="s">
-        <v>1366</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="665" spans="1:15">
-      <c r="A665" s="9"/>
-      <c r="B665" s="9"/>
+      <c r="A665" s="9" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B665" s="9" t="s">
+        <v>1472</v>
+      </c>
+      <c r="O665" s="10" t="s">
+        <v>1473</v>
+      </c>
     </row>
     <row r="666" spans="1:15">
       <c r="A666" s="9" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B666" s="9" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="O666" s="10" t="s">
-        <v>1478</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="667" spans="1:15">
-      <c r="A667" s="9" t="s">
-        <v>1479</v>
-      </c>
-      <c r="B667" s="9" t="s">
-        <v>1480</v>
-      </c>
-      <c r="O667" s="10" t="s">
-        <v>1481</v>
-      </c>
+      <c r="A667" s="9"/>
+      <c r="B667" s="9"/>
     </row>
     <row r="668" spans="1:15">
       <c r="A668" s="9" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="B668" s="9" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="O668" s="10" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="669" spans="1:15">
-      <c r="A669" s="9"/>
-      <c r="B669" s="9"/>
+      <c r="A669" s="9" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B669" s="9" t="s">
+        <v>1480</v>
+      </c>
+      <c r="O669" s="10" t="s">
+        <v>1481</v>
+      </c>
     </row>
     <row r="670" spans="1:15">
       <c r="A670" s="9" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="B670" s="9" t="s">
-        <v>1486</v>
-      </c>
-      <c r="O670" s="1" t="s">
-        <v>1487</v>
+        <v>1483</v>
+      </c>
+      <c r="O670" s="10" t="s">
+        <v>1484</v>
       </c>
     </row>
     <row r="671" spans="1:15">
-      <c r="A671" s="9" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B671" s="9" t="s">
-        <v>1489</v>
-      </c>
-      <c r="O671" s="1" t="s">
-        <v>1490</v>
-      </c>
+      <c r="A671" s="9"/>
+      <c r="B671" s="9"/>
     </row>
     <row r="672" spans="1:15">
       <c r="A672" s="9" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="B672" s="9" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="O672" s="1" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="673" spans="1:15">
       <c r="A673" s="9" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="B673" s="9" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="O673" s="1" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="674" spans="1:15">
       <c r="A674" s="9" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="B674" s="9" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="O674" s="1" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="675" spans="1:15">
       <c r="A675" s="9" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="B675" s="9" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="O675" s="1" t="s">
-        <v>1502</v>
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="676" spans="1:15">
+      <c r="A676" s="9" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B676" s="9" t="s">
+        <v>1498</v>
+      </c>
+      <c r="O676" s="1" t="s">
+        <v>1499</v>
       </c>
     </row>
     <row r="677" spans="1:15">
       <c r="A677" s="9" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="B677" s="9" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="O677" s="1" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="678" spans="1:15">
-      <c r="A678" s="9" t="s">
-        <v>1506</v>
-      </c>
-      <c r="B678" s="9" t="s">
-        <v>1507</v>
-      </c>
-      <c r="O678" s="10" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="679" spans="1:15">
       <c r="A679" s="9" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="B679" s="9" t="s">
-        <v>1510</v>
-      </c>
-      <c r="O679" s="10" t="s">
-        <v>1511</v>
+        <v>1504</v>
+      </c>
+      <c r="O679" s="1" t="s">
+        <v>1505</v>
       </c>
     </row>
     <row r="680" spans="1:15">
       <c r="A680" s="9" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="B680" s="9" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="O680" s="10" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="681" spans="1:15">
       <c r="A681" s="9" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="B681" s="9" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="O681" s="10" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="682" spans="1:15">
       <c r="A682" s="9" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="B682" s="9" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="O682" s="10" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="683" spans="1:15">
       <c r="A683" s="9" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="B683" s="9" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
       <c r="O683" s="10" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="684" spans="1:15">
       <c r="A684" s="9" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="B684" s="9" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="O684" s="10" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="685" spans="1:15">
       <c r="A685" s="9" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
       <c r="B685" s="9" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="O685" s="10" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="686" spans="1:15">
-      <c r="A686" s="9"/>
-      <c r="B686" s="9"/>
+      <c r="A686" s="9" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B686" s="9" t="s">
+        <v>1525</v>
+      </c>
+      <c r="O686" s="10" t="s">
+        <v>1526</v>
+      </c>
     </row>
     <row r="687" spans="1:15">
       <c r="A687" s="9" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="B687" s="9" t="s">
-        <v>1531</v>
-      </c>
-      <c r="O687" s="1" t="s">
-        <v>1532</v>
+        <v>1528</v>
+      </c>
+      <c r="O687" s="10" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="688" spans="1:15">
-      <c r="A688" s="9" t="s">
-        <v>1533</v>
-      </c>
-      <c r="B688" s="9" t="s">
-        <v>1534</v>
-      </c>
-      <c r="O688" s="1" t="s">
-        <v>1535</v>
-      </c>
+      <c r="A688" s="9"/>
+      <c r="B688" s="9"/>
     </row>
     <row r="689" spans="1:15">
       <c r="A689" s="9" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="B689" s="9" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="O689" s="1" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="690" spans="1:15">
       <c r="A690" s="9" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
       <c r="B690" s="9" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="O690" s="1" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="691" spans="1:15">
       <c r="A691" s="9" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="B691" s="9" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
       <c r="O691" s="1" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="692" spans="1:15">
       <c r="A692" s="9" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="B692" s="9" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="O692" s="1" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="693" spans="1:15">
       <c r="A693" s="9" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="B693" s="9" t="s">
-        <v>1549</v>
-      </c>
-      <c r="O693" s="5" t="s">
-        <v>1550</v>
+        <v>1543</v>
+      </c>
+      <c r="O693" s="1" t="s">
+        <v>1544</v>
       </c>
     </row>
     <row r="694" spans="1:15">
       <c r="A694" s="9" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="B694" s="9" t="s">
-        <v>1552</v>
-      </c>
-      <c r="O694" s="5" t="s">
-        <v>1553</v>
+        <v>1546</v>
+      </c>
+      <c r="O694" s="1" t="s">
+        <v>1547</v>
       </c>
     </row>
     <row r="695" spans="1:15">
       <c r="A695" s="9" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="B695" s="9" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="O695" s="5" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="696" spans="1:15">
-      <c r="A696" s="14" t="s">
-        <v>2306</v>
+      <c r="A696" s="9" t="s">
+        <v>1551</v>
       </c>
       <c r="B696" s="9" t="s">
-        <v>1557</v>
-      </c>
-      <c r="O696" s="1" t="s">
-        <v>1558</v>
+        <v>1552</v>
+      </c>
+      <c r="O696" s="5" t="s">
+        <v>1553</v>
       </c>
     </row>
     <row r="697" spans="1:15">
       <c r="A697" s="9" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="B697" s="9" t="s">
-        <v>1560</v>
-      </c>
-      <c r="O697" s="6" t="s">
-        <v>1561</v>
+        <v>1555</v>
+      </c>
+      <c r="O697" s="5" t="s">
+        <v>1556</v>
       </c>
     </row>
     <row r="698" spans="1:15">
-      <c r="A698" s="9" t="s">
-        <v>1562</v>
+      <c r="A698" s="14" t="s">
+        <v>2306</v>
       </c>
       <c r="B698" s="9" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="O698" s="1" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="699" spans="1:15">
       <c r="A699" s="9" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="B699" s="9" t="s">
-        <v>1566</v>
-      </c>
-      <c r="O699" s="5" t="s">
-        <v>1567</v>
+        <v>1560</v>
+      </c>
+      <c r="O699" s="6" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="700" spans="1:15">
+      <c r="A700" s="9" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B700" s="9" t="s">
+        <v>1563</v>
+      </c>
+      <c r="O700" s="1" t="s">
+        <v>1564</v>
       </c>
     </row>
     <row r="701" spans="1:15">
       <c r="A701" s="9" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="B701" s="9" t="s">
-        <v>1569</v>
-      </c>
-      <c r="O701" s="1" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="702" spans="1:15">
-      <c r="A702" s="9" t="s">
-        <v>1571</v>
-      </c>
-      <c r="B702" s="9" t="s">
-        <v>1572</v>
-      </c>
-      <c r="O702" s="1" t="s">
-        <v>1573</v>
+        <v>1566</v>
+      </c>
+      <c r="O701" s="5" t="s">
+        <v>1567</v>
       </c>
     </row>
     <row r="703" spans="1:15">
       <c r="A703" s="9" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B703" s="9" t="s">
+        <v>1569</v>
+      </c>
+      <c r="O703" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="704" spans="1:15">
+      <c r="A704" s="9" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B704" s="9" t="s">
+        <v>1572</v>
+      </c>
+      <c r="O704" s="1" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="705" spans="1:15">
+      <c r="A705" s="9" t="s">
         <v>1574</v>
       </c>
-      <c r="B703" s="9" t="s">
+      <c r="B705" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="O703" s="1" t="s">
+      <c r="O705" s="1" t="s">
         <v>1576</v>
       </c>
     </row>
-    <row r="704" spans="1:15">
-      <c r="A704" s="9"/>
-      <c r="B704" s="9"/>
-    </row>
-    <row r="705" spans="1:15">
-      <c r="A705" s="14" t="s">
+    <row r="706" spans="1:15">
+      <c r="A706" s="9"/>
+      <c r="B706" s="9"/>
+    </row>
+    <row r="707" spans="1:15">
+      <c r="A707" s="14" t="s">
         <v>2298</v>
       </c>
-      <c r="B705" s="14" t="s">
+      <c r="B707" s="14" t="s">
         <v>2299</v>
       </c>
-      <c r="O705" s="13" t="s">
+      <c r="O707" s="13" t="s">
         <v>2300</v>
-      </c>
-    </row>
-    <row r="706" spans="1:15">
-      <c r="A706" s="1" t="s">
-        <v>2301</v>
-      </c>
-      <c r="B706" s="13" t="s">
-        <v>2302</v>
-      </c>
-      <c r="O706" s="13" t="s">
-        <v>2303</v>
       </c>
     </row>
     <row r="708" spans="1:15">
       <c r="A708" s="1" t="s">
-        <v>1577</v>
-      </c>
-      <c r="B708" s="1" t="s">
-        <v>1578</v>
+        <v>2301</v>
+      </c>
+      <c r="B708" s="13" t="s">
+        <v>2302</v>
       </c>
       <c r="O708" s="13" t="s">
-        <v>2297</v>
-      </c>
-    </row>
-    <row r="709" spans="1:15">
-      <c r="A709" s="1" t="s">
-        <v>1579</v>
-      </c>
-      <c r="B709" s="1" t="s">
-        <v>1580</v>
-      </c>
-      <c r="O709" s="1" t="s">
-        <v>1581</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="710" spans="1:15">
       <c r="A710" s="1" t="s">
-        <v>1582</v>
+        <v>1577</v>
       </c>
       <c r="B710" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="O710" s="13" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="711" spans="1:15">
+      <c r="A711" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B711" s="1" t="s">
         <v>1580</v>
       </c>
-      <c r="O710" s="1" t="s">
+      <c r="O711" s="1" t="s">
         <v>1581</v>
       </c>
     </row>
     <row r="712" spans="1:15">
       <c r="A712" s="1" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="O712" s="1" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="713" spans="1:15">
-      <c r="A713" s="1" t="s">
-        <v>1586</v>
-      </c>
-      <c r="B713" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="O713" s="1" t="s">
-        <v>1588</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="714" spans="1:15">
       <c r="A714" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="O714" s="1" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="715" spans="1:15">
+      <c r="A715" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="O715" s="1" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="716" spans="1:15">
+      <c r="A716" s="1" t="s">
         <v>1589</v>
       </c>
-      <c r="B714" s="1" t="s">
+      <c r="B716" s="1" t="s">
         <v>1587</v>
       </c>
-      <c r="O714" s="1" t="s">
+      <c r="O716" s="1" t="s">
         <v>1588</v>
-      </c>
-    </row>
-    <row r="719" spans="1:15">
-      <c r="A719" s="1" t="s">
-        <v>1590</v>
-      </c>
-      <c r="B719" s="1" t="s">
-        <v>1591</v>
-      </c>
-      <c r="O719" s="1" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="720" spans="1:15">
-      <c r="A720" s="1" t="s">
-        <v>1593</v>
-      </c>
-      <c r="B720" s="1" t="s">
-        <v>1594</v>
-      </c>
-      <c r="O720" s="1" t="s">
-        <v>1595</v>
       </c>
     </row>
     <row r="721" spans="1:15">
       <c r="A721" s="1" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="B721" s="1" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="O721" s="1" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="722" spans="1:15">
       <c r="A722" s="1" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="B722" s="1" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="O722" s="1" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="723" spans="1:15">
       <c r="A723" s="1" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
       <c r="O723" s="1" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="724" spans="1:15">
       <c r="A724" s="1" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="O724" s="1" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="725" spans="1:15">
       <c r="A725" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="O725" s="1" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="726" spans="1:15">
+      <c r="A726" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="O726" s="1" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="727" spans="1:15">
+      <c r="A727" s="1" t="s">
         <v>1608</v>
       </c>
-      <c r="B725" s="1" t="s">
+      <c r="B727" s="1" t="s">
         <v>1609</v>
       </c>
-      <c r="O725" s="1" t="s">
+      <c r="O727" s="1" t="s">
         <v>1610</v>
-      </c>
-    </row>
-    <row r="727" spans="1:15">
-      <c r="A727" s="11" t="s">
-        <v>1611</v>
-      </c>
-      <c r="B727" s="1" t="s">
-        <v>1612</v>
-      </c>
-      <c r="O727" s="1" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="728" spans="1:15">
-      <c r="A728" s="11" t="s">
-        <v>1614</v>
-      </c>
-      <c r="B728" s="1" t="s">
-        <v>1615</v>
-      </c>
-      <c r="O728" s="1" t="s">
-        <v>1616</v>
       </c>
     </row>
     <row r="729" spans="1:15">
       <c r="A729" s="11" t="s">
-        <v>1617</v>
+        <v>1611</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>1618</v>
+        <v>1612</v>
       </c>
       <c r="O729" s="1" t="s">
-        <v>1619</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="730" spans="1:15">
       <c r="A730" s="11" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="O730" s="1" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="731" spans="1:15">
       <c r="A731" s="11" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
       <c r="O731" s="1" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="732" spans="1:15">
       <c r="A732" s="11" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>1627</v>
+        <v>1621</v>
       </c>
       <c r="O732" s="1" t="s">
-        <v>1628</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="733" spans="1:15">
       <c r="A733" s="11" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>1630</v>
+        <v>1624</v>
       </c>
       <c r="O733" s="1" t="s">
-        <v>1631</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="734" spans="1:15">
       <c r="A734" s="11" t="s">
-        <v>1632</v>
+        <v>1626</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="O734" s="1" t="s">
-        <v>1634</v>
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="735" spans="1:15">
+      <c r="A735" s="11" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="O735" s="1" t="s">
+        <v>1631</v>
       </c>
     </row>
     <row r="736" spans="1:15">
       <c r="A736" s="11" t="s">
-        <v>1635</v>
-      </c>
-      <c r="B736" s="11" t="s">
-        <v>1636</v>
+        <v>1632</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>1633</v>
       </c>
       <c r="O736" s="1" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="737" spans="1:15">
-      <c r="A737" s="11" t="s">
-        <v>1638</v>
-      </c>
-      <c r="B737" s="11" t="s">
-        <v>1639</v>
-      </c>
-      <c r="O737" s="1" t="s">
-        <v>1640</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="738" spans="1:15">
       <c r="A738" s="11" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
       <c r="B738" s="11" t="s">
-        <v>1642</v>
+        <v>1636</v>
       </c>
       <c r="O738" s="1" t="s">
-        <v>1643</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="739" spans="1:15">
       <c r="A739" s="11" t="s">
-        <v>1644</v>
+        <v>1638</v>
       </c>
       <c r="B739" s="11" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
       <c r="O739" s="1" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="740" spans="1:15">
       <c r="A740" s="11" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="B740" s="11" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="O740" s="1" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="741" spans="1:15">
       <c r="A741" s="11" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="B741" s="11" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
       <c r="O741" s="1" t="s">
-        <v>1652</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="742" spans="1:15">
       <c r="A742" s="11" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B742" s="11" t="s">
+        <v>1648</v>
+      </c>
+      <c r="O742" s="1" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="743" spans="1:15">
+      <c r="A743" s="11" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B743" s="11" t="s">
+        <v>1651</v>
+      </c>
+      <c r="O743" s="1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="744" spans="1:15">
+      <c r="A744" s="11" t="s">
         <v>1653</v>
       </c>
-      <c r="B742" s="11" t="s">
+      <c r="B744" s="11" t="s">
         <v>1651</v>
       </c>
-      <c r="O742" s="1" t="s">
+      <c r="O744" s="1" t="s">
         <v>1654</v>
       </c>
     </row>
-    <row r="744" spans="1:15">
-      <c r="A744" s="1" t="s">
+    <row r="746" spans="1:15">
+      <c r="A746" s="1" t="s">
         <v>1655</v>
       </c>
-      <c r="B744" s="1" t="s">
+      <c r="B746" s="1" t="s">
         <v>1656</v>
       </c>
-      <c r="O744" s="1" t="s">
+      <c r="O746" s="1" t="s">
         <v>1657</v>
-      </c>
-    </row>
-    <row r="745" spans="1:15">
-      <c r="A745" s="1" t="s">
-        <v>1658</v>
-      </c>
-      <c r="B745" s="1" t="s">
-        <v>1659</v>
-      </c>
-      <c r="O745" s="1" t="s">
-        <v>1660</v>
       </c>
     </row>
     <row r="747" spans="1:15">
       <c r="A747" s="1" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="O747" s="1" t="s">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="748" spans="1:15">
-      <c r="A748" s="1" t="s">
-        <v>1664</v>
-      </c>
-      <c r="B748" s="1" t="s">
-        <v>1665</v>
-      </c>
-      <c r="O748" s="1" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="749" spans="1:15">
       <c r="A749" s="1" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
       <c r="O749" s="1" t="s">
-        <v>1669</v>
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="750" spans="1:15">
+      <c r="A750" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="O750" s="1" t="s">
+        <v>1666</v>
       </c>
     </row>
     <row r="751" spans="1:15">
       <c r="A751" s="1" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="B751" s="1" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="O751" s="1" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="752" spans="1:15">
-      <c r="A752" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="B752" s="1" t="s">
-        <v>1674</v>
-      </c>
-      <c r="O752" s="1" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="753" spans="1:15">
       <c r="A753" s="1" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
       <c r="B753" s="1" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="O753" s="1" t="s">
-        <v>1678</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="754" spans="1:15">
       <c r="A754" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="O754" s="1" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="755" spans="1:15">
+      <c r="A755" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="O755" s="1" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="756" spans="1:15">
+      <c r="A756" s="1" t="s">
         <v>1679</v>
       </c>
-      <c r="B754" s="1" t="s">
+      <c r="B756" s="1" t="s">
         <v>1680</v>
       </c>
-      <c r="O754" s="1" t="s">
+      <c r="O756" s="1" t="s">
         <v>1681</v>
       </c>
     </row>
-    <row r="755" spans="1:15" ht="27.6">
-      <c r="A755" s="1" t="s">
+    <row r="757" spans="1:15" ht="27.6">
+      <c r="A757" s="1" t="s">
         <v>1682</v>
       </c>
-      <c r="B755" s="4" t="s">
+      <c r="B757" s="4" t="s">
         <v>1683</v>
       </c>
-      <c r="O755" s="4" t="s">
+      <c r="O757" s="4" t="s">
         <v>1684</v>
       </c>
     </row>
-    <row r="756" spans="1:15" ht="27.6">
-      <c r="A756" s="1" t="s">
+    <row r="758" spans="1:15" ht="27.6">
+      <c r="A758" s="1" t="s">
         <v>1685</v>
       </c>
-      <c r="B756" s="4" t="s">
+      <c r="B758" s="4" t="s">
         <v>1686</v>
       </c>
-      <c r="O756" s="4" t="s">
+      <c r="O758" s="4" t="s">
         <v>1686</v>
       </c>
     </row>
-    <row r="758" spans="1:15" ht="409.6">
-      <c r="A758" s="1" t="s">
+    <row r="760" spans="1:15" ht="409.6">
+      <c r="A760" s="1" t="s">
         <v>1687</v>
       </c>
-      <c r="B758" s="4" t="s">
+      <c r="B760" s="4" t="s">
         <v>1688</v>
       </c>
-      <c r="O758" s="4" t="s">
+      <c r="O760" s="4" t="s">
         <v>1689</v>
       </c>
     </row>
-    <row r="759" spans="1:15" ht="27.6">
-      <c r="A759" s="1" t="s">
+    <row r="761" spans="1:15" ht="27.6">
+      <c r="A761" s="1" t="s">
         <v>1690</v>
       </c>
-      <c r="B759" s="4" t="s">
+      <c r="B761" s="4" t="s">
         <v>1691</v>
       </c>
-      <c r="O759" s="4" t="s">
+      <c r="O761" s="4" t="s">
         <v>1692</v>
       </c>
     </row>
-    <row r="760" spans="1:15">
-      <c r="A760" s="1" t="s">
+    <row r="762" spans="1:15">
+      <c r="A762" s="1" t="s">
         <v>1693</v>
       </c>
-      <c r="B760" s="1" t="s">
+      <c r="B762" s="1" t="s">
         <v>1694</v>
       </c>
-      <c r="O760" s="1" t="s">
+      <c r="O762" s="1" t="s">
         <v>1695</v>
-      </c>
-    </row>
-    <row r="761" spans="1:15">
-      <c r="A761" s="1" t="s">
-        <v>1696</v>
-      </c>
-      <c r="B761" s="1" t="s">
-        <v>1697</v>
-      </c>
-      <c r="O761" s="1" t="s">
-        <v>1698</v>
       </c>
     </row>
     <row r="763" spans="1:15">
       <c r="A763" s="1" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="B763" s="1" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="O763" s="1" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="764" spans="1:15">
-      <c r="A764" s="1" t="s">
-        <v>1702</v>
-      </c>
-      <c r="B764" s="1" t="s">
-        <v>1703</v>
-      </c>
-      <c r="O764" s="1" t="s">
-        <v>1704</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="765" spans="1:15">
       <c r="A765" s="1" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="O765" s="1" t="s">
-        <v>1707</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="766" spans="1:15">
       <c r="A766" s="1" t="s">
-        <v>1708</v>
+        <v>1702</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>1709</v>
+        <v>1703</v>
       </c>
       <c r="O766" s="1" t="s">
-        <v>1710</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="767" spans="1:15">
       <c r="A767" s="1" t="s">
-        <v>1711</v>
+        <v>1705</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>1712</v>
+        <v>1706</v>
       </c>
       <c r="O767" s="1" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="768" spans="1:15">
       <c r="A768" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="O768" s="1" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="769" spans="1:15">
+      <c r="A769" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="O769" s="1" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="770" spans="1:15">
+      <c r="A770" s="1" t="s">
         <v>1714</v>
       </c>
-      <c r="B768" s="1" t="s">
+      <c r="B770" s="1" t="s">
         <v>1715</v>
       </c>
-      <c r="O768" s="1" t="s">
+      <c r="O770" s="1" t="s">
         <v>1716</v>
       </c>
     </row>
-    <row r="770" spans="1:15">
-      <c r="A770" s="13" t="s">
+    <row r="772" spans="1:15">
+      <c r="A772" s="13" t="s">
         <v>2309</v>
       </c>
-      <c r="B770" s="13" t="s">
+      <c r="B772" s="13" t="s">
         <v>2312</v>
       </c>
-      <c r="O770" s="13" t="s">
+      <c r="O772" s="13" t="s">
         <v>2313</v>
-      </c>
-    </row>
-    <row r="771" spans="1:15">
-      <c r="A771" s="13" t="s">
-        <v>2310</v>
-      </c>
-      <c r="B771" s="13" t="s">
-        <v>2311</v>
-      </c>
-      <c r="O771" s="13" t="s">
-        <v>2314</v>
       </c>
     </row>
     <row r="773" spans="1:15">
       <c r="A773" s="13" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B773" s="13" t="s">
+        <v>2311</v>
+      </c>
+      <c r="O773" s="13" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="775" spans="1:15">
+      <c r="A775" s="13" t="s">
         <v>2308</v>
       </c>
-      <c r="B773" s="1" t="s">
+      <c r="B775" s="1" t="s">
         <v>1717</v>
       </c>
-      <c r="O773" s="1" t="s">
+      <c r="O775" s="1" t="s">
         <v>1718</v>
       </c>
     </row>
-    <row r="774" spans="1:15">
-      <c r="A774" s="1" t="s">
+    <row r="776" spans="1:15">
+      <c r="A776" s="1" t="s">
         <v>1719</v>
       </c>
-      <c r="B774" s="1" t="s">
+      <c r="B776" s="1" t="s">
         <v>1720</v>
       </c>
-      <c r="O774" s="1" t="s">
+      <c r="O776" s="1" t="s">
         <v>1721</v>
-      </c>
-    </row>
-    <row r="775" spans="1:15">
-      <c r="A775" s="1" t="s">
-        <v>1722</v>
-      </c>
-      <c r="B775" s="1" t="s">
-        <v>1723</v>
-      </c>
-      <c r="O775" s="1" t="s">
-        <v>1724</v>
       </c>
     </row>
     <row r="777" spans="1:15">
       <c r="A777" s="1" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="B777" s="1" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="O777" s="1" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="779" spans="1:15">
       <c r="A779" s="1" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="B779" s="1" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="O779" s="1" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="780" spans="1:15">
-      <c r="A780" s="1" t="s">
-        <v>1731</v>
-      </c>
-      <c r="B780" s="1" t="s">
-        <v>1732</v>
-      </c>
-      <c r="O780" s="1" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="781" spans="1:15">
       <c r="A781" s="1" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="B781" s="1" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="O781" s="1" t="s">
-        <v>1736</v>
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="782" spans="1:15">
+      <c r="A782" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="O782" s="1" t="s">
+        <v>1733</v>
       </c>
     </row>
     <row r="783" spans="1:15">
       <c r="A783" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="O783" s="1" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="785" spans="1:15">
+      <c r="A785" s="1" t="s">
         <v>1737</v>
       </c>
-      <c r="B783" s="1" t="s">
+      <c r="B785" s="1" t="s">
         <v>1738</v>
       </c>
-      <c r="O783" s="1" t="s">
+      <c r="O785" s="1" t="s">
         <v>1739</v>
-      </c>
-    </row>
-    <row r="784" spans="1:15">
-      <c r="A784" s="1" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B784" s="1" t="s">
-        <v>1741</v>
-      </c>
-      <c r="O784" s="1" t="s">
-        <v>1742</v>
       </c>
     </row>
     <row r="786" spans="1:15">
       <c r="A786" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B786" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="O786" s="1" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="788" spans="1:15">
+      <c r="A788" s="1" t="s">
         <v>1743</v>
       </c>
-      <c r="B786" s="1" t="s">
+      <c r="B788" s="1" t="s">
         <v>1744</v>
       </c>
-      <c r="O786" s="1" t="s">
+      <c r="O788" s="1" t="s">
         <v>1745</v>
-      </c>
-    </row>
-    <row r="787" spans="1:15">
-      <c r="A787" s="1" t="s">
-        <v>1746</v>
-      </c>
-      <c r="B787" s="1" t="s">
-        <v>1747</v>
-      </c>
-      <c r="O787" s="1" t="s">
-        <v>1748</v>
       </c>
     </row>
     <row r="789" spans="1:15">
       <c r="A789" s="1" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="B789" s="1" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="O789" s="1" t="s">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="790" spans="1:15">
-      <c r="A790" s="1" t="s">
-        <v>1752</v>
-      </c>
-      <c r="B790" s="1" t="s">
-        <v>1753</v>
-      </c>
-      <c r="O790" s="1" t="s">
-        <v>1754</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="791" spans="1:15">
       <c r="A791" s="1" t="s">
-        <v>1755</v>
+        <v>1749</v>
       </c>
       <c r="B791" s="1" t="s">
-        <v>1756</v>
-      </c>
-      <c r="O791" s="12" t="s">
-        <v>1757</v>
+        <v>1750</v>
+      </c>
+      <c r="O791" s="1" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="792" spans="1:15">
+      <c r="A792" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B792" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="O792" s="1" t="s">
+        <v>1754</v>
       </c>
     </row>
     <row r="793" spans="1:15">
       <c r="A793" s="1" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="B793" s="1" t="s">
-        <v>1759</v>
-      </c>
-      <c r="O793" s="1" t="s">
-        <v>1760</v>
+        <v>1756</v>
+      </c>
+      <c r="O793" s="12" t="s">
+        <v>1757</v>
       </c>
     </row>
     <row r="795" spans="1:15">
       <c r="A795" s="1" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="B795" s="1" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="O795" s="1" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="797" spans="1:15">
       <c r="A797" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B797" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="O797" s="1" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="799" spans="1:15">
+      <c r="A799" s="1" t="s">
         <v>1764</v>
       </c>
-      <c r="B797" s="1" t="s">
+      <c r="B799" s="1" t="s">
         <v>1765</v>
       </c>
-      <c r="O797" s="1" t="s">
+      <c r="O799" s="1" t="s">
         <v>1766</v>
-      </c>
-    </row>
-    <row r="798" spans="1:15">
-      <c r="A798" s="1" t="s">
-        <v>1767</v>
-      </c>
-      <c r="B798" s="1" t="s">
-        <v>1768</v>
-      </c>
-      <c r="O798" s="1" t="s">
-        <v>1769</v>
       </c>
     </row>
     <row r="800" spans="1:15">
       <c r="A800" s="1" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="B800" s="1" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="O800" s="1" t="s">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="801" spans="1:15">
-      <c r="A801" s="1" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B801" s="1" t="s">
-        <v>1774</v>
-      </c>
-      <c r="O801" s="1" t="s">
-        <v>1775</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="802" spans="1:15">
       <c r="A802" s="1" t="s">
-        <v>1776</v>
+        <v>1770</v>
       </c>
       <c r="B802" s="1" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
       <c r="O802" s="1" t="s">
-        <v>1778</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="803" spans="1:15">
       <c r="A803" s="1" t="s">
-        <v>1779</v>
+        <v>1773</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>1780</v>
+        <v>1774</v>
       </c>
       <c r="O803" s="1" t="s">
-        <v>1781</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="804" spans="1:15">
       <c r="A804" s="1" t="s">
-        <v>1782</v>
+        <v>1776</v>
       </c>
       <c r="B804" s="1" t="s">
-        <v>766</v>
+        <v>1777</v>
       </c>
       <c r="O804" s="1" t="s">
-        <v>1783</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="805" spans="1:15">
       <c r="A805" s="1" t="s">
-        <v>1784</v>
+        <v>1779</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>1785</v>
+        <v>1780</v>
       </c>
       <c r="O805" s="1" t="s">
-        <v>1786</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="806" spans="1:15">
       <c r="A806" s="1" t="s">
-        <v>1787</v>
+        <v>1782</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>1788</v>
+        <v>766</v>
       </c>
       <c r="O806" s="1" t="s">
-        <v>1789</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="807" spans="1:15">
       <c r="A807" s="1" t="s">
-        <v>1790</v>
+        <v>1784</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>1791</v>
+        <v>1785</v>
       </c>
       <c r="O807" s="1" t="s">
-        <v>1792</v>
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="808" spans="1:15">
+      <c r="A808" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B808" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="O808" s="1" t="s">
+        <v>1789</v>
       </c>
     </row>
     <row r="809" spans="1:15">
       <c r="A809" s="1" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="O809" s="1" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="811" spans="1:15">
       <c r="A811" s="1" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="O811" s="1" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="812" spans="1:15">
-      <c r="A812" s="1" t="s">
-        <v>1799</v>
-      </c>
-      <c r="B812" s="1" t="s">
-        <v>1800</v>
-      </c>
-      <c r="O812" s="1" t="s">
-        <v>1801</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="813" spans="1:15">
       <c r="A813" s="1" t="s">
-        <v>1802</v>
+        <v>1796</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>1803</v>
+        <v>1797</v>
       </c>
       <c r="O813" s="1" t="s">
-        <v>1804</v>
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="814" spans="1:15">
+      <c r="A814" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B814" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="O814" s="1" t="s">
+        <v>1801</v>
       </c>
     </row>
     <row r="815" spans="1:15">
       <c r="A815" s="1" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="B815" s="1" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="O815" s="1" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="816" spans="1:15">
-      <c r="A816" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="B816" s="1" t="s">
-        <v>1809</v>
-      </c>
-      <c r="O816" s="1" t="s">
-        <v>1810</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="817" spans="1:15">
       <c r="A817" s="1" t="s">
-        <v>1811</v>
+        <v>1805</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>1812</v>
+        <v>1806</v>
       </c>
       <c r="O817" s="1" t="s">
-        <v>1813</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="818" spans="1:15">
       <c r="A818" s="1" t="s">
-        <v>1814</v>
+        <v>1808</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>1815</v>
+        <v>1809</v>
       </c>
       <c r="O818" s="1" t="s">
-        <v>1816</v>
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="819" spans="1:15">
+      <c r="A819" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B819" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="O819" s="1" t="s">
+        <v>1813</v>
       </c>
     </row>
     <row r="820" spans="1:15">
       <c r="A820" s="1" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="O820" s="1" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="822" spans="1:15">
       <c r="A822" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B822" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="O822" s="1" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="824" spans="1:15">
+      <c r="A824" s="1" t="s">
         <v>1820</v>
       </c>
-      <c r="B822" s="1" t="s">
+      <c r="B824" s="1" t="s">
         <v>1821</v>
       </c>
-      <c r="O822" s="1" t="s">
+      <c r="O824" s="1" t="s">
         <v>1822</v>
-      </c>
-    </row>
-    <row r="823" spans="1:15">
-      <c r="A823" s="1" t="s">
-        <v>1823</v>
-      </c>
-      <c r="B823" s="1" t="s">
-        <v>1824</v>
-      </c>
-      <c r="O823" s="1" t="s">
-        <v>1825</v>
       </c>
     </row>
     <row r="825" spans="1:15">
       <c r="A825" s="1" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="O825" s="1" t="s">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="826" spans="1:15">
-      <c r="A826" s="1" t="s">
-        <v>1829</v>
-      </c>
-      <c r="B826" s="1" t="s">
-        <v>1830</v>
-      </c>
-      <c r="O826" s="1" t="s">
-        <v>1831</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="827" spans="1:15">
       <c r="A827" s="1" t="s">
-        <v>1832</v>
+        <v>1826</v>
       </c>
       <c r="B827" s="1" t="s">
-        <v>1833</v>
+        <v>1827</v>
       </c>
       <c r="O827" s="1" t="s">
-        <v>1834</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="828" spans="1:15">
       <c r="A828" s="1" t="s">
-        <v>1835</v>
+        <v>1829</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="O828" s="1" t="s">
-        <v>1837</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="829" spans="1:15">
       <c r="A829" s="1" t="s">
-        <v>1838</v>
+        <v>1832</v>
       </c>
       <c r="B829" s="1" t="s">
-        <v>1839</v>
+        <v>1833</v>
       </c>
       <c r="O829" s="1" t="s">
-        <v>1840</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="830" spans="1:15">
       <c r="A830" s="1" t="s">
-        <v>1841</v>
+        <v>1835</v>
       </c>
       <c r="B830" s="1" t="s">
-        <v>1842</v>
+        <v>1836</v>
       </c>
       <c r="O830" s="1" t="s">
-        <v>1843</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="831" spans="1:15">
       <c r="A831" s="1" t="s">
-        <v>1844</v>
+        <v>1838</v>
       </c>
       <c r="B831" s="1" t="s">
-        <v>1845</v>
+        <v>1839</v>
       </c>
       <c r="O831" s="1" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="832" spans="1:15">
       <c r="A832" s="1" t="s">
-        <v>1847</v>
+        <v>1841</v>
       </c>
       <c r="B832" s="1" t="s">
-        <v>1848</v>
+        <v>1842</v>
       </c>
       <c r="O832" s="1" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="833" spans="1:15">
       <c r="A833" s="1" t="s">
-        <v>1850</v>
+        <v>1844</v>
       </c>
       <c r="B833" s="1" t="s">
-        <v>1827</v>
+        <v>1845</v>
       </c>
       <c r="O833" s="1" t="s">
-        <v>1828</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="834" spans="1:15">
       <c r="A834" s="1" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="B834" s="1" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="O834" s="1" t="s">
-        <v>1853</v>
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="835" spans="1:15">
+      <c r="A835" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B835" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="O835" s="1" t="s">
+        <v>1828</v>
       </c>
     </row>
     <row r="836" spans="1:15">
       <c r="A836" s="1" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
       <c r="B836" s="1" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="O836" s="1" t="s">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="837" spans="1:15">
-      <c r="A837" s="1" t="s">
-        <v>1857</v>
-      </c>
-      <c r="B837" s="1" t="s">
-        <v>1858</v>
-      </c>
-      <c r="O837" s="1" t="s">
-        <v>1859</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="838" spans="1:15">
       <c r="A838" s="1" t="s">
-        <v>1860</v>
+        <v>1854</v>
       </c>
       <c r="B838" s="1" t="s">
-        <v>1861</v>
+        <v>1855</v>
       </c>
       <c r="O838" s="1" t="s">
-        <v>1862</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="839" spans="1:15">
       <c r="A839" s="1" t="s">
-        <v>1863</v>
+        <v>1857</v>
       </c>
       <c r="B839" s="1" t="s">
-        <v>1864</v>
+        <v>1858</v>
       </c>
       <c r="O839" s="1" t="s">
-        <v>1865</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="840" spans="1:15">
       <c r="A840" s="1" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="B840" s="1" t="s">
-        <v>1867</v>
+        <v>1861</v>
       </c>
       <c r="O840" s="1" t="s">
-        <v>1868</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="841" spans="1:15">
       <c r="A841" s="1" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
       <c r="B841" s="1" t="s">
-        <v>1870</v>
+        <v>1864</v>
       </c>
       <c r="O841" s="1" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="842" spans="1:15">
       <c r="A842" s="1" t="s">
-        <v>1872</v>
+        <v>1866</v>
       </c>
       <c r="B842" s="1" t="s">
-        <v>1873</v>
+        <v>1867</v>
       </c>
       <c r="O842" s="1" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="843" spans="1:15">
       <c r="A843" s="1" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
       <c r="B843" s="1" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
       <c r="O843" s="1" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="844" spans="1:15">
       <c r="A844" s="1" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
       <c r="B844" s="1" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
       <c r="O844" s="1" t="s">
-        <v>1880</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="845" spans="1:15">
       <c r="A845" s="1" t="s">
-        <v>1881</v>
+        <v>1875</v>
       </c>
       <c r="B845" s="1" t="s">
-        <v>1882</v>
+        <v>1876</v>
       </c>
       <c r="O845" s="1" t="s">
-        <v>1883</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="846" spans="1:15">
       <c r="A846" s="1" t="s">
-        <v>1884</v>
+        <v>1878</v>
       </c>
       <c r="B846" s="1" t="s">
-        <v>1885</v>
+        <v>1879</v>
       </c>
       <c r="O846" s="1" t="s">
-        <v>1886</v>
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="847" spans="1:15">
+      <c r="A847" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B847" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="O847" s="1" t="s">
+        <v>1883</v>
       </c>
     </row>
     <row r="848" spans="1:15">
       <c r="A848" s="1" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="B848" s="1" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="O848" s="1" t="s">
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="849" spans="1:15">
-      <c r="A849" s="1" t="s">
-        <v>1890</v>
-      </c>
-      <c r="B849" s="1" t="s">
-        <v>1891</v>
-      </c>
-      <c r="O849" s="1" t="s">
-        <v>1892</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="850" spans="1:15">
       <c r="A850" s="1" t="s">
-        <v>1893</v>
+        <v>1887</v>
       </c>
       <c r="B850" s="1" t="s">
-        <v>1894</v>
+        <v>1888</v>
       </c>
       <c r="O850" s="1" t="s">
-        <v>1895</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="851" spans="1:15">
       <c r="A851" s="1" t="s">
-        <v>1896</v>
+        <v>1890</v>
       </c>
       <c r="B851" s="1" t="s">
-        <v>1897</v>
+        <v>1891</v>
       </c>
       <c r="O851" s="1" t="s">
-        <v>1898</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="852" spans="1:15">
       <c r="A852" s="1" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
       <c r="B852" s="1" t="s">
-        <v>1900</v>
+        <v>1894</v>
       </c>
       <c r="O852" s="1" t="s">
-        <v>1901</v>
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="853" spans="1:15">
+      <c r="A853" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B853" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="O853" s="1" t="s">
+        <v>1898</v>
       </c>
     </row>
     <row r="854" spans="1:15">
       <c r="A854" s="1" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="B854" s="1" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="O854" s="1" t="s">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="855" spans="1:15">
-      <c r="A855" s="1" t="s">
-        <v>1905</v>
-      </c>
-      <c r="B855" s="1" t="s">
-        <v>1906</v>
-      </c>
-      <c r="O855" s="1" t="s">
-        <v>1907</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="856" spans="1:15">
       <c r="A856" s="1" t="s">
-        <v>1908</v>
+        <v>1902</v>
       </c>
       <c r="B856" s="1" t="s">
-        <v>1909</v>
+        <v>1903</v>
       </c>
       <c r="O856" s="1" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="857" spans="1:15">
       <c r="A857" s="1" t="s">
-        <v>1911</v>
+        <v>1905</v>
       </c>
       <c r="B857" s="1" t="s">
-        <v>1912</v>
+        <v>1906</v>
       </c>
       <c r="O857" s="1" t="s">
-        <v>1913</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="858" spans="1:15">
       <c r="A858" s="1" t="s">
-        <v>1914</v>
+        <v>1908</v>
       </c>
       <c r="B858" s="1" t="s">
-        <v>1915</v>
+        <v>1909</v>
       </c>
       <c r="O858" s="1" t="s">
-        <v>1916</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="859" spans="1:15">
       <c r="A859" s="1" t="s">
-        <v>1917</v>
+        <v>1911</v>
       </c>
       <c r="B859" s="1" t="s">
-        <v>1918</v>
+        <v>1912</v>
       </c>
       <c r="O859" s="1" t="s">
-        <v>1919</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="860" spans="1:15">
       <c r="A860" s="1" t="s">
-        <v>1920</v>
+        <v>1914</v>
       </c>
       <c r="B860" s="1" t="s">
-        <v>1921</v>
+        <v>1915</v>
       </c>
       <c r="O860" s="1" t="s">
-        <v>1922</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="861" spans="1:15">
       <c r="A861" s="1" t="s">
-        <v>1923</v>
+        <v>1917</v>
       </c>
       <c r="B861" s="1" t="s">
-        <v>1924</v>
+        <v>1918</v>
       </c>
       <c r="O861" s="1" t="s">
-        <v>1925</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="862" spans="1:15">
       <c r="A862" s="1" t="s">
-        <v>1926</v>
+        <v>1920</v>
       </c>
       <c r="B862" s="1" t="s">
-        <v>1927</v>
+        <v>1921</v>
       </c>
       <c r="O862" s="1" t="s">
-        <v>1928</v>
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="863" spans="1:15">
+      <c r="A863" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B863" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="O863" s="1" t="s">
+        <v>1925</v>
       </c>
     </row>
     <row r="864" spans="1:15">
       <c r="A864" s="1" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="B864" s="1" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
       <c r="O864" s="1" t="s">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="865" spans="1:15">
-      <c r="A865" s="1" t="s">
-        <v>1932</v>
-      </c>
-      <c r="B865" s="1" t="s">
-        <v>1933</v>
-      </c>
-      <c r="O865" s="1" t="s">
-        <v>1934</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="866" spans="1:15">
       <c r="A866" s="1" t="s">
-        <v>1935</v>
+        <v>1929</v>
       </c>
       <c r="B866" s="1" t="s">
-        <v>1936</v>
+        <v>1930</v>
       </c>
       <c r="O866" s="1" t="s">
-        <v>1937</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="867" spans="1:15">
       <c r="A867" s="1" t="s">
-        <v>1938</v>
+        <v>1932</v>
       </c>
       <c r="B867" s="1" t="s">
-        <v>1939</v>
+        <v>1933</v>
       </c>
       <c r="O867" s="1" t="s">
-        <v>1940</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="868" spans="1:15">
       <c r="A868" s="1" t="s">
-        <v>1941</v>
+        <v>1935</v>
       </c>
       <c r="B868" s="1" t="s">
-        <v>1942</v>
+        <v>1936</v>
       </c>
       <c r="O868" s="1" t="s">
-        <v>1943</v>
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="869" spans="1:15">
+      <c r="A869" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B869" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="O869" s="1" t="s">
+        <v>1940</v>
       </c>
     </row>
     <row r="870" spans="1:15">
       <c r="A870" s="1" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
       <c r="B870" s="1" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="O870" s="1" t="s">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="871" spans="1:15">
-      <c r="A871" s="1" t="s">
-        <v>1947</v>
-      </c>
-      <c r="B871" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="O871" s="1" t="s">
-        <v>1783</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="872" spans="1:15">
       <c r="A872" s="1" t="s">
-        <v>1948</v>
+        <v>1944</v>
       </c>
       <c r="B872" s="1" t="s">
-        <v>1785</v>
+        <v>1945</v>
       </c>
       <c r="O872" s="1" t="s">
-        <v>1786</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="873" spans="1:15">
       <c r="A873" s="1" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="B873" s="1" t="s">
-        <v>1950</v>
+        <v>766</v>
       </c>
       <c r="O873" s="1" t="s">
-        <v>1951</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="874" spans="1:15">
       <c r="A874" s="1" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
       <c r="B874" s="1" t="s">
-        <v>1953</v>
+        <v>1785</v>
       </c>
       <c r="O874" s="1" t="s">
-        <v>1954</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="875" spans="1:15">
       <c r="A875" s="1" t="s">
-        <v>1955</v>
+        <v>1949</v>
       </c>
       <c r="B875" s="1" t="s">
-        <v>1956</v>
+        <v>1950</v>
       </c>
       <c r="O875" s="1" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="876" spans="1:15">
       <c r="A876" s="1" t="s">
-        <v>1957</v>
+        <v>1952</v>
       </c>
       <c r="B876" s="1" t="s">
-        <v>1958</v>
+        <v>1953</v>
       </c>
       <c r="O876" s="1" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="877" spans="1:15">
       <c r="A877" s="1" t="s">
-        <v>1960</v>
+        <v>1955</v>
       </c>
       <c r="B877" s="1" t="s">
-        <v>1961</v>
+        <v>1956</v>
       </c>
       <c r="O877" s="1" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="878" spans="1:15">
       <c r="A878" s="1" t="s">
-        <v>1962</v>
+        <v>1957</v>
       </c>
       <c r="B878" s="1" t="s">
-        <v>1963</v>
+        <v>1958</v>
       </c>
       <c r="O878" s="1" t="s">
-        <v>1964</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="879" spans="1:15">
       <c r="A879" s="1" t="s">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="B879" s="1" t="s">
-        <v>1966</v>
+        <v>1961</v>
       </c>
       <c r="O879" s="1" t="s">
-        <v>1964</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="880" spans="1:15">
       <c r="A880" s="1" t="s">
-        <v>1967</v>
+        <v>1962</v>
       </c>
       <c r="B880" s="1" t="s">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="O880" s="1" t="s">
-        <v>1969</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="881" spans="1:15">
       <c r="A881" s="1" t="s">
-        <v>1970</v>
+        <v>1965</v>
       </c>
       <c r="B881" s="1" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="O881" s="1" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="882" spans="1:15">
+      <c r="A882" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B882" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="O882" s="1" t="s">
         <v>1969</v>
       </c>
     </row>
     <row r="883" spans="1:15">
       <c r="A883" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B883" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="O883" s="1" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="885" spans="1:15">
+      <c r="A885" s="1" t="s">
         <v>1972</v>
       </c>
-      <c r="B883" s="1" t="s">
+      <c r="B885" s="1" t="s">
         <v>1973</v>
       </c>
-      <c r="O883" s="1" t="s">
+      <c r="O885" s="1" t="s">
         <v>1974</v>
-      </c>
-    </row>
-    <row r="884" spans="1:15">
-      <c r="A884" s="1" t="s">
-        <v>1975</v>
-      </c>
-      <c r="B884" s="1" t="s">
-        <v>1976</v>
-      </c>
-      <c r="O884" s="1" t="s">
-        <v>1977</v>
       </c>
     </row>
     <row r="886" spans="1:15">
       <c r="A886" s="1" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="B886" s="1" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="O886" s="1" t="s">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="887" spans="1:15">
-      <c r="A887" s="1" t="s">
-        <v>1981</v>
-      </c>
-      <c r="B887" s="1" t="s">
-        <v>1982</v>
-      </c>
-      <c r="O887" s="1" t="s">
-        <v>1983</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="888" spans="1:15">
       <c r="A888" s="1" t="s">
-        <v>1984</v>
+        <v>1978</v>
       </c>
       <c r="B888" s="1" t="s">
-        <v>1985</v>
+        <v>1979</v>
       </c>
       <c r="O888" s="1" t="s">
-        <v>1986</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="889" spans="1:15">
       <c r="A889" s="1" t="s">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="B889" s="1" t="s">
-        <v>1988</v>
+        <v>1982</v>
       </c>
       <c r="O889" s="1" t="s">
-        <v>1989</v>
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="890" spans="1:15">
+      <c r="A890" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B890" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="O890" s="1" t="s">
+        <v>1986</v>
       </c>
     </row>
     <row r="891" spans="1:15">
       <c r="A891" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B891" s="1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="O891" s="1" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="893" spans="1:15">
+      <c r="A893" s="1" t="s">
         <v>1990</v>
       </c>
-      <c r="B891" s="1" t="s">
+      <c r="B893" s="1" t="s">
         <v>1991</v>
       </c>
-      <c r="O891" s="1" t="s">
+      <c r="O893" s="1" t="s">
         <v>1992</v>
-      </c>
-    </row>
-    <row r="892" spans="1:15">
-      <c r="A892" s="1" t="s">
-        <v>1993</v>
-      </c>
-      <c r="B892" s="1" t="s">
-        <v>1994</v>
-      </c>
-      <c r="O892" s="1" t="s">
-        <v>1995</v>
       </c>
     </row>
     <row r="894" spans="1:15">
       <c r="A894" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B894" s="1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="O894" s="1" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="896" spans="1:15">
+      <c r="A896" s="1" t="s">
         <v>1996</v>
       </c>
-      <c r="B894" s="1" t="s">
+      <c r="B896" s="1" t="s">
         <v>1997</v>
       </c>
-      <c r="O894" s="1" t="s">
+      <c r="O896" s="1" t="s">
         <v>1998</v>
       </c>
     </row>
-    <row r="896" spans="1:15">
-      <c r="A896" s="13" t="s">
+    <row r="898" spans="1:15">
+      <c r="A898" s="13" t="s">
         <v>2335</v>
       </c>
-      <c r="B896" s="13" t="s">
+      <c r="B898" s="13" t="s">
         <v>2336</v>
       </c>
-      <c r="O896" s="13" t="s">
+      <c r="O898" s="13" t="s">
         <v>2337</v>
       </c>
     </row>
@@ -16411,7 +16456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
@@ -18499,17 +18544,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -18551,14 +18585,25 @@
 </woProps>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+</pixelators>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WindowsFile\TheOtherRolesRework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28441350-E62F-4864-987D-3D2DB7E0EDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA008AB-5096-4C7D-9F77-248E247A5D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="2399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="2437">
   <si>
     <t>English</t>
   </si>
@@ -7333,18 +7333,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>deathPopupDevil</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0} Has Been Be Blind...</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}永远见不到光明了…</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>roleSummaryBombed</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -7501,6 +7489,154 @@
   </si>
   <si>
     <t>几轮会议后解除致盲</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>blindMessage</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>You are blinded and will not return to normal vision until you die.</t>
+  </si>
+  <si>
+    <t>你失明了，除非你死亡，否则将不会恢复到正常视野</t>
+  </si>
+  <si>
+    <t>The difference between the number of remaining Pretenders on the field and the number of remaining non-Pretenders is 1 person \n through emergency: sabotage, and victory is achieved before an emergency meeting is called! \n Current cooldown for convening an emergency meeting:</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>场上剩余伪装者人数与剩余非伪装者人数相差1人\n通过紧急破坏，在召开紧急会议之前取得胜利！\n 当前召开紧急会议冷却时间：</t>
+  </si>
+  <si>
+    <t>impGetEmergencyCooldown</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prophet</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prophetNumExamines</t>
+  </si>
+  <si>
+    <t>prophetCanCallEmergency</t>
+  </si>
+  <si>
+    <t>prophetIsRevealed</t>
+  </si>
+  <si>
+    <t>prophetExaminesToBeRevealed</t>
+  </si>
+  <si>
+    <t>prophetBenignNeutralAsRed</t>
+  </si>
+  <si>
+    <t>prophetCooldown</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prophetAccuracy</t>
+  </si>
+  <si>
+    <t>prophetIntroDesc</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prophetShortDesc</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>预言家</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过预言找出&lt;color=#ff1919&gt;伪装者&lt;/color&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过预言找出伪装者，注意不要被发现...</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prophetButtonBlind</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Examine</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>预言</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prophetMeetingText</t>
+  </si>
+  <si>
+    <t>The Prophet can't start an emergency meeting</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>预言家不能开启紧急会议</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Examination Cooldown</t>
+  </si>
+  <si>
+    <t>预言冷却时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prophet Can Call Emergency Meeting</t>
+  </si>
+  <si>
+    <t>Prophet Is Revealed To The Killers</t>
+  </si>
+  <si>
+    <t>Number Of Examinations Required To Be Revealed</t>
+  </si>
+  <si>
+    <t>Number Of Examinations</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Examination Accuracy</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benign Neutral Shown As Red</t>
+  </si>
+  <si>
+    <t>预言最大次数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>预言家不可以开启紧急会议</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>预言家可以被杀手发现</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到预言次数被杀手发现</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>预言准确性</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中立显示为红名</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prophecy to Find Impostors</t>
+  </si>
+  <si>
+    <t>Prophecy to Find Impostors</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -8052,31 +8188,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q915"/>
+  <dimension ref="A1:Q929"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="O225" sqref="O225"/>
+    <sheetView tabSelected="1" topLeftCell="A730" workbookViewId="0">
+      <selection activeCell="B736" sqref="B736"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="50.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="107.88671875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="0.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="50.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="107.90625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="8.984375E-2" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.08984375" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="1" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6328125" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="7.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="110.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5.33203125" style="1" customWidth="1"/>
-    <col min="18" max="37" width="7.88671875" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="14.44140625" style="1"/>
+    <col min="12" max="12" width="7.08984375" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.08984375" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6328125" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="110.54296875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.90625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.36328125" style="1" customWidth="1"/>
+    <col min="18" max="37" width="7.90625" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="14.453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -9948,7 +10084,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="27.6">
+    <row r="189" spans="1:15" ht="28">
       <c r="A189" s="4" t="s">
         <v>429</v>
       </c>
@@ -10206,38 +10342,38 @@
     </row>
     <row r="213" spans="1:16">
       <c r="A213" s="16" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
       <c r="B213" s="16" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="C213" s="4"/>
       <c r="O213" s="15" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="214" spans="1:16">
       <c r="A214" s="16" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="B214" s="16" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
       <c r="C214" s="4"/>
       <c r="O214" s="15" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="215" spans="1:16">
       <c r="A215" s="16" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="B215" s="16" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
       <c r="C215" s="4"/>
       <c r="O215" s="15" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -10248,124 +10384,119 @@
     </row>
     <row r="217" spans="1:16">
       <c r="A217" s="16" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="B217" s="16" t="s">
-        <v>2374</v>
+        <v>2371</v>
       </c>
       <c r="C217" s="4"/>
       <c r="O217" s="15" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="218" spans="1:16">
       <c r="A218" s="16" t="s">
-        <v>2375</v>
+        <v>2372</v>
       </c>
       <c r="B218" s="16" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
       <c r="C218" s="4"/>
       <c r="O218" s="15" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="219" spans="1:16">
       <c r="A219" s="16" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
       <c r="B219" s="16" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
       <c r="C219" s="4"/>
       <c r="O219" s="15" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="220" spans="1:16">
       <c r="A220" s="16" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
       <c r="B220" s="16" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
       <c r="C220" s="4"/>
       <c r="O220" s="15" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="221" spans="1:16">
       <c r="A221" s="16" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="B221" s="16" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
       <c r="C221" s="4"/>
       <c r="O221" s="15" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="222" spans="1:16">
       <c r="A222" s="16" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
       <c r="B222" s="16" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="C222" s="4"/>
       <c r="O222" s="15" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="223" spans="1:16">
       <c r="A223" s="16" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
       <c r="B223" s="16" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="C223" s="4"/>
       <c r="O223" s="15" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="224" spans="1:16">
       <c r="A224" s="16" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="B224" s="16" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
       <c r="C224" s="4"/>
       <c r="O224" s="13" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
       <c r="P224" s="15"/>
     </row>
     <row r="225" spans="1:16">
       <c r="A225" s="16" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="B225" s="16" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="C225" s="4"/>
       <c r="O225" s="13" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="P225" s="15"/>
-    </row>
-    <row r="226" spans="1:16">
-      <c r="A226" s="4"/>
-      <c r="B226" s="16"/>
-      <c r="C226" s="4"/>
-      <c r="P226" s="15"/>
     </row>
     <row r="227" spans="1:16">
       <c r="A227" s="4"/>
-      <c r="B227" s="4"/>
+      <c r="B227" s="16"/>
       <c r="C227" s="4"/>
+      <c r="P227" s="15"/>
     </row>
     <row r="228" spans="1:16">
       <c r="A228" s="4" t="s">
@@ -15239,1600 +15370,1736 @@
         <v>1588</v>
       </c>
     </row>
+    <row r="733" spans="1:15">
+      <c r="A733" s="13" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B733" s="13"/>
+      <c r="O733" s="13" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="734" spans="1:15">
+      <c r="A734" s="13"/>
+    </row>
+    <row r="735" spans="1:15">
+      <c r="A735" s="13" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B735" s="13" t="s">
+        <v>2436</v>
+      </c>
+      <c r="C735" s="13"/>
+      <c r="O735" s="13" t="s">
+        <v>2413</v>
+      </c>
+    </row>
     <row r="736" spans="1:15">
-      <c r="A736" s="1" t="s">
-        <v>1590</v>
+      <c r="A736" s="13" t="s">
+        <v>2411</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>1591</v>
-      </c>
-      <c r="O736" s="1" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="737" spans="1:15">
-      <c r="A737" s="1" t="s">
-        <v>1593</v>
-      </c>
-      <c r="B737" s="1" t="s">
-        <v>1594</v>
-      </c>
-      <c r="O737" s="1" t="s">
-        <v>1595</v>
+        <v>2435</v>
+      </c>
+      <c r="O736" s="13" t="s">
+        <v>2414</v>
       </c>
     </row>
     <row r="738" spans="1:15">
-      <c r="A738" s="1" t="s">
-        <v>1596</v>
+      <c r="A738" s="13" t="s">
+        <v>2408</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>1597</v>
-      </c>
-      <c r="O738" s="1" t="s">
-        <v>1598</v>
+        <v>2421</v>
+      </c>
+      <c r="O738" s="13" t="s">
+        <v>2422</v>
       </c>
     </row>
     <row r="739" spans="1:15">
       <c r="A739" s="1" t="s">
-        <v>1599</v>
-      </c>
-      <c r="B739" s="1" t="s">
-        <v>1600</v>
-      </c>
-      <c r="O739" s="1" t="s">
-        <v>1601</v>
+        <v>2403</v>
+      </c>
+      <c r="B739" s="13" t="s">
+        <v>2426</v>
+      </c>
+      <c r="O739" s="13" t="s">
+        <v>2429</v>
       </c>
     </row>
     <row r="740" spans="1:15">
       <c r="A740" s="1" t="s">
-        <v>1602</v>
+        <v>2404</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>1603</v>
-      </c>
-      <c r="O740" s="1" t="s">
-        <v>1604</v>
+        <v>2423</v>
+      </c>
+      <c r="O740" s="13" t="s">
+        <v>2430</v>
       </c>
     </row>
     <row r="741" spans="1:15">
       <c r="A741" s="1" t="s">
-        <v>1605</v>
+        <v>2405</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>1606</v>
-      </c>
-      <c r="O741" s="1" t="s">
-        <v>1607</v>
+        <v>2424</v>
+      </c>
+      <c r="O741" s="13" t="s">
+        <v>2431</v>
       </c>
     </row>
     <row r="742" spans="1:15">
       <c r="A742" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B742" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="O742" s="13" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="743" spans="1:15">
+      <c r="A743" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B743" s="13" t="s">
+        <v>2427</v>
+      </c>
+      <c r="O743" s="13" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="744" spans="1:15">
+      <c r="A744" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="O744" s="13" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="749" spans="1:15">
+      <c r="A749" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="O749" s="1" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="750" spans="1:15">
+      <c r="A750" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="O750" s="1" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="751" spans="1:15">
+      <c r="A751" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="O751" s="1" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="752" spans="1:15">
+      <c r="A752" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="O752" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="753" spans="1:15">
+      <c r="A753" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="O753" s="1" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="754" spans="1:15">
+      <c r="A754" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="O754" s="1" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="755" spans="1:15">
+      <c r="A755" s="1" t="s">
         <v>1608</v>
       </c>
-      <c r="B742" s="1" t="s">
+      <c r="B755" s="1" t="s">
         <v>1609</v>
       </c>
-      <c r="O742" s="1" t="s">
+      <c r="O755" s="1" t="s">
         <v>1610</v>
-      </c>
-    </row>
-    <row r="744" spans="1:15">
-      <c r="A744" s="11" t="s">
-        <v>1611</v>
-      </c>
-      <c r="B744" s="1" t="s">
-        <v>1612</v>
-      </c>
-      <c r="O744" s="1" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="745" spans="1:15">
-      <c r="A745" s="11" t="s">
-        <v>1614</v>
-      </c>
-      <c r="B745" s="1" t="s">
-        <v>1615</v>
-      </c>
-      <c r="O745" s="1" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="746" spans="1:15">
-      <c r="A746" s="11" t="s">
-        <v>1617</v>
-      </c>
-      <c r="B746" s="1" t="s">
-        <v>1618</v>
-      </c>
-      <c r="O746" s="1" t="s">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="747" spans="1:15">
-      <c r="A747" s="11" t="s">
-        <v>1620</v>
-      </c>
-      <c r="B747" s="1" t="s">
-        <v>1621</v>
-      </c>
-      <c r="O747" s="1" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="748" spans="1:15">
-      <c r="A748" s="11" t="s">
-        <v>1623</v>
-      </c>
-      <c r="B748" s="1" t="s">
-        <v>1624</v>
-      </c>
-      <c r="O748" s="1" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="749" spans="1:15">
-      <c r="A749" s="11" t="s">
-        <v>1626</v>
-      </c>
-      <c r="B749" s="1" t="s">
-        <v>1627</v>
-      </c>
-      <c r="O749" s="1" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="750" spans="1:15">
-      <c r="A750" s="11" t="s">
-        <v>1629</v>
-      </c>
-      <c r="B750" s="1" t="s">
-        <v>1630</v>
-      </c>
-      <c r="O750" s="1" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="751" spans="1:15">
-      <c r="A751" s="11" t="s">
-        <v>1632</v>
-      </c>
-      <c r="B751" s="1" t="s">
-        <v>1633</v>
-      </c>
-      <c r="O751" s="1" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="753" spans="1:15">
-      <c r="A753" s="11" t="s">
-        <v>1635</v>
-      </c>
-      <c r="B753" s="11" t="s">
-        <v>1636</v>
-      </c>
-      <c r="O753" s="1" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="754" spans="1:15">
-      <c r="A754" s="11" t="s">
-        <v>1638</v>
-      </c>
-      <c r="B754" s="11" t="s">
-        <v>1639</v>
-      </c>
-      <c r="O754" s="1" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="755" spans="1:15">
-      <c r="A755" s="11" t="s">
-        <v>1641</v>
-      </c>
-      <c r="B755" s="11" t="s">
-        <v>1642</v>
-      </c>
-      <c r="O755" s="1" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="756" spans="1:15">
-      <c r="A756" s="11" t="s">
-        <v>1644</v>
-      </c>
-      <c r="B756" s="11" t="s">
-        <v>1645</v>
-      </c>
-      <c r="O756" s="1" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="757" spans="1:15">
       <c r="A757" s="11" t="s">
-        <v>1647</v>
-      </c>
-      <c r="B757" s="11" t="s">
-        <v>1648</v>
+        <v>1611</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>1612</v>
       </c>
       <c r="O757" s="1" t="s">
-        <v>1649</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="758" spans="1:15">
       <c r="A758" s="11" t="s">
-        <v>1650</v>
-      </c>
-      <c r="B758" s="11" t="s">
-        <v>1651</v>
+        <v>1614</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>1615</v>
       </c>
       <c r="O758" s="1" t="s">
-        <v>1652</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="759" spans="1:15">
       <c r="A759" s="11" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="O759" s="1" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="760" spans="1:15">
+      <c r="A760" s="11" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="O760" s="1" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="761" spans="1:15">
+      <c r="A761" s="11" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="O761" s="1" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="762" spans="1:15">
+      <c r="A762" s="11" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="O762" s="1" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="763" spans="1:15">
+      <c r="A763" s="11" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="O763" s="1" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="764" spans="1:15">
+      <c r="A764" s="11" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="O764" s="1" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="766" spans="1:15">
+      <c r="A766" s="11" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B766" s="11" t="s">
+        <v>1636</v>
+      </c>
+      <c r="O766" s="1" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="767" spans="1:15">
+      <c r="A767" s="11" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B767" s="11" t="s">
+        <v>1639</v>
+      </c>
+      <c r="O767" s="1" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="768" spans="1:15">
+      <c r="A768" s="11" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B768" s="11" t="s">
+        <v>1642</v>
+      </c>
+      <c r="O768" s="1" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="769" spans="1:15">
+      <c r="A769" s="11" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B769" s="11" t="s">
+        <v>1645</v>
+      </c>
+      <c r="O769" s="1" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="770" spans="1:15">
+      <c r="A770" s="11" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B770" s="11" t="s">
+        <v>1648</v>
+      </c>
+      <c r="O770" s="1" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="771" spans="1:15">
+      <c r="A771" s="11" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B771" s="11" t="s">
+        <v>1651</v>
+      </c>
+      <c r="O771" s="1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="772" spans="1:15">
+      <c r="A772" s="11" t="s">
         <v>1653</v>
       </c>
-      <c r="B759" s="11" t="s">
+      <c r="B772" s="11" t="s">
         <v>1651</v>
       </c>
-      <c r="O759" s="1" t="s">
+      <c r="O772" s="1" t="s">
         <v>1654</v>
       </c>
     </row>
-    <row r="761" spans="1:15">
-      <c r="A761" s="1" t="s">
+    <row r="774" spans="1:15">
+      <c r="A774" s="1" t="s">
         <v>1655</v>
       </c>
-      <c r="B761" s="1" t="s">
+      <c r="B774" s="1" t="s">
         <v>1656</v>
       </c>
-      <c r="O761" s="1" t="s">
+      <c r="O774" s="1" t="s">
         <v>1657</v>
       </c>
     </row>
-    <row r="762" spans="1:15">
-      <c r="A762" s="1" t="s">
+    <row r="775" spans="1:15">
+      <c r="A775" s="1" t="s">
         <v>1658</v>
       </c>
-      <c r="B762" s="1" t="s">
+      <c r="B775" s="1" t="s">
         <v>1659</v>
       </c>
-      <c r="O762" s="1" t="s">
+      <c r="O775" s="1" t="s">
         <v>1660</v>
-      </c>
-    </row>
-    <row r="764" spans="1:15">
-      <c r="A764" s="1" t="s">
-        <v>1661</v>
-      </c>
-      <c r="B764" s="1" t="s">
-        <v>1662</v>
-      </c>
-      <c r="O764" s="1" t="s">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="765" spans="1:15">
-      <c r="A765" s="1" t="s">
-        <v>1664</v>
-      </c>
-      <c r="B765" s="1" t="s">
-        <v>1665</v>
-      </c>
-      <c r="O765" s="1" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="766" spans="1:15">
-      <c r="A766" s="1" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B766" s="1" t="s">
-        <v>1668</v>
-      </c>
-      <c r="O766" s="1" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="768" spans="1:15">
-      <c r="A768" s="1" t="s">
-        <v>1670</v>
-      </c>
-      <c r="B768" s="1" t="s">
-        <v>1671</v>
-      </c>
-      <c r="O768" s="1" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="769" spans="1:15">
-      <c r="A769" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="B769" s="1" t="s">
-        <v>1674</v>
-      </c>
-      <c r="O769" s="1" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="770" spans="1:15">
-      <c r="A770" s="1" t="s">
-        <v>1676</v>
-      </c>
-      <c r="B770" s="1" t="s">
-        <v>1677</v>
-      </c>
-      <c r="O770" s="1" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="771" spans="1:15">
-      <c r="A771" s="1" t="s">
-        <v>1679</v>
-      </c>
-      <c r="B771" s="1" t="s">
-        <v>1680</v>
-      </c>
-      <c r="O771" s="1" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="772" spans="1:15" ht="27.6">
-      <c r="A772" s="1" t="s">
-        <v>1682</v>
-      </c>
-      <c r="B772" s="4" t="s">
-        <v>1683</v>
-      </c>
-      <c r="O772" s="4" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="773" spans="1:15" ht="27.6">
-      <c r="A773" s="1" t="s">
-        <v>1685</v>
-      </c>
-      <c r="B773" s="4" t="s">
-        <v>1686</v>
-      </c>
-      <c r="O773" s="4" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="775" spans="1:15" ht="409.6">
-      <c r="A775" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="B775" s="4" t="s">
-        <v>1688</v>
-      </c>
-      <c r="O775" s="4" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="776" spans="1:15" ht="27.6">
-      <c r="A776" s="1" t="s">
-        <v>1690</v>
-      </c>
-      <c r="B776" s="4" t="s">
-        <v>1691</v>
-      </c>
-      <c r="O776" s="4" t="s">
-        <v>1692</v>
       </c>
     </row>
     <row r="777" spans="1:15">
       <c r="A777" s="1" t="s">
-        <v>1693</v>
+        <v>1661</v>
       </c>
       <c r="B777" s="1" t="s">
-        <v>1694</v>
+        <v>1662</v>
       </c>
       <c r="O777" s="1" t="s">
-        <v>1695</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="778" spans="1:15">
       <c r="A778" s="1" t="s">
-        <v>1696</v>
+        <v>1664</v>
       </c>
       <c r="B778" s="1" t="s">
-        <v>1697</v>
+        <v>1665</v>
       </c>
       <c r="O778" s="1" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="780" spans="1:15">
-      <c r="A780" s="1" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B780" s="1" t="s">
-        <v>1700</v>
-      </c>
-      <c r="O780" s="1" t="s">
-        <v>1701</v>
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="779" spans="1:15">
+      <c r="A779" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="O779" s="1" t="s">
+        <v>1669</v>
       </c>
     </row>
     <row r="781" spans="1:15">
       <c r="A781" s="1" t="s">
-        <v>1702</v>
+        <v>1670</v>
       </c>
       <c r="B781" s="1" t="s">
-        <v>1703</v>
+        <v>1671</v>
       </c>
       <c r="O781" s="1" t="s">
-        <v>1704</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="782" spans="1:15">
       <c r="A782" s="1" t="s">
-        <v>1705</v>
+        <v>1673</v>
       </c>
       <c r="B782" s="1" t="s">
-        <v>1706</v>
+        <v>1674</v>
       </c>
       <c r="O782" s="1" t="s">
-        <v>1707</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="783" spans="1:15">
       <c r="A783" s="1" t="s">
-        <v>1708</v>
+        <v>1676</v>
       </c>
       <c r="B783" s="1" t="s">
-        <v>1709</v>
+        <v>1677</v>
       </c>
       <c r="O783" s="1" t="s">
-        <v>1710</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="784" spans="1:15">
       <c r="A784" s="1" t="s">
-        <v>1711</v>
+        <v>1679</v>
       </c>
       <c r="B784" s="1" t="s">
-        <v>1712</v>
+        <v>1680</v>
       </c>
       <c r="O784" s="1" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="785" spans="1:15">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="785" spans="1:15" ht="28">
       <c r="A785" s="1" t="s">
-        <v>1714</v>
-      </c>
-      <c r="B785" s="1" t="s">
-        <v>1715</v>
-      </c>
-      <c r="O785" s="1" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="787" spans="1:15">
-      <c r="A787" s="13" t="s">
-        <v>2308</v>
-      </c>
-      <c r="B787" s="13" t="s">
-        <v>2311</v>
-      </c>
-      <c r="O787" s="13" t="s">
-        <v>2312</v>
-      </c>
-    </row>
-    <row r="788" spans="1:15">
-      <c r="A788" s="13" t="s">
-        <v>2309</v>
-      </c>
-      <c r="B788" s="13" t="s">
-        <v>2310</v>
-      </c>
-      <c r="O788" s="13" t="s">
-        <v>2313</v>
+        <v>1682</v>
+      </c>
+      <c r="B785" s="4" t="s">
+        <v>1683</v>
+      </c>
+      <c r="O785" s="4" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="786" spans="1:15" ht="28">
+      <c r="A786" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B786" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="O786" s="4" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="788" spans="1:15" ht="409.5">
+      <c r="A788" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B788" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="O788" s="4" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="789" spans="1:15" ht="28">
+      <c r="A789" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B789" s="4" t="s">
+        <v>1691</v>
+      </c>
+      <c r="O789" s="4" t="s">
+        <v>1692</v>
       </c>
     </row>
     <row r="790" spans="1:15">
-      <c r="A790" s="13" t="s">
-        <v>2307</v>
+      <c r="A790" s="1" t="s">
+        <v>1693</v>
       </c>
       <c r="B790" s="1" t="s">
-        <v>1717</v>
+        <v>1694</v>
       </c>
       <c r="O790" s="1" t="s">
-        <v>1718</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="791" spans="1:15">
       <c r="A791" s="1" t="s">
-        <v>1719</v>
+        <v>1696</v>
       </c>
       <c r="B791" s="1" t="s">
-        <v>1720</v>
+        <v>1697</v>
       </c>
       <c r="O791" s="1" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="792" spans="1:15">
-      <c r="A792" s="1" t="s">
-        <v>1722</v>
-      </c>
-      <c r="B792" s="1" t="s">
-        <v>1723</v>
-      </c>
-      <c r="O792" s="1" t="s">
-        <v>1724</v>
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="793" spans="1:15">
+      <c r="A793" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B793" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="O793" s="1" t="s">
+        <v>1701</v>
       </c>
     </row>
     <row r="794" spans="1:15">
       <c r="A794" s="1" t="s">
-        <v>1725</v>
+        <v>1702</v>
       </c>
       <c r="B794" s="1" t="s">
-        <v>1726</v>
+        <v>1703</v>
       </c>
       <c r="O794" s="1" t="s">
-        <v>1727</v>
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="795" spans="1:15">
+      <c r="A795" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B795" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="O795" s="1" t="s">
+        <v>1707</v>
       </c>
     </row>
     <row r="796" spans="1:15">
       <c r="A796" s="1" t="s">
-        <v>1728</v>
+        <v>1708</v>
       </c>
       <c r="B796" s="1" t="s">
-        <v>1729</v>
+        <v>1709</v>
       </c>
       <c r="O796" s="1" t="s">
-        <v>1730</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="797" spans="1:15">
       <c r="A797" s="1" t="s">
-        <v>1731</v>
+        <v>1711</v>
       </c>
       <c r="B797" s="1" t="s">
-        <v>1732</v>
+        <v>1712</v>
       </c>
       <c r="O797" s="1" t="s">
-        <v>1733</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="798" spans="1:15">
       <c r="A798" s="1" t="s">
-        <v>1734</v>
+        <v>1714</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>1735</v>
+        <v>1715</v>
       </c>
       <c r="O798" s="1" t="s">
-        <v>1736</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="800" spans="1:15">
-      <c r="A800" s="1" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B800" s="1" t="s">
-        <v>1738</v>
-      </c>
-      <c r="O800" s="1" t="s">
-        <v>1739</v>
+      <c r="A800" s="13" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B800" s="13" t="s">
+        <v>2311</v>
+      </c>
+      <c r="O800" s="13" t="s">
+        <v>2312</v>
       </c>
     </row>
     <row r="801" spans="1:15">
-      <c r="A801" s="1" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B801" s="1" t="s">
-        <v>1741</v>
-      </c>
-      <c r="O801" s="1" t="s">
-        <v>1742</v>
+      <c r="A801" s="13" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B801" s="13" t="s">
+        <v>2310</v>
+      </c>
+      <c r="O801" s="13" t="s">
+        <v>2313</v>
       </c>
     </row>
     <row r="803" spans="1:15">
-      <c r="A803" s="1" t="s">
-        <v>1743</v>
+      <c r="A803" s="13" t="s">
+        <v>2307</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>1744</v>
+        <v>1717</v>
       </c>
       <c r="O803" s="1" t="s">
-        <v>1745</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="804" spans="1:15">
       <c r="A804" s="1" t="s">
-        <v>1746</v>
+        <v>1719</v>
       </c>
       <c r="B804" s="1" t="s">
-        <v>1747</v>
+        <v>1720</v>
       </c>
       <c r="O804" s="1" t="s">
-        <v>1748</v>
-      </c>
-    </row>
-    <row r="806" spans="1:15">
-      <c r="A806" s="1" t="s">
-        <v>1749</v>
-      </c>
-      <c r="B806" s="1" t="s">
-        <v>1750</v>
-      </c>
-      <c r="O806" s="1" t="s">
-        <v>1751</v>
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="805" spans="1:15">
+      <c r="A805" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B805" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="O805" s="1" t="s">
+        <v>1724</v>
       </c>
     </row>
     <row r="807" spans="1:15">
       <c r="A807" s="1" t="s">
-        <v>1752</v>
+        <v>1725</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>1753</v>
+        <v>1726</v>
       </c>
       <c r="O807" s="1" t="s">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="808" spans="1:15">
-      <c r="A808" s="1" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B808" s="1" t="s">
-        <v>1756</v>
-      </c>
-      <c r="O808" s="12" t="s">
-        <v>1757</v>
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="809" spans="1:15">
+      <c r="A809" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B809" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="O809" s="1" t="s">
+        <v>1730</v>
       </c>
     </row>
     <row r="810" spans="1:15">
       <c r="A810" s="1" t="s">
-        <v>1758</v>
+        <v>1731</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>1759</v>
+        <v>1732</v>
       </c>
       <c r="O810" s="1" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="812" spans="1:15">
-      <c r="A812" s="1" t="s">
-        <v>1761</v>
-      </c>
-      <c r="B812" s="1" t="s">
-        <v>1762</v>
-      </c>
-      <c r="O812" s="1" t="s">
-        <v>1763</v>
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="811" spans="1:15">
+      <c r="A811" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B811" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="O811" s="1" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="813" spans="1:15">
+      <c r="A813" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B813" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="O813" s="1" t="s">
+        <v>1739</v>
       </c>
     </row>
     <row r="814" spans="1:15">
       <c r="A814" s="1" t="s">
-        <v>1764</v>
+        <v>1740</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>1765</v>
+        <v>1741</v>
       </c>
       <c r="O814" s="1" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="815" spans="1:15">
-      <c r="A815" s="1" t="s">
-        <v>1767</v>
-      </c>
-      <c r="B815" s="1" t="s">
-        <v>1768</v>
-      </c>
-      <c r="O815" s="1" t="s">
-        <v>1769</v>
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="816" spans="1:15">
+      <c r="A816" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B816" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="O816" s="1" t="s">
+        <v>1745</v>
       </c>
     </row>
     <row r="817" spans="1:15">
       <c r="A817" s="1" t="s">
-        <v>1770</v>
+        <v>1746</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>1771</v>
+        <v>1747</v>
       </c>
       <c r="O817" s="1" t="s">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="818" spans="1:15">
-      <c r="A818" s="1" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B818" s="1" t="s">
-        <v>1774</v>
-      </c>
-      <c r="O818" s="1" t="s">
-        <v>1775</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="819" spans="1:15">
       <c r="A819" s="1" t="s">
-        <v>1776</v>
+        <v>1749</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>1777</v>
+        <v>1750</v>
       </c>
       <c r="O819" s="1" t="s">
-        <v>1778</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="820" spans="1:15">
       <c r="A820" s="1" t="s">
-        <v>1779</v>
+        <v>1752</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>1780</v>
+        <v>1753</v>
       </c>
       <c r="O820" s="1" t="s">
-        <v>1781</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="821" spans="1:15">
       <c r="A821" s="1" t="s">
-        <v>1782</v>
+        <v>1755</v>
       </c>
       <c r="B821" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="O821" s="1" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="822" spans="1:15">
-      <c r="A822" s="1" t="s">
-        <v>1784</v>
-      </c>
-      <c r="B822" s="1" t="s">
-        <v>1785</v>
-      </c>
-      <c r="O822" s="1" t="s">
-        <v>1786</v>
+        <v>1756</v>
+      </c>
+      <c r="O821" s="12" t="s">
+        <v>1757</v>
       </c>
     </row>
     <row r="823" spans="1:15">
       <c r="A823" s="1" t="s">
-        <v>1787</v>
+        <v>1758</v>
       </c>
       <c r="B823" s="1" t="s">
-        <v>1788</v>
+        <v>1759</v>
       </c>
       <c r="O823" s="1" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="824" spans="1:15">
-      <c r="A824" s="1" t="s">
-        <v>1790</v>
-      </c>
-      <c r="B824" s="1" t="s">
-        <v>1791</v>
-      </c>
-      <c r="O824" s="1" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="826" spans="1:15">
-      <c r="A826" s="1" t="s">
-        <v>1793</v>
-      </c>
-      <c r="B826" s="1" t="s">
-        <v>1794</v>
-      </c>
-      <c r="O826" s="1" t="s">
-        <v>1795</v>
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="825" spans="1:15">
+      <c r="A825" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B825" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="O825" s="1" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="827" spans="1:15">
+      <c r="A827" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B827" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="O827" s="1" t="s">
+        <v>1766</v>
       </c>
     </row>
     <row r="828" spans="1:15">
       <c r="A828" s="1" t="s">
-        <v>1796</v>
+        <v>1767</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>1797</v>
+        <v>1768</v>
       </c>
       <c r="O828" s="1" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="829" spans="1:15">
-      <c r="A829" s="1" t="s">
-        <v>1799</v>
-      </c>
-      <c r="B829" s="1" t="s">
-        <v>1800</v>
-      </c>
-      <c r="O829" s="1" t="s">
-        <v>1801</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="830" spans="1:15">
       <c r="A830" s="1" t="s">
-        <v>1802</v>
+        <v>1770</v>
       </c>
       <c r="B830" s="1" t="s">
-        <v>1803</v>
+        <v>1771</v>
       </c>
       <c r="O830" s="1" t="s">
-        <v>1804</v>
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="831" spans="1:15">
+      <c r="A831" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B831" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="O831" s="1" t="s">
+        <v>1775</v>
       </c>
     </row>
     <row r="832" spans="1:15">
       <c r="A832" s="1" t="s">
-        <v>1805</v>
+        <v>1776</v>
       </c>
       <c r="B832" s="1" t="s">
-        <v>1806</v>
+        <v>1777</v>
       </c>
       <c r="O832" s="1" t="s">
-        <v>1807</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="833" spans="1:15">
       <c r="A833" s="1" t="s">
-        <v>1808</v>
+        <v>1779</v>
       </c>
       <c r="B833" s="1" t="s">
-        <v>1809</v>
+        <v>1780</v>
       </c>
       <c r="O833" s="1" t="s">
-        <v>1810</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="834" spans="1:15">
       <c r="A834" s="1" t="s">
-        <v>1811</v>
+        <v>1782</v>
       </c>
       <c r="B834" s="1" t="s">
-        <v>1812</v>
+        <v>766</v>
       </c>
       <c r="O834" s="1" t="s">
-        <v>1813</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="835" spans="1:15">
       <c r="A835" s="1" t="s">
-        <v>1814</v>
+        <v>1784</v>
       </c>
       <c r="B835" s="1" t="s">
-        <v>1815</v>
+        <v>1785</v>
       </c>
       <c r="O835" s="1" t="s">
-        <v>1816</v>
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="836" spans="1:15">
+      <c r="A836" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B836" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="O836" s="1" t="s">
+        <v>1789</v>
       </c>
     </row>
     <row r="837" spans="1:15">
       <c r="A837" s="1" t="s">
-        <v>1817</v>
+        <v>1790</v>
       </c>
       <c r="B837" s="1" t="s">
-        <v>1818</v>
+        <v>1791</v>
       </c>
       <c r="O837" s="1" t="s">
-        <v>1819</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="839" spans="1:15">
       <c r="A839" s="1" t="s">
-        <v>1820</v>
+        <v>1793</v>
       </c>
       <c r="B839" s="1" t="s">
-        <v>1821</v>
+        <v>1794</v>
       </c>
       <c r="O839" s="1" t="s">
-        <v>1822</v>
-      </c>
-    </row>
-    <row r="840" spans="1:15">
-      <c r="A840" s="1" t="s">
-        <v>1823</v>
-      </c>
-      <c r="B840" s="1" t="s">
-        <v>1824</v>
-      </c>
-      <c r="O840" s="1" t="s">
-        <v>1825</v>
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="841" spans="1:15">
+      <c r="A841" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B841" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="O841" s="1" t="s">
+        <v>1798</v>
       </c>
     </row>
     <row r="842" spans="1:15">
       <c r="A842" s="1" t="s">
-        <v>1826</v>
+        <v>1799</v>
       </c>
       <c r="B842" s="1" t="s">
-        <v>1827</v>
+        <v>1800</v>
       </c>
       <c r="O842" s="1" t="s">
-        <v>1828</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="843" spans="1:15">
       <c r="A843" s="1" t="s">
-        <v>1829</v>
+        <v>1802</v>
       </c>
       <c r="B843" s="1" t="s">
-        <v>1830</v>
+        <v>1803</v>
       </c>
       <c r="O843" s="1" t="s">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="844" spans="1:15">
-      <c r="A844" s="1" t="s">
-        <v>1832</v>
-      </c>
-      <c r="B844" s="1" t="s">
-        <v>1833</v>
-      </c>
-      <c r="O844" s="1" t="s">
-        <v>1834</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="845" spans="1:15">
       <c r="A845" s="1" t="s">
-        <v>1835</v>
+        <v>1805</v>
       </c>
       <c r="B845" s="1" t="s">
-        <v>1836</v>
+        <v>1806</v>
       </c>
       <c r="O845" s="1" t="s">
-        <v>1837</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="846" spans="1:15">
       <c r="A846" s="1" t="s">
-        <v>1838</v>
+        <v>1808</v>
       </c>
       <c r="B846" s="1" t="s">
-        <v>1839</v>
+        <v>1809</v>
       </c>
       <c r="O846" s="1" t="s">
-        <v>1840</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="847" spans="1:15">
       <c r="A847" s="1" t="s">
-        <v>1841</v>
+        <v>1811</v>
       </c>
       <c r="B847" s="1" t="s">
-        <v>1842</v>
+        <v>1812</v>
       </c>
       <c r="O847" s="1" t="s">
-        <v>1843</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="848" spans="1:15">
       <c r="A848" s="1" t="s">
-        <v>1844</v>
+        <v>1814</v>
       </c>
       <c r="B848" s="1" t="s">
-        <v>1845</v>
+        <v>1815</v>
       </c>
       <c r="O848" s="1" t="s">
-        <v>1846</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="849" spans="1:15">
       <c r="A849" s="1" t="s">
-        <v>1847</v>
-      </c>
-      <c r="B849" s="1" t="s">
-        <v>1848</v>
-      </c>
-      <c r="O849" s="1" t="s">
-        <v>1849</v>
-      </c>
-    </row>
-    <row r="850" spans="1:15">
-      <c r="A850" s="1" t="s">
-        <v>1850</v>
-      </c>
-      <c r="B850" s="1" t="s">
-        <v>1827</v>
-      </c>
-      <c r="O850" s="1" t="s">
-        <v>1828</v>
+        <v>2418</v>
+      </c>
+      <c r="B849" s="13" t="s">
+        <v>2419</v>
+      </c>
+      <c r="O849" s="13" t="s">
+        <v>2420</v>
       </c>
     </row>
     <row r="851" spans="1:15">
       <c r="A851" s="1" t="s">
-        <v>1851</v>
+        <v>1817</v>
       </c>
       <c r="B851" s="1" t="s">
-        <v>1852</v>
+        <v>1818</v>
       </c>
       <c r="O851" s="1" t="s">
-        <v>1853</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="853" spans="1:15">
       <c r="A853" s="1" t="s">
-        <v>1854</v>
+        <v>1820</v>
       </c>
       <c r="B853" s="1" t="s">
-        <v>1855</v>
+        <v>1821</v>
       </c>
       <c r="O853" s="1" t="s">
-        <v>1856</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="854" spans="1:15">
       <c r="A854" s="1" t="s">
-        <v>1857</v>
+        <v>1823</v>
       </c>
       <c r="B854" s="1" t="s">
-        <v>1858</v>
+        <v>1824</v>
       </c>
       <c r="O854" s="1" t="s">
-        <v>1859</v>
-      </c>
-    </row>
-    <row r="855" spans="1:15">
-      <c r="A855" s="1" t="s">
-        <v>1860</v>
-      </c>
-      <c r="B855" s="1" t="s">
-        <v>1861</v>
-      </c>
-      <c r="O855" s="1" t="s">
-        <v>1862</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="856" spans="1:15">
       <c r="A856" s="1" t="s">
-        <v>1863</v>
+        <v>1826</v>
       </c>
       <c r="B856" s="1" t="s">
-        <v>1864</v>
+        <v>1827</v>
       </c>
       <c r="O856" s="1" t="s">
-        <v>1865</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="857" spans="1:15">
       <c r="A857" s="1" t="s">
-        <v>1866</v>
+        <v>1829</v>
       </c>
       <c r="B857" s="1" t="s">
-        <v>1867</v>
+        <v>1830</v>
       </c>
       <c r="O857" s="1" t="s">
-        <v>1868</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="858" spans="1:15">
       <c r="A858" s="1" t="s">
-        <v>1869</v>
+        <v>1832</v>
       </c>
       <c r="B858" s="1" t="s">
-        <v>1870</v>
+        <v>1833</v>
       </c>
       <c r="O858" s="1" t="s">
-        <v>1871</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="859" spans="1:15">
       <c r="A859" s="1" t="s">
-        <v>1872</v>
+        <v>1835</v>
       </c>
       <c r="B859" s="1" t="s">
-        <v>1873</v>
+        <v>1836</v>
       </c>
       <c r="O859" s="1" t="s">
-        <v>1874</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="860" spans="1:15">
       <c r="A860" s="1" t="s">
-        <v>1875</v>
+        <v>1838</v>
       </c>
       <c r="B860" s="1" t="s">
-        <v>1876</v>
+        <v>1839</v>
       </c>
       <c r="O860" s="1" t="s">
-        <v>1877</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="861" spans="1:15">
       <c r="A861" s="1" t="s">
-        <v>1878</v>
+        <v>1841</v>
       </c>
       <c r="B861" s="1" t="s">
-        <v>1879</v>
+        <v>1842</v>
       </c>
       <c r="O861" s="1" t="s">
-        <v>1880</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="862" spans="1:15">
       <c r="A862" s="1" t="s">
-        <v>2359</v>
+        <v>1844</v>
       </c>
       <c r="B862" s="1" t="s">
-        <v>1881</v>
+        <v>1845</v>
       </c>
       <c r="O862" s="1" t="s">
-        <v>1882</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="863" spans="1:15">
       <c r="A863" s="1" t="s">
-        <v>1883</v>
+        <v>1847</v>
       </c>
       <c r="B863" s="1" t="s">
-        <v>1884</v>
+        <v>1848</v>
       </c>
       <c r="O863" s="1" t="s">
-        <v>1885</v>
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="864" spans="1:15">
+      <c r="A864" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B864" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="O864" s="1" t="s">
+        <v>1828</v>
       </c>
     </row>
     <row r="865" spans="1:15">
       <c r="A865" s="1" t="s">
-        <v>1886</v>
+        <v>1851</v>
       </c>
       <c r="B865" s="1" t="s">
-        <v>1887</v>
+        <v>1852</v>
       </c>
       <c r="O865" s="1" t="s">
-        <v>1888</v>
-      </c>
-    </row>
-    <row r="866" spans="1:15">
-      <c r="A866" s="1" t="s">
-        <v>1889</v>
-      </c>
-      <c r="B866" s="1" t="s">
-        <v>1890</v>
-      </c>
-      <c r="O866" s="1" t="s">
-        <v>1891</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="867" spans="1:15">
       <c r="A867" s="1" t="s">
-        <v>1892</v>
+        <v>1854</v>
       </c>
       <c r="B867" s="1" t="s">
-        <v>1893</v>
+        <v>1855</v>
       </c>
       <c r="O867" s="1" t="s">
-        <v>1894</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="868" spans="1:15">
       <c r="A868" s="1" t="s">
-        <v>1895</v>
+        <v>1857</v>
       </c>
       <c r="B868" s="1" t="s">
-        <v>1896</v>
+        <v>1858</v>
       </c>
       <c r="O868" s="1" t="s">
-        <v>1897</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="869" spans="1:15">
       <c r="A869" s="1" t="s">
-        <v>1898</v>
+        <v>1860</v>
       </c>
       <c r="B869" s="1" t="s">
-        <v>1899</v>
+        <v>1861</v>
       </c>
       <c r="O869" s="1" t="s">
-        <v>1900</v>
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="870" spans="1:15">
+      <c r="A870" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B870" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="O870" s="1" t="s">
+        <v>1865</v>
       </c>
     </row>
     <row r="871" spans="1:15">
       <c r="A871" s="1" t="s">
-        <v>1901</v>
+        <v>1866</v>
       </c>
       <c r="B871" s="1" t="s">
-        <v>1902</v>
+        <v>1867</v>
       </c>
       <c r="O871" s="1" t="s">
-        <v>1903</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="872" spans="1:15">
       <c r="A872" s="1" t="s">
-        <v>1904</v>
+        <v>1869</v>
       </c>
       <c r="B872" s="1" t="s">
-        <v>1905</v>
+        <v>1870</v>
       </c>
       <c r="O872" s="1" t="s">
-        <v>1906</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="873" spans="1:15">
       <c r="A873" s="1" t="s">
-        <v>1907</v>
+        <v>1872</v>
       </c>
       <c r="B873" s="1" t="s">
-        <v>1908</v>
+        <v>1873</v>
       </c>
       <c r="O873" s="1" t="s">
-        <v>1909</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="874" spans="1:15">
       <c r="A874" s="1" t="s">
-        <v>1910</v>
+        <v>1875</v>
       </c>
       <c r="B874" s="1" t="s">
-        <v>1911</v>
+        <v>1876</v>
       </c>
       <c r="O874" s="1" t="s">
-        <v>1912</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="875" spans="1:15">
       <c r="A875" s="1" t="s">
-        <v>1913</v>
+        <v>1878</v>
       </c>
       <c r="B875" s="1" t="s">
-        <v>1914</v>
+        <v>1879</v>
       </c>
       <c r="O875" s="1" t="s">
-        <v>1915</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="876" spans="1:15">
       <c r="A876" s="1" t="s">
-        <v>1916</v>
+        <v>2356</v>
       </c>
       <c r="B876" s="1" t="s">
-        <v>1917</v>
+        <v>1881</v>
       </c>
       <c r="O876" s="1" t="s">
-        <v>1918</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="877" spans="1:15">
       <c r="A877" s="1" t="s">
-        <v>1919</v>
+        <v>1883</v>
       </c>
       <c r="B877" s="1" t="s">
-        <v>1920</v>
+        <v>1884</v>
       </c>
       <c r="O877" s="1" t="s">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="878" spans="1:15">
-      <c r="A878" s="1" t="s">
-        <v>1922</v>
-      </c>
-      <c r="B878" s="1" t="s">
-        <v>1923</v>
-      </c>
-      <c r="O878" s="1" t="s">
-        <v>1924</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="879" spans="1:15">
       <c r="A879" s="1" t="s">
-        <v>1925</v>
+        <v>1886</v>
       </c>
       <c r="B879" s="1" t="s">
-        <v>1926</v>
+        <v>1887</v>
       </c>
       <c r="O879" s="1" t="s">
-        <v>1927</v>
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="880" spans="1:15">
+      <c r="A880" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B880" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="O880" s="1" t="s">
+        <v>1891</v>
       </c>
     </row>
     <row r="881" spans="1:15">
       <c r="A881" s="1" t="s">
-        <v>1928</v>
+        <v>1892</v>
       </c>
       <c r="B881" s="1" t="s">
-        <v>1929</v>
+        <v>1893</v>
       </c>
       <c r="O881" s="1" t="s">
-        <v>1930</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="882" spans="1:15">
       <c r="A882" s="1" t="s">
-        <v>1931</v>
+        <v>1895</v>
       </c>
       <c r="B882" s="1" t="s">
-        <v>1932</v>
+        <v>1896</v>
       </c>
       <c r="O882" s="1" t="s">
-        <v>1933</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="883" spans="1:15">
       <c r="A883" s="1" t="s">
-        <v>1934</v>
+        <v>1898</v>
       </c>
       <c r="B883" s="1" t="s">
-        <v>1935</v>
+        <v>1899</v>
       </c>
       <c r="O883" s="1" t="s">
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="884" spans="1:15">
-      <c r="A884" s="1" t="s">
-        <v>1937</v>
-      </c>
-      <c r="B884" s="1" t="s">
-        <v>1938</v>
-      </c>
-      <c r="O884" s="1" t="s">
-        <v>1939</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="885" spans="1:15">
       <c r="A885" s="1" t="s">
-        <v>1940</v>
+        <v>1901</v>
       </c>
       <c r="B885" s="1" t="s">
-        <v>1941</v>
+        <v>1902</v>
       </c>
       <c r="O885" s="1" t="s">
-        <v>1942</v>
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="886" spans="1:15">
+      <c r="A886" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B886" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="O886" s="1" t="s">
+        <v>1906</v>
       </c>
     </row>
     <row r="887" spans="1:15">
       <c r="A887" s="1" t="s">
-        <v>1943</v>
+        <v>1907</v>
       </c>
       <c r="B887" s="1" t="s">
-        <v>1944</v>
+        <v>1908</v>
       </c>
       <c r="O887" s="1" t="s">
-        <v>1945</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="888" spans="1:15">
       <c r="A888" s="1" t="s">
-        <v>1946</v>
+        <v>1910</v>
       </c>
       <c r="B888" s="1" t="s">
-        <v>766</v>
+        <v>1911</v>
       </c>
       <c r="O888" s="1" t="s">
-        <v>1783</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="889" spans="1:15">
       <c r="A889" s="1" t="s">
-        <v>1947</v>
+        <v>1913</v>
       </c>
       <c r="B889" s="1" t="s">
-        <v>1785</v>
+        <v>1914</v>
       </c>
       <c r="O889" s="1" t="s">
-        <v>1786</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="890" spans="1:15">
       <c r="A890" s="1" t="s">
-        <v>1948</v>
+        <v>1916</v>
       </c>
       <c r="B890" s="1" t="s">
-        <v>1949</v>
+        <v>1917</v>
       </c>
       <c r="O890" s="1" t="s">
-        <v>1950</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="891" spans="1:15">
       <c r="A891" s="1" t="s">
-        <v>1951</v>
+        <v>1919</v>
       </c>
       <c r="B891" s="1" t="s">
-        <v>1952</v>
+        <v>1920</v>
       </c>
       <c r="O891" s="1" t="s">
-        <v>1953</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="892" spans="1:15">
       <c r="A892" s="1" t="s">
-        <v>1954</v>
+        <v>1922</v>
       </c>
       <c r="B892" s="1" t="s">
-        <v>1955</v>
+        <v>1923</v>
       </c>
       <c r="O892" s="1" t="s">
-        <v>1953</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="893" spans="1:15">
       <c r="A893" s="1" t="s">
-        <v>1956</v>
+        <v>1925</v>
       </c>
       <c r="B893" s="1" t="s">
-        <v>1957</v>
+        <v>1926</v>
       </c>
       <c r="O893" s="1" t="s">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="894" spans="1:15">
-      <c r="A894" s="1" t="s">
-        <v>1959</v>
-      </c>
-      <c r="B894" s="1" t="s">
-        <v>1960</v>
-      </c>
-      <c r="O894" s="1" t="s">
-        <v>1958</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="895" spans="1:15">
       <c r="A895" s="1" t="s">
-        <v>1961</v>
+        <v>1928</v>
       </c>
       <c r="B895" s="1" t="s">
-        <v>1962</v>
+        <v>1929</v>
       </c>
       <c r="O895" s="1" t="s">
-        <v>1963</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="896" spans="1:15">
       <c r="A896" s="1" t="s">
-        <v>1964</v>
+        <v>1931</v>
       </c>
       <c r="B896" s="1" t="s">
-        <v>1965</v>
+        <v>1932</v>
       </c>
       <c r="O896" s="1" t="s">
-        <v>1963</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="897" spans="1:15">
       <c r="A897" s="1" t="s">
-        <v>1966</v>
+        <v>1934</v>
       </c>
       <c r="B897" s="1" t="s">
-        <v>1967</v>
+        <v>1935</v>
       </c>
       <c r="O897" s="1" t="s">
-        <v>1968</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="898" spans="1:15">
       <c r="A898" s="1" t="s">
-        <v>1969</v>
+        <v>1937</v>
       </c>
       <c r="B898" s="1" t="s">
-        <v>1970</v>
+        <v>1938</v>
       </c>
       <c r="O898" s="1" t="s">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="900" spans="1:15">
-      <c r="A900" s="1" t="s">
-        <v>1971</v>
-      </c>
-      <c r="B900" s="1" t="s">
-        <v>1972</v>
-      </c>
-      <c r="O900" s="1" t="s">
-        <v>1973</v>
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="899" spans="1:15">
+      <c r="A899" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B899" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="O899" s="1" t="s">
+        <v>1942</v>
       </c>
     </row>
     <row r="901" spans="1:15">
       <c r="A901" s="1" t="s">
-        <v>1974</v>
+        <v>1943</v>
       </c>
       <c r="B901" s="1" t="s">
-        <v>1975</v>
+        <v>1944</v>
       </c>
       <c r="O901" s="1" t="s">
-        <v>1976</v>
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="902" spans="1:15">
+      <c r="A902" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B902" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="O902" s="1" t="s">
+        <v>1783</v>
       </c>
     </row>
     <row r="903" spans="1:15">
       <c r="A903" s="1" t="s">
-        <v>1977</v>
+        <v>1947</v>
       </c>
       <c r="B903" s="1" t="s">
-        <v>1978</v>
+        <v>1785</v>
       </c>
       <c r="O903" s="1" t="s">
-        <v>1979</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="904" spans="1:15">
       <c r="A904" s="1" t="s">
-        <v>1980</v>
+        <v>1948</v>
       </c>
       <c r="B904" s="1" t="s">
-        <v>1981</v>
+        <v>1949</v>
       </c>
       <c r="O904" s="1" t="s">
-        <v>1982</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="905" spans="1:15">
       <c r="A905" s="1" t="s">
-        <v>1983</v>
+        <v>1951</v>
       </c>
       <c r="B905" s="1" t="s">
-        <v>1984</v>
+        <v>1952</v>
       </c>
       <c r="O905" s="1" t="s">
-        <v>1985</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="906" spans="1:15">
       <c r="A906" s="1" t="s">
-        <v>1986</v>
+        <v>1954</v>
       </c>
       <c r="B906" s="1" t="s">
-        <v>1987</v>
+        <v>1955</v>
       </c>
       <c r="O906" s="1" t="s">
-        <v>1988</v>
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="907" spans="1:15">
+      <c r="A907" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B907" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="O907" s="1" t="s">
+        <v>1958</v>
       </c>
     </row>
     <row r="908" spans="1:15">
       <c r="A908" s="1" t="s">
-        <v>1989</v>
+        <v>1959</v>
       </c>
       <c r="B908" s="1" t="s">
-        <v>1990</v>
+        <v>1960</v>
       </c>
       <c r="O908" s="1" t="s">
-        <v>1991</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="909" spans="1:15">
       <c r="A909" s="1" t="s">
-        <v>1992</v>
+        <v>1961</v>
       </c>
       <c r="B909" s="1" t="s">
-        <v>1993</v>
+        <v>1962</v>
       </c>
       <c r="O909" s="1" t="s">
-        <v>1994</v>
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="910" spans="1:15">
+      <c r="A910" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B910" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="O910" s="1" t="s">
+        <v>1963</v>
       </c>
     </row>
     <row r="911" spans="1:15">
       <c r="A911" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B911" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="O911" s="1" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="912" spans="1:15">
+      <c r="A912" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B912" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="O912" s="1" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="914" spans="1:15">
+      <c r="A914" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B914" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="O914" s="1" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="915" spans="1:15">
+      <c r="A915" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B915" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="O915" s="1" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="917" spans="1:15">
+      <c r="A917" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B917" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="O917" s="1" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="918" spans="1:15">
+      <c r="A918" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B918" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="O918" s="1" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="919" spans="1:15">
+      <c r="A919" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B919" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="O919" s="1" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="920" spans="1:15">
+      <c r="A920" s="1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B920" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="O920" s="1" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="922" spans="1:15">
+      <c r="A922" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B922" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="O922" s="1" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="923" spans="1:15">
+      <c r="A923" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B923" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="O923" s="1" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="925" spans="1:15">
+      <c r="A925" s="1" t="s">
         <v>1995</v>
       </c>
-      <c r="B911" s="1" t="s">
+      <c r="B925" s="1" t="s">
         <v>1996</v>
       </c>
-      <c r="O911" s="1" t="s">
+      <c r="O925" s="1" t="s">
         <v>1997</v>
       </c>
     </row>
-    <row r="913" spans="1:15">
-      <c r="A913" s="13" t="s">
+    <row r="927" spans="1:15">
+      <c r="A927" s="13" t="s">
         <v>2334</v>
       </c>
-      <c r="B913" s="13" t="s">
+      <c r="B927" s="13" t="s">
         <v>2335</v>
       </c>
-      <c r="O913" s="13" t="s">
+      <c r="O927" s="13" t="s">
         <v>2336</v>
       </c>
     </row>
-    <row r="915" spans="1:15">
-      <c r="A915" s="13" t="s">
-        <v>2356</v>
-      </c>
-      <c r="B915" s="13" t="s">
-        <v>2357</v>
-      </c>
-      <c r="O915" s="13" t="s">
-        <v>2358</v>
-      </c>
+    <row r="928" spans="1:15">
+      <c r="A928" s="13" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B928" s="13" t="s">
+        <v>2399</v>
+      </c>
+      <c r="O928" s="13" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="929" spans="1:16">
+      <c r="A929" s="16" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B929" s="16" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C929" s="4"/>
+      <c r="O929" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="P929" s="15"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -16844,31 +17111,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="33" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.08984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" style="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6328125" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.08984375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.08984375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6328125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.90625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.36328125" style="1" customWidth="1"/>
     <col min="18" max="18" width="33" style="1" customWidth="1"/>
     <col min="19" max="16384" width="33" style="1"/>
   </cols>
@@ -17432,13 +17699,24 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="13" t="s">
-        <v>2370</v>
+        <v>2367</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
       <c r="O49" s="13" t="s">
-        <v>2372</v>
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="13" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>2416</v>
+      </c>
+      <c r="O50" s="13" t="s">
+        <v>2417</v>
       </c>
     </row>
   </sheetData>
@@ -17452,17 +17730,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="58" style="1" customWidth="1"/>
-    <col min="3" max="14" width="9.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="58.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="14" width="9.08984375" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="58.90625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="13.5" customHeight="1">
@@ -17515,7 +17793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" customFormat="1" ht="28.2">
+    <row r="2" spans="1:17" customFormat="1" ht="28.5">
       <c r="A2" s="1" t="s">
         <v>2130</v>
       </c>
@@ -17540,7 +17818,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="55.2">
+    <row r="3" spans="1:17" ht="56">
       <c r="A3" s="1" t="s">
         <v>2133</v>
       </c>
@@ -17551,7 +17829,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="41.4">
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="1" t="s">
         <v>2136</v>
       </c>
@@ -17562,7 +17840,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="69">
+    <row r="5" spans="1:17" ht="70">
       <c r="A5" s="1" t="s">
         <v>2139</v>
       </c>
@@ -17573,7 +17851,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="41.4">
+    <row r="6" spans="1:17" ht="42">
       <c r="A6" s="1" t="s">
         <v>2142</v>
       </c>
@@ -17584,7 +17862,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="55.2">
+    <row r="7" spans="1:17" ht="56">
       <c r="A7" s="1" t="s">
         <v>2145</v>
       </c>
@@ -17621,7 +17899,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
@@ -18514,16 +18792,16 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="24.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.88671875" style="1" customWidth="1"/>
-    <col min="3" max="14" width="9.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="69.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="24.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.90625" style="1" customWidth="1"/>
+    <col min="3" max="14" width="9.08984375" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="69.54296875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="13.5" customHeight="1">
@@ -18664,7 +18942,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="14.4">
+    <row r="10" spans="1:17" ht="14.5">
       <c r="A10" s="1" t="s">
         <v>2247</v>
       </c>
@@ -18742,16 +19020,16 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="24.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.88671875" style="1" customWidth="1"/>
-    <col min="3" max="14" width="9.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="69.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="24.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.90625" style="1" customWidth="1"/>
+    <col min="3" max="14" width="9.08984375" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="69.54296875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="13.5" customHeight="1">
@@ -18851,26 +19129,26 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.08984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" style="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6328125" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="39.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5.33203125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="12" max="12" width="7.08984375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.08984375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6328125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="39.08984375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.90625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.36328125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -19062,6 +19340,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -19103,25 +19392,14 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-</pixelators>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WindowsFile\TheOtherRolesRework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA008AB-5096-4C7D-9F77-248E247A5D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACD78A7-4DA0-4EC6-AC61-A4789B03F24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="2437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2673" uniqueCount="2461">
   <si>
     <t>English</t>
   </si>
@@ -7559,10 +7559,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>prophetButtonBlind</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Examine</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -7637,6 +7633,104 @@
   </si>
   <si>
     <t>Prophecy to Find Impostors</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>peacedove</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>peacedoveIntroDesc</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>peacedoveShortDesc</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>peaceDoveCooldown</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>peaceDoveReloadMaxNum</t>
+  </si>
+  <si>
+    <t>PeaceDove</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reload The Cooldowns to Impostors</t>
+  </si>
+  <si>
+    <t>Reload The Cooldowns to Impostors</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reload Cooldowns</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reload Max Num</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>和平之鸽</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣传和平，抵制战争</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间为追加杀手冷却的</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>peaceReloadSkills</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can Reload Skills</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>重制杀手们的冷却时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>重制最大次数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以重制技能冷却时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prophetButtonExamine</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>peacedoveButtonReload</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reload</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>重制</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>peacedoveReloadText</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peacedove Reload Your Cooldown</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>和平之鸽重置了你的冷却时间！</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -8188,10 +8282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q929"/>
+  <dimension ref="A1:Q939"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A730" workbookViewId="0">
-      <selection activeCell="B736" sqref="B736"/>
+    <sheetView topLeftCell="A879" workbookViewId="0">
+      <selection activeCell="O889" sqref="O889"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14"/>
@@ -15387,7 +15481,7 @@
         <v>2410</v>
       </c>
       <c r="B735" s="13" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="C735" s="13"/>
       <c r="O735" s="13" t="s">
@@ -15399,7 +15493,7 @@
         <v>2411</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="O736" s="13" t="s">
         <v>2414</v>
@@ -15410,10 +15504,10 @@
         <v>2408</v>
       </c>
       <c r="B738" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="O738" s="13" t="s">
         <v>2421</v>
-      </c>
-      <c r="O738" s="13" t="s">
-        <v>2422</v>
       </c>
     </row>
     <row r="739" spans="1:15">
@@ -15421,10 +15515,10 @@
         <v>2403</v>
       </c>
       <c r="B739" s="13" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="O739" s="13" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="740" spans="1:15">
@@ -15432,10 +15526,10 @@
         <v>2404</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="O740" s="13" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="741" spans="1:15">
@@ -15443,10 +15537,10 @@
         <v>2405</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="O741" s="13" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="742" spans="1:15">
@@ -15454,10 +15548,10 @@
         <v>2406</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="O742" s="13" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="743" spans="1:15">
@@ -15465,10 +15559,10 @@
         <v>2409</v>
       </c>
       <c r="B743" s="13" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="O743" s="13" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="744" spans="1:15">
@@ -15476,1630 +15570,1716 @@
         <v>2407</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="O744" s="13" t="s">
-        <v>2434</v>
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="745" spans="1:15">
+      <c r="O745" s="13"/>
+    </row>
+    <row r="746" spans="1:15">
+      <c r="A746" s="13" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B746" s="13" t="s">
+        <v>2441</v>
+      </c>
+      <c r="O746" s="13" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="747" spans="1:15">
+      <c r="O747" s="13"/>
+    </row>
+    <row r="748" spans="1:15">
+      <c r="A748" s="13" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B748" s="13" t="s">
+        <v>2443</v>
+      </c>
+      <c r="O748" s="13" t="s">
+        <v>2447</v>
       </c>
     </row>
     <row r="749" spans="1:15">
-      <c r="A749" s="1" t="s">
-        <v>1590</v>
+      <c r="A749" s="13" t="s">
+        <v>2438</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>1591</v>
-      </c>
-      <c r="O749" s="1" t="s">
-        <v>1592</v>
+        <v>2442</v>
+      </c>
+      <c r="O749" s="13" t="s">
+        <v>2451</v>
       </c>
     </row>
     <row r="750" spans="1:15">
-      <c r="A750" s="1" t="s">
-        <v>1593</v>
-      </c>
-      <c r="B750" s="1" t="s">
-        <v>1594</v>
-      </c>
-      <c r="O750" s="1" t="s">
-        <v>1595</v>
-      </c>
+      <c r="O750" s="13"/>
     </row>
     <row r="751" spans="1:15">
-      <c r="A751" s="1" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B751" s="1" t="s">
-        <v>1597</v>
-      </c>
-      <c r="O751" s="1" t="s">
-        <v>1598</v>
+      <c r="A751" s="13" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B751" s="13" t="s">
+        <v>2444</v>
+      </c>
+      <c r="O751" s="13" t="s">
+        <v>2448</v>
       </c>
     </row>
     <row r="752" spans="1:15">
       <c r="A752" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B752" s="13" t="s">
+        <v>2445</v>
+      </c>
+      <c r="O752" s="13" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="753" spans="1:15">
+      <c r="A753" s="13" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B753" s="13" t="s">
+        <v>2450</v>
+      </c>
+      <c r="O753" s="13" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="758" spans="1:15">
+      <c r="A758" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="O758" s="1" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="759" spans="1:15">
+      <c r="A759" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="O759" s="1" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="760" spans="1:15">
+      <c r="A760" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="O760" s="1" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="761" spans="1:15">
+      <c r="A761" s="1" t="s">
         <v>1599</v>
       </c>
-      <c r="B752" s="1" t="s">
+      <c r="B761" s="1" t="s">
         <v>1600</v>
       </c>
-      <c r="O752" s="1" t="s">
+      <c r="O761" s="1" t="s">
         <v>1601</v>
       </c>
     </row>
-    <row r="753" spans="1:15">
-      <c r="A753" s="1" t="s">
+    <row r="762" spans="1:15">
+      <c r="A762" s="1" t="s">
         <v>1602</v>
       </c>
-      <c r="B753" s="1" t="s">
+      <c r="B762" s="1" t="s">
         <v>1603</v>
       </c>
-      <c r="O753" s="1" t="s">
+      <c r="O762" s="1" t="s">
         <v>1604</v>
       </c>
     </row>
-    <row r="754" spans="1:15">
-      <c r="A754" s="1" t="s">
+    <row r="763" spans="1:15">
+      <c r="A763" s="1" t="s">
         <v>1605</v>
       </c>
-      <c r="B754" s="1" t="s">
+      <c r="B763" s="1" t="s">
         <v>1606</v>
       </c>
-      <c r="O754" s="1" t="s">
+      <c r="O763" s="1" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="755" spans="1:15">
-      <c r="A755" s="1" t="s">
+    <row r="764" spans="1:15">
+      <c r="A764" s="1" t="s">
         <v>1608</v>
       </c>
-      <c r="B755" s="1" t="s">
+      <c r="B764" s="1" t="s">
         <v>1609</v>
       </c>
-      <c r="O755" s="1" t="s">
+      <c r="O764" s="1" t="s">
         <v>1610</v>
-      </c>
-    </row>
-    <row r="757" spans="1:15">
-      <c r="A757" s="11" t="s">
-        <v>1611</v>
-      </c>
-      <c r="B757" s="1" t="s">
-        <v>1612</v>
-      </c>
-      <c r="O757" s="1" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="758" spans="1:15">
-      <c r="A758" s="11" t="s">
-        <v>1614</v>
-      </c>
-      <c r="B758" s="1" t="s">
-        <v>1615</v>
-      </c>
-      <c r="O758" s="1" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="759" spans="1:15">
-      <c r="A759" s="11" t="s">
-        <v>1617</v>
-      </c>
-      <c r="B759" s="1" t="s">
-        <v>1618</v>
-      </c>
-      <c r="O759" s="1" t="s">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="760" spans="1:15">
-      <c r="A760" s="11" t="s">
-        <v>1620</v>
-      </c>
-      <c r="B760" s="1" t="s">
-        <v>1621</v>
-      </c>
-      <c r="O760" s="1" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="761" spans="1:15">
-      <c r="A761" s="11" t="s">
-        <v>1623</v>
-      </c>
-      <c r="B761" s="1" t="s">
-        <v>1624</v>
-      </c>
-      <c r="O761" s="1" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="762" spans="1:15">
-      <c r="A762" s="11" t="s">
-        <v>1626</v>
-      </c>
-      <c r="B762" s="1" t="s">
-        <v>1627</v>
-      </c>
-      <c r="O762" s="1" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="763" spans="1:15">
-      <c r="A763" s="11" t="s">
-        <v>1629</v>
-      </c>
-      <c r="B763" s="1" t="s">
-        <v>1630</v>
-      </c>
-      <c r="O763" s="1" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="764" spans="1:15">
-      <c r="A764" s="11" t="s">
-        <v>1632</v>
-      </c>
-      <c r="B764" s="1" t="s">
-        <v>1633</v>
-      </c>
-      <c r="O764" s="1" t="s">
-        <v>1634</v>
       </c>
     </row>
     <row r="766" spans="1:15">
       <c r="A766" s="11" t="s">
-        <v>1635</v>
-      </c>
-      <c r="B766" s="11" t="s">
-        <v>1636</v>
+        <v>1611</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>1612</v>
       </c>
       <c r="O766" s="1" t="s">
-        <v>1637</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="767" spans="1:15">
       <c r="A767" s="11" t="s">
-        <v>1638</v>
-      </c>
-      <c r="B767" s="11" t="s">
-        <v>1639</v>
+        <v>1614</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>1615</v>
       </c>
       <c r="O767" s="1" t="s">
-        <v>1640</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="768" spans="1:15">
       <c r="A768" s="11" t="s">
-        <v>1641</v>
-      </c>
-      <c r="B768" s="11" t="s">
-        <v>1642</v>
+        <v>1617</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>1618</v>
       </c>
       <c r="O768" s="1" t="s">
-        <v>1643</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="769" spans="1:15">
       <c r="A769" s="11" t="s">
-        <v>1644</v>
-      </c>
-      <c r="B769" s="11" t="s">
-        <v>1645</v>
+        <v>1620</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>1621</v>
       </c>
       <c r="O769" s="1" t="s">
-        <v>1646</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="770" spans="1:15">
       <c r="A770" s="11" t="s">
-        <v>1647</v>
-      </c>
-      <c r="B770" s="11" t="s">
-        <v>1648</v>
+        <v>1623</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>1624</v>
       </c>
       <c r="O770" s="1" t="s">
-        <v>1649</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="771" spans="1:15">
       <c r="A771" s="11" t="s">
-        <v>1650</v>
-      </c>
-      <c r="B771" s="11" t="s">
-        <v>1651</v>
+        <v>1626</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>1627</v>
       </c>
       <c r="O771" s="1" t="s">
-        <v>1652</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="772" spans="1:15">
       <c r="A772" s="11" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="O772" s="1" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="773" spans="1:15">
+      <c r="A773" s="11" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B773" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="O773" s="1" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="775" spans="1:15">
+      <c r="A775" s="11" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B775" s="11" t="s">
+        <v>1636</v>
+      </c>
+      <c r="O775" s="1" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="776" spans="1:15">
+      <c r="A776" s="11" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B776" s="11" t="s">
+        <v>1639</v>
+      </c>
+      <c r="O776" s="1" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="777" spans="1:15">
+      <c r="A777" s="11" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B777" s="11" t="s">
+        <v>1642</v>
+      </c>
+      <c r="O777" s="1" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="778" spans="1:15">
+      <c r="A778" s="11" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B778" s="11" t="s">
+        <v>1645</v>
+      </c>
+      <c r="O778" s="1" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="779" spans="1:15">
+      <c r="A779" s="11" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B779" s="11" t="s">
+        <v>1648</v>
+      </c>
+      <c r="O779" s="1" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="780" spans="1:15">
+      <c r="A780" s="11" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B780" s="11" t="s">
+        <v>1651</v>
+      </c>
+      <c r="O780" s="1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="781" spans="1:15">
+      <c r="A781" s="11" t="s">
         <v>1653</v>
       </c>
-      <c r="B772" s="11" t="s">
+      <c r="B781" s="11" t="s">
         <v>1651</v>
       </c>
-      <c r="O772" s="1" t="s">
+      <c r="O781" s="1" t="s">
         <v>1654</v>
-      </c>
-    </row>
-    <row r="774" spans="1:15">
-      <c r="A774" s="1" t="s">
-        <v>1655</v>
-      </c>
-      <c r="B774" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="O774" s="1" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="775" spans="1:15">
-      <c r="A775" s="1" t="s">
-        <v>1658</v>
-      </c>
-      <c r="B775" s="1" t="s">
-        <v>1659</v>
-      </c>
-      <c r="O775" s="1" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="777" spans="1:15">
-      <c r="A777" s="1" t="s">
-        <v>1661</v>
-      </c>
-      <c r="B777" s="1" t="s">
-        <v>1662</v>
-      </c>
-      <c r="O777" s="1" t="s">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="778" spans="1:15">
-      <c r="A778" s="1" t="s">
-        <v>1664</v>
-      </c>
-      <c r="B778" s="1" t="s">
-        <v>1665</v>
-      </c>
-      <c r="O778" s="1" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="779" spans="1:15">
-      <c r="A779" s="1" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B779" s="1" t="s">
-        <v>1668</v>
-      </c>
-      <c r="O779" s="1" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="781" spans="1:15">
-      <c r="A781" s="1" t="s">
-        <v>1670</v>
-      </c>
-      <c r="B781" s="1" t="s">
-        <v>1671</v>
-      </c>
-      <c r="O781" s="1" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="782" spans="1:15">
-      <c r="A782" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="B782" s="1" t="s">
-        <v>1674</v>
-      </c>
-      <c r="O782" s="1" t="s">
-        <v>1675</v>
       </c>
     </row>
     <row r="783" spans="1:15">
       <c r="A783" s="1" t="s">
-        <v>1676</v>
+        <v>1655</v>
       </c>
       <c r="B783" s="1" t="s">
-        <v>1677</v>
+        <v>1656</v>
       </c>
       <c r="O783" s="1" t="s">
-        <v>1678</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="784" spans="1:15">
       <c r="A784" s="1" t="s">
-        <v>1679</v>
+        <v>1658</v>
       </c>
       <c r="B784" s="1" t="s">
-        <v>1680</v>
+        <v>1659</v>
       </c>
       <c r="O784" s="1" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="785" spans="1:15" ht="28">
-      <c r="A785" s="1" t="s">
-        <v>1682</v>
-      </c>
-      <c r="B785" s="4" t="s">
-        <v>1683</v>
-      </c>
-      <c r="O785" s="4" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="786" spans="1:15" ht="28">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="786" spans="1:15">
       <c r="A786" s="1" t="s">
-        <v>1685</v>
-      </c>
-      <c r="B786" s="4" t="s">
-        <v>1686</v>
-      </c>
-      <c r="O786" s="4" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="788" spans="1:15" ht="409.5">
+        <v>1661</v>
+      </c>
+      <c r="B786" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="O786" s="1" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="787" spans="1:15">
+      <c r="A787" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B787" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="O787" s="1" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="788" spans="1:15">
       <c r="A788" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="B788" s="4" t="s">
-        <v>1688</v>
-      </c>
-      <c r="O788" s="4" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="789" spans="1:15" ht="28">
-      <c r="A789" s="1" t="s">
-        <v>1690</v>
-      </c>
-      <c r="B789" s="4" t="s">
-        <v>1691</v>
-      </c>
-      <c r="O789" s="4" t="s">
-        <v>1692</v>
+        <v>1667</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="O788" s="1" t="s">
+        <v>1669</v>
       </c>
     </row>
     <row r="790" spans="1:15">
       <c r="A790" s="1" t="s">
-        <v>1693</v>
+        <v>1670</v>
       </c>
       <c r="B790" s="1" t="s">
-        <v>1694</v>
+        <v>1671</v>
       </c>
       <c r="O790" s="1" t="s">
-        <v>1695</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="791" spans="1:15">
       <c r="A791" s="1" t="s">
-        <v>1696</v>
+        <v>1673</v>
       </c>
       <c r="B791" s="1" t="s">
-        <v>1697</v>
+        <v>1674</v>
       </c>
       <c r="O791" s="1" t="s">
-        <v>1698</v>
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="792" spans="1:15">
+      <c r="A792" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B792" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="O792" s="1" t="s">
+        <v>1678</v>
       </c>
     </row>
     <row r="793" spans="1:15">
       <c r="A793" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B793" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="O793" s="1" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="794" spans="1:15" ht="28">
+      <c r="A794" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B794" s="4" t="s">
+        <v>1683</v>
+      </c>
+      <c r="O794" s="4" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="795" spans="1:15" ht="28">
+      <c r="A795" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B795" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="O795" s="4" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="797" spans="1:15" ht="409.5">
+      <c r="A797" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B797" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="O797" s="4" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="798" spans="1:15" ht="28">
+      <c r="A798" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B798" s="4" t="s">
+        <v>1691</v>
+      </c>
+      <c r="O798" s="4" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="799" spans="1:15">
+      <c r="A799" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B799" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="O799" s="1" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="800" spans="1:15">
+      <c r="A800" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B800" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="O800" s="1" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="802" spans="1:15">
+      <c r="A802" s="1" t="s">
         <v>1699</v>
       </c>
-      <c r="B793" s="1" t="s">
+      <c r="B802" s="1" t="s">
         <v>1700</v>
       </c>
-      <c r="O793" s="1" t="s">
+      <c r="O802" s="1" t="s">
         <v>1701</v>
       </c>
     </row>
-    <row r="794" spans="1:15">
-      <c r="A794" s="1" t="s">
+    <row r="803" spans="1:15">
+      <c r="A803" s="1" t="s">
         <v>1702</v>
       </c>
-      <c r="B794" s="1" t="s">
+      <c r="B803" s="1" t="s">
         <v>1703</v>
       </c>
-      <c r="O794" s="1" t="s">
+      <c r="O803" s="1" t="s">
         <v>1704</v>
-      </c>
-    </row>
-    <row r="795" spans="1:15">
-      <c r="A795" s="1" t="s">
-        <v>1705</v>
-      </c>
-      <c r="B795" s="1" t="s">
-        <v>1706</v>
-      </c>
-      <c r="O795" s="1" t="s">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="796" spans="1:15">
-      <c r="A796" s="1" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B796" s="1" t="s">
-        <v>1709</v>
-      </c>
-      <c r="O796" s="1" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="797" spans="1:15">
-      <c r="A797" s="1" t="s">
-        <v>1711</v>
-      </c>
-      <c r="B797" s="1" t="s">
-        <v>1712</v>
-      </c>
-      <c r="O797" s="1" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="798" spans="1:15">
-      <c r="A798" s="1" t="s">
-        <v>1714</v>
-      </c>
-      <c r="B798" s="1" t="s">
-        <v>1715</v>
-      </c>
-      <c r="O798" s="1" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="800" spans="1:15">
-      <c r="A800" s="13" t="s">
-        <v>2308</v>
-      </c>
-      <c r="B800" s="13" t="s">
-        <v>2311</v>
-      </c>
-      <c r="O800" s="13" t="s">
-        <v>2312</v>
-      </c>
-    </row>
-    <row r="801" spans="1:15">
-      <c r="A801" s="13" t="s">
-        <v>2309</v>
-      </c>
-      <c r="B801" s="13" t="s">
-        <v>2310</v>
-      </c>
-      <c r="O801" s="13" t="s">
-        <v>2313</v>
-      </c>
-    </row>
-    <row r="803" spans="1:15">
-      <c r="A803" s="13" t="s">
-        <v>2307</v>
-      </c>
-      <c r="B803" s="1" t="s">
-        <v>1717</v>
-      </c>
-      <c r="O803" s="1" t="s">
-        <v>1718</v>
       </c>
     </row>
     <row r="804" spans="1:15">
       <c r="A804" s="1" t="s">
-        <v>1719</v>
+        <v>1705</v>
       </c>
       <c r="B804" s="1" t="s">
-        <v>1720</v>
+        <v>1706</v>
       </c>
       <c r="O804" s="1" t="s">
-        <v>1721</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="805" spans="1:15">
       <c r="A805" s="1" t="s">
-        <v>1722</v>
+        <v>1708</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>1723</v>
+        <v>1709</v>
       </c>
       <c r="O805" s="1" t="s">
-        <v>1724</v>
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="806" spans="1:15">
+      <c r="A806" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B806" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="O806" s="1" t="s">
+        <v>1713</v>
       </c>
     </row>
     <row r="807" spans="1:15">
       <c r="A807" s="1" t="s">
-        <v>1725</v>
+        <v>1714</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>1726</v>
+        <v>1715</v>
       </c>
       <c r="O807" s="1" t="s">
-        <v>1727</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="809" spans="1:15">
-      <c r="A809" s="1" t="s">
-        <v>1728</v>
-      </c>
-      <c r="B809" s="1" t="s">
-        <v>1729</v>
-      </c>
-      <c r="O809" s="1" t="s">
-        <v>1730</v>
+      <c r="A809" s="13" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B809" s="13" t="s">
+        <v>2311</v>
+      </c>
+      <c r="O809" s="13" t="s">
+        <v>2312</v>
       </c>
     </row>
     <row r="810" spans="1:15">
-      <c r="A810" s="1" t="s">
-        <v>1731</v>
-      </c>
-      <c r="B810" s="1" t="s">
-        <v>1732</v>
-      </c>
-      <c r="O810" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="811" spans="1:15">
-      <c r="A811" s="1" t="s">
-        <v>1734</v>
-      </c>
-      <c r="B811" s="1" t="s">
-        <v>1735</v>
-      </c>
-      <c r="O811" s="1" t="s">
-        <v>1736</v>
+      <c r="A810" s="13" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B810" s="13" t="s">
+        <v>2310</v>
+      </c>
+      <c r="O810" s="13" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="812" spans="1:15">
+      <c r="A812" s="13" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B812" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="O812" s="1" t="s">
+        <v>1718</v>
       </c>
     </row>
     <row r="813" spans="1:15">
       <c r="A813" s="1" t="s">
-        <v>1737</v>
+        <v>1719</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>1738</v>
+        <v>1720</v>
       </c>
       <c r="O813" s="1" t="s">
-        <v>1739</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="814" spans="1:15">
       <c r="A814" s="1" t="s">
-        <v>1740</v>
+        <v>1722</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>1741</v>
+        <v>1723</v>
       </c>
       <c r="O814" s="1" t="s">
-        <v>1742</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="816" spans="1:15">
       <c r="A816" s="1" t="s">
-        <v>1743</v>
+        <v>1725</v>
       </c>
       <c r="B816" s="1" t="s">
-        <v>1744</v>
+        <v>1726</v>
       </c>
       <c r="O816" s="1" t="s">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="817" spans="1:15">
-      <c r="A817" s="1" t="s">
-        <v>1746</v>
-      </c>
-      <c r="B817" s="1" t="s">
-        <v>1747</v>
-      </c>
-      <c r="O817" s="1" t="s">
-        <v>1748</v>
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="818" spans="1:15">
+      <c r="A818" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B818" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="O818" s="1" t="s">
+        <v>1730</v>
       </c>
     </row>
     <row r="819" spans="1:15">
       <c r="A819" s="1" t="s">
-        <v>1749</v>
+        <v>1731</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>1750</v>
+        <v>1732</v>
       </c>
       <c r="O819" s="1" t="s">
-        <v>1751</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="820" spans="1:15">
       <c r="A820" s="1" t="s">
-        <v>1752</v>
+        <v>1734</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>1753</v>
+        <v>1735</v>
       </c>
       <c r="O820" s="1" t="s">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="821" spans="1:15">
-      <c r="A821" s="1" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B821" s="1" t="s">
-        <v>1756</v>
-      </c>
-      <c r="O821" s="12" t="s">
-        <v>1757</v>
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="822" spans="1:15">
+      <c r="A822" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B822" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="O822" s="1" t="s">
+        <v>1739</v>
       </c>
     </row>
     <row r="823" spans="1:15">
       <c r="A823" s="1" t="s">
-        <v>1758</v>
+        <v>1740</v>
       </c>
       <c r="B823" s="1" t="s">
-        <v>1759</v>
+        <v>1741</v>
       </c>
       <c r="O823" s="1" t="s">
-        <v>1760</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="825" spans="1:15">
       <c r="A825" s="1" t="s">
-        <v>1761</v>
+        <v>1743</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>1762</v>
+        <v>1744</v>
       </c>
       <c r="O825" s="1" t="s">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="827" spans="1:15">
-      <c r="A827" s="1" t="s">
-        <v>1764</v>
-      </c>
-      <c r="B827" s="1" t="s">
-        <v>1765</v>
-      </c>
-      <c r="O827" s="1" t="s">
-        <v>1766</v>
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="826" spans="1:15">
+      <c r="A826" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B826" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="O826" s="1" t="s">
+        <v>1748</v>
       </c>
     </row>
     <row r="828" spans="1:15">
       <c r="A828" s="1" t="s">
-        <v>1767</v>
+        <v>1749</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>1768</v>
+        <v>1750</v>
       </c>
       <c r="O828" s="1" t="s">
-        <v>1769</v>
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="829" spans="1:15">
+      <c r="A829" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B829" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="O829" s="1" t="s">
+        <v>1754</v>
       </c>
     </row>
     <row r="830" spans="1:15">
       <c r="A830" s="1" t="s">
-        <v>1770</v>
+        <v>1755</v>
       </c>
       <c r="B830" s="1" t="s">
-        <v>1771</v>
-      </c>
-      <c r="O830" s="1" t="s">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="831" spans="1:15">
-      <c r="A831" s="1" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B831" s="1" t="s">
-        <v>1774</v>
-      </c>
-      <c r="O831" s="1" t="s">
-        <v>1775</v>
+        <v>1756</v>
+      </c>
+      <c r="O830" s="12" t="s">
+        <v>1757</v>
       </c>
     </row>
     <row r="832" spans="1:15">
       <c r="A832" s="1" t="s">
-        <v>1776</v>
+        <v>1758</v>
       </c>
       <c r="B832" s="1" t="s">
-        <v>1777</v>
+        <v>1759</v>
       </c>
       <c r="O832" s="1" t="s">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="833" spans="1:15">
-      <c r="A833" s="1" t="s">
-        <v>1779</v>
-      </c>
-      <c r="B833" s="1" t="s">
-        <v>1780</v>
-      </c>
-      <c r="O833" s="1" t="s">
-        <v>1781</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="834" spans="1:15">
       <c r="A834" s="1" t="s">
-        <v>1782</v>
+        <v>1761</v>
       </c>
       <c r="B834" s="1" t="s">
-        <v>766</v>
+        <v>1762</v>
       </c>
       <c r="O834" s="1" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="835" spans="1:15">
-      <c r="A835" s="1" t="s">
-        <v>1784</v>
-      </c>
-      <c r="B835" s="1" t="s">
-        <v>1785</v>
-      </c>
-      <c r="O835" s="1" t="s">
-        <v>1786</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="836" spans="1:15">
       <c r="A836" s="1" t="s">
-        <v>1787</v>
+        <v>1764</v>
       </c>
       <c r="B836" s="1" t="s">
-        <v>1788</v>
+        <v>1765</v>
       </c>
       <c r="O836" s="1" t="s">
-        <v>1789</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="837" spans="1:15">
       <c r="A837" s="1" t="s">
-        <v>1790</v>
+        <v>1767</v>
       </c>
       <c r="B837" s="1" t="s">
-        <v>1791</v>
+        <v>1768</v>
       </c>
       <c r="O837" s="1" t="s">
-        <v>1792</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="839" spans="1:15">
       <c r="A839" s="1" t="s">
-        <v>1793</v>
+        <v>1770</v>
       </c>
       <c r="B839" s="1" t="s">
-        <v>1794</v>
+        <v>1771</v>
       </c>
       <c r="O839" s="1" t="s">
-        <v>1795</v>
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="840" spans="1:15">
+      <c r="A840" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B840" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="O840" s="1" t="s">
+        <v>1775</v>
       </c>
     </row>
     <row r="841" spans="1:15">
       <c r="A841" s="1" t="s">
-        <v>1796</v>
+        <v>1776</v>
       </c>
       <c r="B841" s="1" t="s">
-        <v>1797</v>
+        <v>1777</v>
       </c>
       <c r="O841" s="1" t="s">
-        <v>1798</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="842" spans="1:15">
       <c r="A842" s="1" t="s">
-        <v>1799</v>
+        <v>1779</v>
       </c>
       <c r="B842" s="1" t="s">
-        <v>1800</v>
+        <v>1780</v>
       </c>
       <c r="O842" s="1" t="s">
-        <v>1801</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="843" spans="1:15">
       <c r="A843" s="1" t="s">
-        <v>1802</v>
+        <v>1782</v>
       </c>
       <c r="B843" s="1" t="s">
-        <v>1803</v>
+        <v>766</v>
       </c>
       <c r="O843" s="1" t="s">
-        <v>1804</v>
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="844" spans="1:15">
+      <c r="A844" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B844" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="O844" s="1" t="s">
+        <v>1786</v>
       </c>
     </row>
     <row r="845" spans="1:15">
       <c r="A845" s="1" t="s">
-        <v>1805</v>
+        <v>1787</v>
       </c>
       <c r="B845" s="1" t="s">
-        <v>1806</v>
+        <v>1788</v>
       </c>
       <c r="O845" s="1" t="s">
-        <v>1807</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="846" spans="1:15">
       <c r="A846" s="1" t="s">
-        <v>1808</v>
+        <v>1790</v>
       </c>
       <c r="B846" s="1" t="s">
-        <v>1809</v>
+        <v>1791</v>
       </c>
       <c r="O846" s="1" t="s">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="847" spans="1:15">
-      <c r="A847" s="1" t="s">
-        <v>1811</v>
-      </c>
-      <c r="B847" s="1" t="s">
-        <v>1812</v>
-      </c>
-      <c r="O847" s="1" t="s">
-        <v>1813</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="848" spans="1:15">
       <c r="A848" s="1" t="s">
-        <v>1814</v>
+        <v>1793</v>
       </c>
       <c r="B848" s="1" t="s">
-        <v>1815</v>
+        <v>1794</v>
       </c>
       <c r="O848" s="1" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="849" spans="1:15">
-      <c r="A849" s="1" t="s">
-        <v>2418</v>
-      </c>
-      <c r="B849" s="13" t="s">
-        <v>2419</v>
-      </c>
-      <c r="O849" s="13" t="s">
-        <v>2420</v>
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="850" spans="1:15">
+      <c r="A850" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B850" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="O850" s="1" t="s">
+        <v>1798</v>
       </c>
     </row>
     <row r="851" spans="1:15">
       <c r="A851" s="1" t="s">
-        <v>1817</v>
+        <v>1799</v>
       </c>
       <c r="B851" s="1" t="s">
-        <v>1818</v>
+        <v>1800</v>
       </c>
       <c r="O851" s="1" t="s">
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="853" spans="1:15">
-      <c r="A853" s="1" t="s">
-        <v>1820</v>
-      </c>
-      <c r="B853" s="1" t="s">
-        <v>1821</v>
-      </c>
-      <c r="O853" s="1" t="s">
-        <v>1822</v>
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="852" spans="1:15">
+      <c r="A852" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B852" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="O852" s="1" t="s">
+        <v>1804</v>
       </c>
     </row>
     <row r="854" spans="1:15">
       <c r="A854" s="1" t="s">
-        <v>1823</v>
+        <v>1805</v>
       </c>
       <c r="B854" s="1" t="s">
-        <v>1824</v>
+        <v>1806</v>
       </c>
       <c r="O854" s="1" t="s">
-        <v>1825</v>
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="855" spans="1:15">
+      <c r="A855" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B855" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="O855" s="1" t="s">
+        <v>1810</v>
       </c>
     </row>
     <row r="856" spans="1:15">
       <c r="A856" s="1" t="s">
-        <v>1826</v>
+        <v>1811</v>
       </c>
       <c r="B856" s="1" t="s">
-        <v>1827</v>
+        <v>1812</v>
       </c>
       <c r="O856" s="1" t="s">
-        <v>1828</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="857" spans="1:15">
       <c r="A857" s="1" t="s">
-        <v>1829</v>
+        <v>1814</v>
       </c>
       <c r="B857" s="1" t="s">
-        <v>1830</v>
+        <v>1815</v>
       </c>
       <c r="O857" s="1" t="s">
-        <v>1831</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="858" spans="1:15">
       <c r="A858" s="1" t="s">
-        <v>1832</v>
-      </c>
-      <c r="B858" s="1" t="s">
-        <v>1833</v>
-      </c>
-      <c r="O858" s="1" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="859" spans="1:15">
-      <c r="A859" s="1" t="s">
-        <v>1835</v>
-      </c>
-      <c r="B859" s="1" t="s">
-        <v>1836</v>
-      </c>
-      <c r="O859" s="1" t="s">
-        <v>1837</v>
+        <v>2417</v>
+      </c>
+      <c r="B858" s="13" t="s">
+        <v>2418</v>
+      </c>
+      <c r="O858" s="13" t="s">
+        <v>2419</v>
       </c>
     </row>
     <row r="860" spans="1:15">
       <c r="A860" s="1" t="s">
-        <v>1838</v>
+        <v>1817</v>
       </c>
       <c r="B860" s="1" t="s">
-        <v>1839</v>
+        <v>1818</v>
       </c>
       <c r="O860" s="1" t="s">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="861" spans="1:15">
-      <c r="A861" s="1" t="s">
-        <v>1841</v>
-      </c>
-      <c r="B861" s="1" t="s">
-        <v>1842</v>
-      </c>
-      <c r="O861" s="1" t="s">
-        <v>1843</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="862" spans="1:15">
       <c r="A862" s="1" t="s">
-        <v>1844</v>
+        <v>1820</v>
       </c>
       <c r="B862" s="1" t="s">
-        <v>1845</v>
+        <v>1821</v>
       </c>
       <c r="O862" s="1" t="s">
-        <v>1846</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="863" spans="1:15">
       <c r="A863" s="1" t="s">
-        <v>1847</v>
+        <v>1823</v>
       </c>
       <c r="B863" s="1" t="s">
-        <v>1848</v>
+        <v>1824</v>
       </c>
       <c r="O863" s="1" t="s">
-        <v>1849</v>
-      </c>
-    </row>
-    <row r="864" spans="1:15">
-      <c r="A864" s="1" t="s">
-        <v>1850</v>
-      </c>
-      <c r="B864" s="1" t="s">
-        <v>1827</v>
-      </c>
-      <c r="O864" s="1" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="865" spans="1:15">
       <c r="A865" s="1" t="s">
-        <v>1851</v>
+        <v>1826</v>
       </c>
       <c r="B865" s="1" t="s">
-        <v>1852</v>
+        <v>1827</v>
       </c>
       <c r="O865" s="1" t="s">
-        <v>1853</v>
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="866" spans="1:15">
+      <c r="A866" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B866" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="O866" s="1" t="s">
+        <v>1831</v>
       </c>
     </row>
     <row r="867" spans="1:15">
       <c r="A867" s="1" t="s">
-        <v>1854</v>
+        <v>1832</v>
       </c>
       <c r="B867" s="1" t="s">
-        <v>1855</v>
+        <v>1833</v>
       </c>
       <c r="O867" s="1" t="s">
-        <v>1856</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="868" spans="1:15">
       <c r="A868" s="1" t="s">
-        <v>1857</v>
+        <v>1835</v>
       </c>
       <c r="B868" s="1" t="s">
-        <v>1858</v>
+        <v>1836</v>
       </c>
       <c r="O868" s="1" t="s">
-        <v>1859</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="869" spans="1:15">
       <c r="A869" s="1" t="s">
-        <v>1860</v>
+        <v>1838</v>
       </c>
       <c r="B869" s="1" t="s">
-        <v>1861</v>
+        <v>1839</v>
       </c>
       <c r="O869" s="1" t="s">
-        <v>1862</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="870" spans="1:15">
       <c r="A870" s="1" t="s">
-        <v>1863</v>
+        <v>1841</v>
       </c>
       <c r="B870" s="1" t="s">
-        <v>1864</v>
+        <v>1842</v>
       </c>
       <c r="O870" s="1" t="s">
-        <v>1865</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="871" spans="1:15">
       <c r="A871" s="1" t="s">
-        <v>1866</v>
+        <v>1844</v>
       </c>
       <c r="B871" s="1" t="s">
-        <v>1867</v>
+        <v>1845</v>
       </c>
       <c r="O871" s="1" t="s">
-        <v>1868</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="872" spans="1:15">
       <c r="A872" s="1" t="s">
-        <v>1869</v>
+        <v>1847</v>
       </c>
       <c r="B872" s="1" t="s">
-        <v>1870</v>
+        <v>1848</v>
       </c>
       <c r="O872" s="1" t="s">
-        <v>1871</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="873" spans="1:15">
       <c r="A873" s="1" t="s">
-        <v>1872</v>
+        <v>1850</v>
       </c>
       <c r="B873" s="1" t="s">
-        <v>1873</v>
+        <v>1827</v>
       </c>
       <c r="O873" s="1" t="s">
-        <v>1874</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="874" spans="1:15">
       <c r="A874" s="1" t="s">
-        <v>1875</v>
+        <v>1851</v>
       </c>
       <c r="B874" s="1" t="s">
-        <v>1876</v>
+        <v>1852</v>
       </c>
       <c r="O874" s="1" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="875" spans="1:15">
-      <c r="A875" s="1" t="s">
-        <v>1878</v>
-      </c>
-      <c r="B875" s="1" t="s">
-        <v>1879</v>
-      </c>
-      <c r="O875" s="1" t="s">
-        <v>1880</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="876" spans="1:15">
       <c r="A876" s="1" t="s">
-        <v>2356</v>
+        <v>1854</v>
       </c>
       <c r="B876" s="1" t="s">
-        <v>1881</v>
+        <v>1855</v>
       </c>
       <c r="O876" s="1" t="s">
-        <v>1882</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="877" spans="1:15">
       <c r="A877" s="1" t="s">
-        <v>1883</v>
+        <v>1857</v>
       </c>
       <c r="B877" s="1" t="s">
-        <v>1884</v>
+        <v>1858</v>
       </c>
       <c r="O877" s="1" t="s">
-        <v>1885</v>
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="878" spans="1:15">
+      <c r="A878" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B878" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="O878" s="1" t="s">
+        <v>1862</v>
       </c>
     </row>
     <row r="879" spans="1:15">
       <c r="A879" s="1" t="s">
-        <v>1886</v>
+        <v>1863</v>
       </c>
       <c r="B879" s="1" t="s">
-        <v>1887</v>
+        <v>1864</v>
       </c>
       <c r="O879" s="1" t="s">
-        <v>1888</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="880" spans="1:15">
       <c r="A880" s="1" t="s">
-        <v>1889</v>
+        <v>1866</v>
       </c>
       <c r="B880" s="1" t="s">
-        <v>1890</v>
+        <v>1867</v>
       </c>
       <c r="O880" s="1" t="s">
-        <v>1891</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="881" spans="1:15">
       <c r="A881" s="1" t="s">
-        <v>1892</v>
+        <v>1869</v>
       </c>
       <c r="B881" s="1" t="s">
-        <v>1893</v>
+        <v>1870</v>
       </c>
       <c r="O881" s="1" t="s">
-        <v>1894</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="882" spans="1:15">
       <c r="A882" s="1" t="s">
-        <v>1895</v>
+        <v>1872</v>
       </c>
       <c r="B882" s="1" t="s">
-        <v>1896</v>
+        <v>1873</v>
       </c>
       <c r="O882" s="1" t="s">
-        <v>1897</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="883" spans="1:15">
       <c r="A883" s="1" t="s">
-        <v>1898</v>
+        <v>1875</v>
       </c>
       <c r="B883" s="1" t="s">
-        <v>1899</v>
+        <v>1876</v>
       </c>
       <c r="O883" s="1" t="s">
-        <v>1900</v>
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="884" spans="1:15">
+      <c r="A884" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B884" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="O884" s="1" t="s">
+        <v>1880</v>
       </c>
     </row>
     <row r="885" spans="1:15">
       <c r="A885" s="1" t="s">
-        <v>1901</v>
+        <v>2356</v>
       </c>
       <c r="B885" s="1" t="s">
-        <v>1902</v>
+        <v>1881</v>
       </c>
       <c r="O885" s="1" t="s">
-        <v>1903</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="886" spans="1:15">
       <c r="A886" s="1" t="s">
-        <v>1904</v>
+        <v>1883</v>
       </c>
       <c r="B886" s="1" t="s">
-        <v>1905</v>
+        <v>1884</v>
       </c>
       <c r="O886" s="1" t="s">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="887" spans="1:15">
-      <c r="A887" s="1" t="s">
-        <v>1907</v>
-      </c>
-      <c r="B887" s="1" t="s">
-        <v>1908</v>
-      </c>
-      <c r="O887" s="1" t="s">
-        <v>1909</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="888" spans="1:15">
       <c r="A888" s="1" t="s">
-        <v>1910</v>
+        <v>1886</v>
       </c>
       <c r="B888" s="1" t="s">
-        <v>1911</v>
+        <v>1887</v>
       </c>
       <c r="O888" s="1" t="s">
-        <v>1912</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="889" spans="1:15">
-      <c r="A889" s="1" t="s">
-        <v>1913</v>
-      </c>
-      <c r="B889" s="1" t="s">
-        <v>1914</v>
-      </c>
-      <c r="O889" s="1" t="s">
-        <v>1915</v>
+      <c r="A889" s="13" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B889" s="13" t="s">
+        <v>2459</v>
+      </c>
+      <c r="O889" s="13" t="s">
+        <v>2460</v>
       </c>
     </row>
     <row r="890" spans="1:15">
       <c r="A890" s="1" t="s">
-        <v>1916</v>
+        <v>1889</v>
       </c>
       <c r="B890" s="1" t="s">
-        <v>1917</v>
+        <v>1890</v>
       </c>
       <c r="O890" s="1" t="s">
-        <v>1918</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="891" spans="1:15">
       <c r="A891" s="1" t="s">
-        <v>1919</v>
+        <v>1892</v>
       </c>
       <c r="B891" s="1" t="s">
-        <v>1920</v>
+        <v>1893</v>
       </c>
       <c r="O891" s="1" t="s">
-        <v>1921</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="892" spans="1:15">
       <c r="A892" s="1" t="s">
-        <v>1922</v>
+        <v>1895</v>
       </c>
       <c r="B892" s="1" t="s">
-        <v>1923</v>
+        <v>1896</v>
       </c>
       <c r="O892" s="1" t="s">
-        <v>1924</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="893" spans="1:15">
       <c r="A893" s="1" t="s">
-        <v>1925</v>
+        <v>1898</v>
       </c>
       <c r="B893" s="1" t="s">
-        <v>1926</v>
+        <v>1899</v>
       </c>
       <c r="O893" s="1" t="s">
-        <v>1927</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="895" spans="1:15">
       <c r="A895" s="1" t="s">
-        <v>1928</v>
+        <v>1901</v>
       </c>
       <c r="B895" s="1" t="s">
-        <v>1929</v>
+        <v>1902</v>
       </c>
       <c r="O895" s="1" t="s">
-        <v>1930</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="896" spans="1:15">
       <c r="A896" s="1" t="s">
-        <v>1931</v>
+        <v>1904</v>
       </c>
       <c r="B896" s="1" t="s">
-        <v>1932</v>
+        <v>1905</v>
       </c>
       <c r="O896" s="1" t="s">
-        <v>1933</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="897" spans="1:15">
       <c r="A897" s="1" t="s">
-        <v>1934</v>
+        <v>1907</v>
       </c>
       <c r="B897" s="1" t="s">
-        <v>1935</v>
+        <v>1908</v>
       </c>
       <c r="O897" s="1" t="s">
-        <v>1936</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="898" spans="1:15">
       <c r="A898" s="1" t="s">
-        <v>1937</v>
+        <v>1910</v>
       </c>
       <c r="B898" s="1" t="s">
-        <v>1938</v>
+        <v>1911</v>
       </c>
       <c r="O898" s="1" t="s">
-        <v>1939</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="899" spans="1:15">
       <c r="A899" s="1" t="s">
-        <v>1940</v>
+        <v>1913</v>
       </c>
       <c r="B899" s="1" t="s">
-        <v>1941</v>
+        <v>1914</v>
       </c>
       <c r="O899" s="1" t="s">
-        <v>1942</v>
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="900" spans="1:15">
+      <c r="A900" s="1" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B900" s="1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="O900" s="1" t="s">
+        <v>1918</v>
       </c>
     </row>
     <row r="901" spans="1:15">
       <c r="A901" s="1" t="s">
-        <v>1943</v>
+        <v>1919</v>
       </c>
       <c r="B901" s="1" t="s">
-        <v>1944</v>
+        <v>1920</v>
       </c>
       <c r="O901" s="1" t="s">
-        <v>1945</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="902" spans="1:15">
       <c r="A902" s="1" t="s">
-        <v>1946</v>
+        <v>1922</v>
       </c>
       <c r="B902" s="1" t="s">
-        <v>766</v>
+        <v>1923</v>
       </c>
       <c r="O902" s="1" t="s">
-        <v>1783</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="903" spans="1:15">
       <c r="A903" s="1" t="s">
-        <v>1947</v>
+        <v>1925</v>
       </c>
       <c r="B903" s="1" t="s">
-        <v>1785</v>
+        <v>1926</v>
       </c>
       <c r="O903" s="1" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="904" spans="1:15">
-      <c r="A904" s="1" t="s">
-        <v>1948</v>
-      </c>
-      <c r="B904" s="1" t="s">
-        <v>1949</v>
-      </c>
-      <c r="O904" s="1" t="s">
-        <v>1950</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="905" spans="1:15">
       <c r="A905" s="1" t="s">
-        <v>1951</v>
+        <v>1928</v>
       </c>
       <c r="B905" s="1" t="s">
-        <v>1952</v>
+        <v>1929</v>
       </c>
       <c r="O905" s="1" t="s">
-        <v>1953</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="906" spans="1:15">
       <c r="A906" s="1" t="s">
-        <v>1954</v>
+        <v>1931</v>
       </c>
       <c r="B906" s="1" t="s">
-        <v>1955</v>
+        <v>1932</v>
       </c>
       <c r="O906" s="1" t="s">
-        <v>1953</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="907" spans="1:15">
       <c r="A907" s="1" t="s">
-        <v>1956</v>
+        <v>1934</v>
       </c>
       <c r="B907" s="1" t="s">
-        <v>1957</v>
+        <v>1935</v>
       </c>
       <c r="O907" s="1" t="s">
-        <v>1958</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="908" spans="1:15">
       <c r="A908" s="1" t="s">
-        <v>1959</v>
+        <v>1937</v>
       </c>
       <c r="B908" s="1" t="s">
-        <v>1960</v>
+        <v>1938</v>
       </c>
       <c r="O908" s="1" t="s">
-        <v>1958</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="909" spans="1:15">
       <c r="A909" s="1" t="s">
-        <v>1961</v>
+        <v>1940</v>
       </c>
       <c r="B909" s="1" t="s">
-        <v>1962</v>
+        <v>1941</v>
       </c>
       <c r="O909" s="1" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="910" spans="1:15">
-      <c r="A910" s="1" t="s">
-        <v>1964</v>
-      </c>
-      <c r="B910" s="1" t="s">
-        <v>1965</v>
-      </c>
-      <c r="O910" s="1" t="s">
-        <v>1963</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="911" spans="1:15">
       <c r="A911" s="1" t="s">
-        <v>1966</v>
+        <v>1943</v>
       </c>
       <c r="B911" s="1" t="s">
-        <v>1967</v>
+        <v>1944</v>
       </c>
       <c r="O911" s="1" t="s">
-        <v>1968</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="912" spans="1:15">
       <c r="A912" s="1" t="s">
-        <v>1969</v>
+        <v>1946</v>
       </c>
       <c r="B912" s="1" t="s">
-        <v>1970</v>
+        <v>766</v>
       </c>
       <c r="O912" s="1" t="s">
-        <v>1968</v>
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="913" spans="1:15">
+      <c r="A913" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B913" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="O913" s="1" t="s">
+        <v>1786</v>
       </c>
     </row>
     <row r="914" spans="1:15">
       <c r="A914" s="1" t="s">
-        <v>1971</v>
+        <v>1948</v>
       </c>
       <c r="B914" s="1" t="s">
-        <v>1972</v>
+        <v>1949</v>
       </c>
       <c r="O914" s="1" t="s">
-        <v>1973</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="915" spans="1:15">
       <c r="A915" s="1" t="s">
-        <v>1974</v>
+        <v>1951</v>
       </c>
       <c r="B915" s="1" t="s">
-        <v>1975</v>
+        <v>1952</v>
       </c>
       <c r="O915" s="1" t="s">
-        <v>1976</v>
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="916" spans="1:15">
+      <c r="A916" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B916" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="O916" s="1" t="s">
+        <v>1953</v>
       </c>
     </row>
     <row r="917" spans="1:15">
       <c r="A917" s="1" t="s">
-        <v>1977</v>
+        <v>1956</v>
       </c>
       <c r="B917" s="1" t="s">
-        <v>1978</v>
+        <v>1957</v>
       </c>
       <c r="O917" s="1" t="s">
-        <v>1979</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="918" spans="1:15">
       <c r="A918" s="1" t="s">
-        <v>1980</v>
+        <v>1959</v>
       </c>
       <c r="B918" s="1" t="s">
-        <v>1981</v>
+        <v>1960</v>
       </c>
       <c r="O918" s="1" t="s">
-        <v>1982</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="919" spans="1:15">
       <c r="A919" s="1" t="s">
-        <v>1983</v>
+        <v>1961</v>
       </c>
       <c r="B919" s="1" t="s">
-        <v>1984</v>
+        <v>1962</v>
       </c>
       <c r="O919" s="1" t="s">
-        <v>1985</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="920" spans="1:15">
       <c r="A920" s="1" t="s">
-        <v>1986</v>
+        <v>1964</v>
       </c>
       <c r="B920" s="1" t="s">
-        <v>1987</v>
+        <v>1965</v>
       </c>
       <c r="O920" s="1" t="s">
-        <v>1988</v>
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="921" spans="1:15">
+      <c r="A921" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B921" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="O921" s="1" t="s">
+        <v>1968</v>
       </c>
     </row>
     <row r="922" spans="1:15">
       <c r="A922" s="1" t="s">
-        <v>1989</v>
+        <v>1969</v>
       </c>
       <c r="B922" s="1" t="s">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="O922" s="1" t="s">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="923" spans="1:15">
-      <c r="A923" s="1" t="s">
-        <v>1992</v>
-      </c>
-      <c r="B923" s="1" t="s">
-        <v>1993</v>
-      </c>
-      <c r="O923" s="1" t="s">
-        <v>1994</v>
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="924" spans="1:15">
+      <c r="A924" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B924" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="O924" s="1" t="s">
+        <v>1973</v>
       </c>
     </row>
     <row r="925" spans="1:15">
       <c r="A925" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B925" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="O925" s="1" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="927" spans="1:15">
+      <c r="A927" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B927" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="O927" s="1" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="928" spans="1:15">
+      <c r="A928" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B928" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="O928" s="1" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="929" spans="1:16">
+      <c r="A929" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B929" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="O929" s="1" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="930" spans="1:16">
+      <c r="A930" s="1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B930" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="O930" s="1" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="932" spans="1:16">
+      <c r="A932" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B932" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="O932" s="1" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="933" spans="1:16">
+      <c r="A933" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B933" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="O933" s="1" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="935" spans="1:16">
+      <c r="A935" s="1" t="s">
         <v>1995</v>
       </c>
-      <c r="B925" s="1" t="s">
+      <c r="B935" s="1" t="s">
         <v>1996</v>
       </c>
-      <c r="O925" s="1" t="s">
+      <c r="O935" s="1" t="s">
         <v>1997</v>
       </c>
     </row>
-    <row r="927" spans="1:15">
-      <c r="A927" s="13" t="s">
+    <row r="937" spans="1:16">
+      <c r="A937" s="13" t="s">
         <v>2334</v>
       </c>
-      <c r="B927" s="13" t="s">
+      <c r="B937" s="13" t="s">
         <v>2335</v>
       </c>
-      <c r="O927" s="13" t="s">
+      <c r="O937" s="13" t="s">
         <v>2336</v>
       </c>
     </row>
-    <row r="928" spans="1:15">
-      <c r="A928" s="13" t="s">
+    <row r="938" spans="1:16">
+      <c r="A938" s="13" t="s">
         <v>2401</v>
       </c>
-      <c r="B928" s="13" t="s">
+      <c r="B938" s="13" t="s">
         <v>2399</v>
       </c>
-      <c r="O928" s="13" t="s">
+      <c r="O938" s="13" t="s">
         <v>2400</v>
       </c>
     </row>
-    <row r="929" spans="1:16">
-      <c r="A929" s="16" t="s">
+    <row r="939" spans="1:16">
+      <c r="A939" s="16" t="s">
         <v>2396</v>
       </c>
-      <c r="B929" s="16" t="s">
+      <c r="B939" s="16" t="s">
         <v>2397</v>
       </c>
-      <c r="C929" s="4"/>
-      <c r="O929" s="1" t="s">
+      <c r="C939" s="4"/>
+      <c r="O939" s="1" t="s">
         <v>2398</v>
       </c>
-      <c r="P929" s="15"/>
+      <c r="P939" s="15"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -17111,10 +17291,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33" defaultRowHeight="14"/>
@@ -17710,13 +17890,24 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="13" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B50" s="13" t="s">
         <v>2415</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="O50" s="13" t="s">
         <v>2416</v>
       </c>
-      <c r="O50" s="13" t="s">
-        <v>2417</v>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="13" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>2456</v>
+      </c>
+      <c r="O51" s="13" t="s">
+        <v>2457</v>
       </c>
     </row>
   </sheetData>
@@ -19340,17 +19531,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -19392,14 +19572,25 @@
 </woProps>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+</pixelators>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WindowsFile\TheOtherRolesRework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACD78A7-4DA0-4EC6-AC61-A4789B03F24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0170105B-4438-4083-843D-5DD6CAEAE004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2673" uniqueCount="2461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="2452">
   <si>
     <t>English</t>
   </si>
@@ -7010,39 +7010,6 @@
     <t>ghostsSeeInformation</t>
   </si>
   <si>
-    <t>Ghosts See Tasks &amp; Other Info</t>
-  </si>
-  <si>
-    <t>灵魂可见任务和其他信息</t>
-  </si>
-  <si>
-    <t>ghostsSeeVotes</t>
-  </si>
-  <si>
-    <t>Ghosts Can See Votes</t>
-  </si>
-  <si>
-    <t>灵魂可见投票结果</t>
-  </si>
-  <si>
-    <t>ghostsSeeRoles</t>
-  </si>
-  <si>
-    <t>Ghosts Can See Roles</t>
-  </si>
-  <si>
-    <t>灵魂可见玩家职业</t>
-  </si>
-  <si>
-    <t>ghostsSeeModifier</t>
-  </si>
-  <si>
-    <t>Ghosts Can Additionally See Modifier</t>
-  </si>
-  <si>
-    <t>灵魂可见附加职业</t>
-  </si>
-  <si>
     <t>showRoleSummary</t>
   </si>
   <si>
@@ -7052,15 +7019,6 @@
     <t>显示职业总结</t>
   </si>
   <si>
-    <t>showLighterDarker</t>
-  </si>
-  <si>
-    <t>Show Lighter / Darker</t>
-  </si>
-  <si>
-    <t>显示颜色深浅</t>
-  </si>
-  <si>
     <t>enableSoundEffects</t>
   </si>
   <si>
@@ -7068,15 +7026,6 @@
   </si>
   <si>
     <t>启用模组音效</t>
-  </si>
-  <si>
-    <t>showVentsOnMap</t>
-  </si>
-  <si>
-    <t>Show Vents On Map</t>
-  </si>
-  <si>
-    <t>在地图上显示管道位置</t>
   </si>
   <si>
     <t>showChatNotifications</t>
@@ -7731,6 +7680,38 @@
   </si>
   <si>
     <t>和平之鸽重置了你的冷却时间！</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghosts See More Infos</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂可见更多信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable Dark Mode</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableDarkMode</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用深色模式</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instead Dark Mod Of Role Color</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>insteadRoleColor</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用职业颜色代替深色模式</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -8284,8 +8265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q939"/>
   <sheetViews>
-    <sheetView topLeftCell="A879" workbookViewId="0">
-      <selection activeCell="O889" sqref="O889"/>
+    <sheetView tabSelected="1" topLeftCell="A739" workbookViewId="0">
+      <selection activeCell="A753" sqref="A753"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14"/>
@@ -9065,7 +9046,7 @@
         <v>196</v>
       </c>
       <c r="O79" s="13" t="s">
-        <v>2294</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -9792,7 +9773,7 @@
       </c>
       <c r="C152" s="4"/>
       <c r="O152" s="13" t="s">
-        <v>2303</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="153" spans="1:15">
@@ -10245,7 +10226,7 @@
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="16" t="s">
-        <v>2321</v>
+        <v>2304</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>444</v>
@@ -10257,7 +10238,7 @@
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="16" t="s">
-        <v>2323</v>
+        <v>2306</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>446</v>
@@ -10352,38 +10333,38 @@
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="16" t="s">
-        <v>2320</v>
+        <v>2303</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>2325</v>
+        <v>2308</v>
       </c>
       <c r="C205" s="4"/>
       <c r="O205" s="15" t="s">
-        <v>2314</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="206" spans="1:15">
       <c r="A206" s="16" t="s">
-        <v>2322</v>
+        <v>2305</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>2326</v>
+        <v>2309</v>
       </c>
       <c r="C206" s="4"/>
       <c r="O206" s="15" t="s">
-        <v>2315</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="16" t="s">
-        <v>2324</v>
+        <v>2307</v>
       </c>
       <c r="B207" s="16" t="s">
-        <v>2330</v>
+        <v>2313</v>
       </c>
       <c r="C207" s="4"/>
       <c r="O207" s="15" t="s">
-        <v>2316</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="208" spans="1:15">
@@ -10394,38 +10375,38 @@
     </row>
     <row r="209" spans="1:16">
       <c r="A209" s="16" t="s">
-        <v>2332</v>
+        <v>2315</v>
       </c>
       <c r="B209" s="16" t="s">
-        <v>2327</v>
+        <v>2310</v>
       </c>
       <c r="C209" s="4"/>
       <c r="O209" s="15" t="s">
-        <v>2317</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="210" spans="1:16">
       <c r="A210" s="16" t="s">
-        <v>2331</v>
+        <v>2314</v>
       </c>
       <c r="B210" s="16" t="s">
-        <v>2328</v>
+        <v>2311</v>
       </c>
       <c r="C210" s="4"/>
       <c r="O210" s="15" t="s">
-        <v>2318</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="211" spans="1:16">
       <c r="A211" s="4" t="s">
-        <v>2333</v>
+        <v>2316</v>
       </c>
       <c r="B211" s="16" t="s">
-        <v>2329</v>
+        <v>2312</v>
       </c>
       <c r="C211" s="4"/>
       <c r="O211" s="15" t="s">
-        <v>2319</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -10436,38 +10417,38 @@
     </row>
     <row r="213" spans="1:16">
       <c r="A213" s="16" t="s">
-        <v>2357</v>
+        <v>2340</v>
       </c>
       <c r="B213" s="16" t="s">
-        <v>2358</v>
+        <v>2341</v>
       </c>
       <c r="C213" s="4"/>
       <c r="O213" s="15" t="s">
-        <v>2359</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="214" spans="1:16">
       <c r="A214" s="16" t="s">
-        <v>2360</v>
+        <v>2343</v>
       </c>
       <c r="B214" s="16" t="s">
-        <v>2362</v>
+        <v>2345</v>
       </c>
       <c r="C214" s="4"/>
       <c r="O214" s="15" t="s">
-        <v>2364</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="215" spans="1:16">
       <c r="A215" s="16" t="s">
-        <v>2361</v>
+        <v>2344</v>
       </c>
       <c r="B215" s="16" t="s">
-        <v>2363</v>
+        <v>2346</v>
       </c>
       <c r="C215" s="4"/>
       <c r="O215" s="15" t="s">
-        <v>2365</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -10478,111 +10459,111 @@
     </row>
     <row r="217" spans="1:16">
       <c r="A217" s="16" t="s">
-        <v>2366</v>
+        <v>2349</v>
       </c>
       <c r="B217" s="16" t="s">
-        <v>2371</v>
+        <v>2354</v>
       </c>
       <c r="C217" s="4"/>
       <c r="O217" s="15" t="s">
-        <v>2370</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="218" spans="1:16">
       <c r="A218" s="16" t="s">
-        <v>2372</v>
+        <v>2355</v>
       </c>
       <c r="B218" s="16" t="s">
-        <v>2373</v>
+        <v>2356</v>
       </c>
       <c r="C218" s="4"/>
       <c r="O218" s="15" t="s">
-        <v>2374</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="219" spans="1:16">
       <c r="A219" s="16" t="s">
-        <v>2375</v>
+        <v>2358</v>
       </c>
       <c r="B219" s="16" t="s">
-        <v>2376</v>
+        <v>2359</v>
       </c>
       <c r="C219" s="4"/>
       <c r="O219" s="15" t="s">
-        <v>2377</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="220" spans="1:16">
       <c r="A220" s="16" t="s">
-        <v>2379</v>
+        <v>2362</v>
       </c>
       <c r="B220" s="16" t="s">
-        <v>2378</v>
+        <v>2361</v>
       </c>
       <c r="C220" s="4"/>
       <c r="O220" s="15" t="s">
-        <v>2380</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="221" spans="1:16">
       <c r="A221" s="16" t="s">
-        <v>2381</v>
+        <v>2364</v>
       </c>
       <c r="B221" s="16" t="s">
-        <v>2382</v>
+        <v>2365</v>
       </c>
       <c r="C221" s="4"/>
       <c r="O221" s="15" t="s">
-        <v>2383</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="222" spans="1:16">
       <c r="A222" s="16" t="s">
-        <v>2384</v>
+        <v>2367</v>
       </c>
       <c r="B222" s="16" t="s">
-        <v>2385</v>
+        <v>2368</v>
       </c>
       <c r="C222" s="4"/>
       <c r="O222" s="15" t="s">
-        <v>2386</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="223" spans="1:16">
       <c r="A223" s="16" t="s">
-        <v>2387</v>
+        <v>2370</v>
       </c>
       <c r="B223" s="16" t="s">
-        <v>2388</v>
+        <v>2371</v>
       </c>
       <c r="C223" s="4"/>
       <c r="O223" s="15" t="s">
-        <v>2389</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="224" spans="1:16">
       <c r="A224" s="16" t="s">
-        <v>2390</v>
+        <v>2373</v>
       </c>
       <c r="B224" s="16" t="s">
-        <v>2391</v>
+        <v>2374</v>
       </c>
       <c r="C224" s="4"/>
       <c r="O224" s="13" t="s">
-        <v>2392</v>
+        <v>2375</v>
       </c>
       <c r="P224" s="15"/>
     </row>
     <row r="225" spans="1:16">
       <c r="A225" s="16" t="s">
-        <v>2393</v>
+        <v>2376</v>
       </c>
       <c r="B225" s="16" t="s">
-        <v>2394</v>
+        <v>2377</v>
       </c>
       <c r="C225" s="4"/>
       <c r="O225" s="13" t="s">
-        <v>2395</v>
+        <v>2378</v>
       </c>
       <c r="P225" s="15"/>
     </row>
@@ -11796,13 +11777,13 @@
     </row>
     <row r="347" spans="1:15">
       <c r="A347" s="9" t="s">
-        <v>2338</v>
+        <v>2321</v>
       </c>
       <c r="B347" s="14" t="s">
-        <v>2339</v>
+        <v>2322</v>
       </c>
       <c r="O347" s="16" t="s">
-        <v>2340</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="348" spans="1:15">
@@ -11959,13 +11940,13 @@
     </row>
     <row r="363" spans="1:15">
       <c r="A363" s="14" t="s">
-        <v>2341</v>
+        <v>2324</v>
       </c>
       <c r="B363" s="14" t="s">
-        <v>2342</v>
+        <v>2325</v>
       </c>
       <c r="O363" s="13" t="s">
-        <v>2343</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="364" spans="1:15">
@@ -13489,7 +13470,7 @@
         <v>1133</v>
       </c>
       <c r="O520" s="13" t="s">
-        <v>2295</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="521" spans="1:15">
@@ -13628,7 +13609,7 @@
     </row>
     <row r="537" spans="1:15">
       <c r="A537" s="14" t="s">
-        <v>2304</v>
+        <v>2287</v>
       </c>
       <c r="B537" s="9" t="s">
         <v>1162</v>
@@ -14336,7 +14317,7 @@
         <v>1322</v>
       </c>
       <c r="O614" s="13" t="s">
-        <v>2306</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="615" spans="1:15">
@@ -15297,7 +15278,7 @@
     </row>
     <row r="713" spans="1:15">
       <c r="A713" s="14" t="s">
-        <v>2305</v>
+        <v>2288</v>
       </c>
       <c r="B713" s="9" t="s">
         <v>1557</v>
@@ -15378,24 +15359,24 @@
     </row>
     <row r="722" spans="1:15">
       <c r="A722" s="14" t="s">
-        <v>2297</v>
+        <v>2280</v>
       </c>
       <c r="B722" s="14" t="s">
-        <v>2298</v>
+        <v>2281</v>
       </c>
       <c r="O722" s="13" t="s">
-        <v>2299</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="723" spans="1:15">
       <c r="A723" s="1" t="s">
-        <v>2300</v>
+        <v>2283</v>
       </c>
       <c r="B723" s="13" t="s">
-        <v>2301</v>
+        <v>2284</v>
       </c>
       <c r="O723" s="13" t="s">
-        <v>2302</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="725" spans="1:15">
@@ -15406,7 +15387,7 @@
         <v>1578</v>
       </c>
       <c r="O725" s="13" t="s">
-        <v>2296</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="726" spans="1:15">
@@ -15466,11 +15447,11 @@
     </row>
     <row r="733" spans="1:15">
       <c r="A733" s="13" t="s">
-        <v>2402</v>
+        <v>2385</v>
       </c>
       <c r="B733" s="13"/>
       <c r="O733" s="13" t="s">
-        <v>2412</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="734" spans="1:15">
@@ -15478,102 +15459,102 @@
     </row>
     <row r="735" spans="1:15">
       <c r="A735" s="13" t="s">
-        <v>2410</v>
+        <v>2393</v>
       </c>
       <c r="B735" s="13" t="s">
-        <v>2435</v>
+        <v>2418</v>
       </c>
       <c r="C735" s="13"/>
       <c r="O735" s="13" t="s">
-        <v>2413</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="736" spans="1:15">
       <c r="A736" s="13" t="s">
-        <v>2411</v>
+        <v>2394</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>2434</v>
+        <v>2417</v>
       </c>
       <c r="O736" s="13" t="s">
-        <v>2414</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="738" spans="1:15">
       <c r="A738" s="13" t="s">
-        <v>2408</v>
+        <v>2391</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>2420</v>
+        <v>2403</v>
       </c>
       <c r="O738" s="13" t="s">
-        <v>2421</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="739" spans="1:15">
       <c r="A739" s="1" t="s">
-        <v>2403</v>
+        <v>2386</v>
       </c>
       <c r="B739" s="13" t="s">
-        <v>2425</v>
+        <v>2408</v>
       </c>
       <c r="O739" s="13" t="s">
-        <v>2428</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="740" spans="1:15">
       <c r="A740" s="1" t="s">
-        <v>2404</v>
+        <v>2387</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>2422</v>
+        <v>2405</v>
       </c>
       <c r="O740" s="13" t="s">
-        <v>2429</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="741" spans="1:15">
       <c r="A741" s="1" t="s">
-        <v>2405</v>
+        <v>2388</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>2423</v>
+        <v>2406</v>
       </c>
       <c r="O741" s="13" t="s">
-        <v>2430</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="742" spans="1:15">
       <c r="A742" s="1" t="s">
-        <v>2406</v>
+        <v>2389</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>2424</v>
+        <v>2407</v>
       </c>
       <c r="O742" s="13" t="s">
-        <v>2431</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="743" spans="1:15">
       <c r="A743" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B743" s="13" t="s">
         <v>2409</v>
       </c>
-      <c r="B743" s="13" t="s">
-        <v>2426</v>
-      </c>
       <c r="O743" s="13" t="s">
-        <v>2432</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="744" spans="1:15">
       <c r="A744" s="1" t="s">
-        <v>2407</v>
+        <v>2390</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>2427</v>
+        <v>2410</v>
       </c>
       <c r="O744" s="13" t="s">
-        <v>2433</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="745" spans="1:15">
@@ -15581,13 +15562,13 @@
     </row>
     <row r="746" spans="1:15">
       <c r="A746" s="13" t="s">
-        <v>2436</v>
+        <v>2419</v>
       </c>
       <c r="B746" s="13" t="s">
-        <v>2441</v>
+        <v>2424</v>
       </c>
       <c r="O746" s="13" t="s">
-        <v>2446</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="747" spans="1:15">
@@ -15595,24 +15576,24 @@
     </row>
     <row r="748" spans="1:15">
       <c r="A748" s="13" t="s">
-        <v>2437</v>
+        <v>2420</v>
       </c>
       <c r="B748" s="13" t="s">
-        <v>2443</v>
+        <v>2426</v>
       </c>
       <c r="O748" s="13" t="s">
-        <v>2447</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="749" spans="1:15">
       <c r="A749" s="13" t="s">
-        <v>2438</v>
+        <v>2421</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>2442</v>
+        <v>2425</v>
       </c>
       <c r="O749" s="13" t="s">
-        <v>2451</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="750" spans="1:15">
@@ -15620,35 +15601,35 @@
     </row>
     <row r="751" spans="1:15">
       <c r="A751" s="13" t="s">
-        <v>2439</v>
+        <v>2422</v>
       </c>
       <c r="B751" s="13" t="s">
-        <v>2444</v>
+        <v>2427</v>
       </c>
       <c r="O751" s="13" t="s">
-        <v>2448</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="752" spans="1:15">
       <c r="A752" s="1" t="s">
-        <v>2440</v>
+        <v>2423</v>
       </c>
       <c r="B752" s="13" t="s">
-        <v>2445</v>
+        <v>2428</v>
       </c>
       <c r="O752" s="13" t="s">
-        <v>2452</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="753" spans="1:15">
       <c r="A753" s="13" t="s">
-        <v>2449</v>
+        <v>2432</v>
       </c>
       <c r="B753" s="13" t="s">
-        <v>2450</v>
+        <v>2433</v>
       </c>
       <c r="O753" s="13" t="s">
-        <v>2453</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="758" spans="1:15">
@@ -16126,29 +16107,29 @@
     </row>
     <row r="809" spans="1:15">
       <c r="A809" s="13" t="s">
-        <v>2308</v>
+        <v>2291</v>
       </c>
       <c r="B809" s="13" t="s">
-        <v>2311</v>
+        <v>2294</v>
       </c>
       <c r="O809" s="13" t="s">
-        <v>2312</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="810" spans="1:15">
       <c r="A810" s="13" t="s">
-        <v>2309</v>
+        <v>2292</v>
       </c>
       <c r="B810" s="13" t="s">
-        <v>2310</v>
+        <v>2293</v>
       </c>
       <c r="O810" s="13" t="s">
-        <v>2313</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="812" spans="1:15">
       <c r="A812" s="13" t="s">
-        <v>2307</v>
+        <v>2290</v>
       </c>
       <c r="B812" s="1" t="s">
         <v>1717</v>
@@ -16522,13 +16503,13 @@
     </row>
     <row r="858" spans="1:15">
       <c r="A858" s="1" t="s">
-        <v>2417</v>
+        <v>2400</v>
       </c>
       <c r="B858" s="13" t="s">
-        <v>2418</v>
+        <v>2401</v>
       </c>
       <c r="O858" s="13" t="s">
-        <v>2419</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="860" spans="1:15">
@@ -16775,7 +16756,7 @@
     </row>
     <row r="885" spans="1:15">
       <c r="A885" s="1" t="s">
-        <v>2356</v>
+        <v>2339</v>
       </c>
       <c r="B885" s="1" t="s">
         <v>1881</v>
@@ -16808,13 +16789,13 @@
     </row>
     <row r="889" spans="1:15">
       <c r="A889" s="13" t="s">
-        <v>2458</v>
+        <v>2441</v>
       </c>
       <c r="B889" s="13" t="s">
-        <v>2459</v>
+        <v>2442</v>
       </c>
       <c r="O889" s="13" t="s">
-        <v>2460</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="890" spans="1:15">
@@ -17248,36 +17229,36 @@
     </row>
     <row r="937" spans="1:16">
       <c r="A937" s="13" t="s">
-        <v>2334</v>
+        <v>2317</v>
       </c>
       <c r="B937" s="13" t="s">
-        <v>2335</v>
+        <v>2318</v>
       </c>
       <c r="O937" s="13" t="s">
-        <v>2336</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="938" spans="1:16">
       <c r="A938" s="13" t="s">
-        <v>2401</v>
+        <v>2384</v>
       </c>
       <c r="B938" s="13" t="s">
-        <v>2399</v>
+        <v>2382</v>
       </c>
       <c r="O938" s="13" t="s">
-        <v>2400</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="939" spans="1:16">
       <c r="A939" s="16" t="s">
-        <v>2396</v>
+        <v>2379</v>
       </c>
       <c r="B939" s="16" t="s">
-        <v>2397</v>
+        <v>2380</v>
       </c>
       <c r="C939" s="4"/>
       <c r="O939" s="1" t="s">
-        <v>2398</v>
+        <v>2381</v>
       </c>
       <c r="P939" s="15"/>
     </row>
@@ -17293,7 +17274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
@@ -17868,46 +17849,46 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="13" t="s">
-        <v>2337</v>
+        <v>2320</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>2310</v>
+        <v>2293</v>
       </c>
       <c r="O48" s="13" t="s">
-        <v>2313</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="13" t="s">
-        <v>2367</v>
+        <v>2350</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>2368</v>
+        <v>2351</v>
       </c>
       <c r="O49" s="13" t="s">
-        <v>2369</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="13" t="s">
-        <v>2454</v>
+        <v>2437</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>2415</v>
+        <v>2398</v>
       </c>
       <c r="O50" s="13" t="s">
-        <v>2416</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="13" t="s">
-        <v>2455</v>
+        <v>2438</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>2456</v>
+        <v>2439</v>
       </c>
       <c r="O51" s="13" t="s">
-        <v>2457</v>
+        <v>2440</v>
       </c>
     </row>
   </sheetData>
@@ -17921,7 +17902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -19275,35 +19256,35 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="13" t="s">
-        <v>2347</v>
+        <v>2330</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>2348</v>
+        <v>2331</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>2349</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="13" t="s">
-        <v>2350</v>
+        <v>2333</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>2351</v>
+        <v>2334</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>2352</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="13" t="s">
-        <v>2353</v>
+        <v>2336</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>2355</v>
+        <v>2338</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>2354</v>
+        <v>2337</v>
       </c>
     </row>
   </sheetData>
@@ -19314,10 +19295,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14"/>
@@ -19418,110 +19399,77 @@
       <c r="A5" s="1" t="s">
         <v>2267</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>2268</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>2269</v>
+      <c r="B5" s="13" t="s">
+        <v>2444</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>2445</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>2270</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>2271</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>2272</v>
-      </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>2273</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2274</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>2275</v>
+      <c r="A7" s="13" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>2449</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>2451</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>2276</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2277</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>2278</v>
+      <c r="A8" s="13" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>2446</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>2448</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>2279</v>
+        <v>2271</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2280</v>
+        <v>2272</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>2281</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>2282</v>
+        <v>2274</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2283</v>
+        <v>2275</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>2284</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>2285</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>2286</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>2287</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>2288</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>2289</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>2290</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>2291</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>2292</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>2293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="13" t="s">
-        <v>2344</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>2345</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>2346</v>
+      <c r="A11" s="13" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>2328</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>2329</v>
       </c>
     </row>
   </sheetData>
@@ -19531,6 +19479,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -19572,25 +19531,14 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-</pixelators>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>